--- a/all feature-v1027.xlsx
+++ b/all feature-v1027.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>HapaxLegomena</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>THE MERCHANT OF VENICE ACT III</t>
-  </si>
-  <si>
-    <t>THE THIRD PART OF KING HENRY THE SIXTH ACT1591</t>
   </si>
   <si>
     <t>THE FIRST PART OF KING HENRY THE FOURTH ACT II.</t>
@@ -941,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M185"/>
+  <dimension ref="A1:M184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1013,22 +1010,22 @@
         <v>0.00655644241733181</v>
       </c>
       <c r="H3">
-        <v>0.245099502092803</v>
+        <v>0.281761318020533</v>
       </c>
       <c r="I3">
-        <v>0.14379795443989</v>
+        <v>0.178360270862961</v>
       </c>
       <c r="J3">
-        <v>-0.232916400692288</v>
+        <v>-0.256368595136091</v>
       </c>
       <c r="K3">
-        <v>-0.505899948555097</v>
+        <v>-0.45583367332732</v>
       </c>
       <c r="L3">
-        <v>0.725102086436559</v>
+        <v>0.611973899508653</v>
       </c>
       <c r="M3">
-        <v>0.288601003045056</v>
+        <v>-0.490690254085064</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1054,22 +1051,22 @@
         <v>0.00333333333333333</v>
       </c>
       <c r="H4">
-        <v>0.452543339742466</v>
+        <v>0.405603673743064</v>
       </c>
       <c r="I4">
-        <v>0.473535209682394</v>
+        <v>0.59148998632547</v>
       </c>
       <c r="J4">
-        <v>-0.0474749480377664</v>
+        <v>-0.0748927561168407</v>
       </c>
       <c r="K4">
-        <v>0.010634503272564</v>
+        <v>0.180812896409878</v>
       </c>
       <c r="L4">
-        <v>0.569923348350183</v>
+        <v>0.0276900675858791</v>
       </c>
       <c r="M4">
-        <v>-0.493750285569598</v>
+        <v>-0.668248672017393</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1095,22 +1092,22 @@
         <v>0.00256287041486465</v>
       </c>
       <c r="H5">
-        <v>0.339724337619257</v>
+        <v>0.340703272861896</v>
       </c>
       <c r="I5">
-        <v>0.191315128478298</v>
+        <v>0.302649193445732</v>
       </c>
       <c r="J5">
-        <v>-0.462515421657885</v>
+        <v>-0.343114675316468</v>
       </c>
       <c r="K5">
-        <v>0.729994046597102</v>
+        <v>0.811937940578805</v>
       </c>
       <c r="L5">
-        <v>0.149855786774891</v>
+        <v>0.0982981180697217</v>
       </c>
       <c r="M5">
-        <v>-0.280566063300579</v>
+        <v>0.0754408760746813</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1136,22 +1133,22 @@
         <v>0.00571778639983664</v>
       </c>
       <c r="H6">
-        <v>0.461478025252396</v>
+        <v>0.540513080942486</v>
       </c>
       <c r="I6">
-        <v>0.761460753205253</v>
+        <v>0.576129756239398</v>
       </c>
       <c r="J6">
-        <v>-0.132720731221027</v>
+        <v>-0.112351417381553</v>
       </c>
       <c r="K6">
-        <v>0.0833578836753467</v>
+        <v>-0.20915225679095</v>
       </c>
       <c r="L6">
-        <v>0.115596441317014</v>
+        <v>-0.286919683124635</v>
       </c>
       <c r="M6">
-        <v>-0.411448279891171</v>
+        <v>-0.487062317607163</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1177,22 +1174,22 @@
         <v>0.00469571750563486</v>
       </c>
       <c r="H7">
-        <v>0.545158326856908</v>
+        <v>0.232980023987013</v>
       </c>
       <c r="I7">
-        <v>0.315765243516103</v>
+        <v>0.178727973034609</v>
       </c>
       <c r="J7">
-        <v>0.341803573207083</v>
+        <v>0.0284053914343566</v>
       </c>
       <c r="K7">
-        <v>-0.209557726142041</v>
+        <v>-0.159733151769733</v>
       </c>
       <c r="L7">
-        <v>-0.449079463884363</v>
+        <v>-0.938565748332817</v>
       </c>
       <c r="M7">
-        <v>-0.490589667155937</v>
+        <v>-0.0809284257698093</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1218,22 +1215,22 @@
         <v>0.00329835082458771</v>
       </c>
       <c r="H8">
-        <v>0.49615248685741</v>
+        <v>0.543413837311838</v>
       </c>
       <c r="I8">
-        <v>0.416430535184259</v>
+        <v>0.295181229732983</v>
       </c>
       <c r="J8">
-        <v>-0.0116578368865545</v>
+        <v>-0.155700870246677</v>
       </c>
       <c r="K8">
-        <v>0.125978301367704</v>
+        <v>-0.175719639934669</v>
       </c>
       <c r="L8">
-        <v>-0.221196158692984</v>
+        <v>-0.741043578384483</v>
       </c>
       <c r="M8">
-        <v>-0.717972242467954</v>
+        <v>-0.115341688526422</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1259,22 +1256,22 @@
         <v>0.003797239467181</v>
       </c>
       <c r="H9">
-        <v>0.445912242744967</v>
+        <v>0.349595191180549</v>
       </c>
       <c r="I9">
-        <v>0.328782303868162</v>
+        <v>0.267260232501367</v>
       </c>
       <c r="J9">
-        <v>-0.301084507926466</v>
+        <v>-0.198036297246133</v>
       </c>
       <c r="K9">
-        <v>0.160131816306928</v>
+        <v>0.109535214885066</v>
       </c>
       <c r="L9">
-        <v>-0.148879150259198</v>
+        <v>-0.721663699385024</v>
       </c>
       <c r="M9">
-        <v>-0.744718327654368</v>
+        <v>-0.484087117252459</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1300,22 +1297,22 @@
         <v>0.00277777777777778</v>
       </c>
       <c r="H10">
-        <v>0.590439172209804</v>
+        <v>0.439455572524997</v>
       </c>
       <c r="I10">
-        <v>0.442661774986353</v>
+        <v>0.21883841351611</v>
       </c>
       <c r="J10">
-        <v>-0.22824461236635</v>
+        <v>-0.192576650356175</v>
       </c>
       <c r="K10">
-        <v>-0.151609511332619</v>
+        <v>-0.790046348082597</v>
       </c>
       <c r="L10">
-        <v>0.309988471654593</v>
+        <v>0.150596867566342</v>
       </c>
       <c r="M10">
-        <v>-0.533158735581254</v>
+        <v>-0.273952794555252</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1341,22 +1338,22 @@
         <v>0.00738437621453556</v>
       </c>
       <c r="H11">
-        <v>0.484338385763263</v>
+        <v>0.36692238706421</v>
       </c>
       <c r="I11">
-        <v>0.560629447987103</v>
+        <v>0.206802581921623</v>
       </c>
       <c r="J11">
-        <v>-0.317307473011769</v>
+        <v>-0.233125101175467</v>
       </c>
       <c r="K11">
-        <v>0.0695265764743021</v>
+        <v>0.133598896778092</v>
       </c>
       <c r="L11">
-        <v>0.54236955429994</v>
+        <v>0.0280230383169009</v>
       </c>
       <c r="M11">
-        <v>0.226777951814203</v>
+        <v>-0.865805627890433</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1382,22 +1379,22 @@
         <v>0.00427807486631016</v>
       </c>
       <c r="H12">
-        <v>0.243397746654897</v>
+        <v>0.542227574927836</v>
       </c>
       <c r="I12">
-        <v>0.395132393928497</v>
+        <v>0.36658818891488</v>
       </c>
       <c r="J12">
-        <v>0.591998622769362</v>
+        <v>0.0137111679096599</v>
       </c>
       <c r="K12">
-        <v>0.0919757884596374</v>
+        <v>-0.286064876610707</v>
       </c>
       <c r="L12">
-        <v>0.35788498496705</v>
+        <v>-0.697747412995681</v>
       </c>
       <c r="M12">
-        <v>-0.545549585925235</v>
+        <v>-0.0522474366651062</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1423,22 +1420,22 @@
         <v>0.00316742081447964</v>
       </c>
       <c r="H13">
-        <v>0.413121323601186</v>
+        <v>0.42974792741457</v>
       </c>
       <c r="I13">
-        <v>0.421345808962822</v>
+        <v>0.512359540440671</v>
       </c>
       <c r="J13">
-        <v>-0.378831613256076</v>
+        <v>-0.270371132732755</v>
       </c>
       <c r="K13">
-        <v>-0.282613409421424</v>
+        <v>-0.243866489880355</v>
       </c>
       <c r="L13">
-        <v>0.527020225496045</v>
+        <v>0.563998765345614</v>
       </c>
       <c r="M13">
-        <v>0.388155165863557</v>
+        <v>0.319590986401634</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1464,22 +1461,22 @@
         <v>0.00367197062423501</v>
       </c>
       <c r="H14">
-        <v>0.517075016644917</v>
+        <v>0.445281668473535</v>
       </c>
       <c r="I14">
-        <v>0.428699708526502</v>
+        <v>0.306776355315672</v>
       </c>
       <c r="J14">
-        <v>-0.321413253920402</v>
+        <v>-0.0730876470505785</v>
       </c>
       <c r="K14">
-        <v>-0.0604024587130805</v>
+        <v>-0.432850375831428</v>
       </c>
       <c r="L14">
-        <v>0.579083403569786</v>
+        <v>0.305242357039379</v>
       </c>
       <c r="M14">
-        <v>-0.32643140468818</v>
+        <v>-0.649413854949911</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1505,22 +1502,22 @@
         <v>0.00640604467805519</v>
       </c>
       <c r="H15">
-        <v>0.182405074953524</v>
+        <v>0.449900002900143</v>
       </c>
       <c r="I15">
-        <v>0.0959834664945208</v>
+        <v>0.193124706038942</v>
       </c>
       <c r="J15">
-        <v>-0.200952300476022</v>
+        <v>-0.26640056430376</v>
       </c>
       <c r="K15">
-        <v>-0.274863671299887</v>
+        <v>-0.576823728269762</v>
       </c>
       <c r="L15">
-        <v>-0.264350789916596</v>
+        <v>-0.193982155764478</v>
       </c>
       <c r="M15">
-        <v>-0.878465911572161</v>
+        <v>0.564773303544351</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1546,22 +1543,22 @@
         <v>0.00480225988700565</v>
       </c>
       <c r="H16">
-        <v>0.17326994961354</v>
+        <v>0.582888077262547</v>
       </c>
       <c r="I16">
-        <v>0.388574241991978</v>
+        <v>-0.140049656812267</v>
       </c>
       <c r="J16">
-        <v>-0.107538540836723</v>
+        <v>0.147054706139893</v>
       </c>
       <c r="K16">
-        <v>-0.0195210180401155</v>
+        <v>-0.583158590699114</v>
       </c>
       <c r="L16">
-        <v>-0.506413026216199</v>
+        <v>-0.317640992447565</v>
       </c>
       <c r="M16">
-        <v>0.742016052379743</v>
+        <v>-0.421939278125178</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1587,22 +1584,22 @@
         <v>0.00342231348391513</v>
       </c>
       <c r="H17">
-        <v>0.372963583946262</v>
+        <v>0.387426759798901</v>
       </c>
       <c r="I17">
-        <v>0.377864574055823</v>
+        <v>0.190684759905377</v>
       </c>
       <c r="J17">
-        <v>-0.161909377982166</v>
+        <v>0.0380822024063623</v>
       </c>
       <c r="K17">
-        <v>-0.0798918524923776</v>
+        <v>0.21391235285252</v>
       </c>
       <c r="L17">
-        <v>-0.601228554767709</v>
+        <v>-0.867395984180978</v>
       </c>
       <c r="M17">
-        <v>-0.569248099585996</v>
+        <v>-0.118132493054391</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1628,22 +1625,22 @@
         <v>0.0043940795559667</v>
       </c>
       <c r="H18">
-        <v>0.285861155844647</v>
+        <v>0.309087922065232</v>
       </c>
       <c r="I18">
-        <v>0.634425206918695</v>
+        <v>0.650792556550488</v>
       </c>
       <c r="J18">
-        <v>0.659525733709435</v>
+        <v>0.657833584472791</v>
       </c>
       <c r="K18">
-        <v>0.0727850218381931</v>
+        <v>0.0436425186498529</v>
       </c>
       <c r="L18">
-        <v>0.198719737055211</v>
+        <v>0.169336945403667</v>
       </c>
       <c r="M18">
-        <v>0.189806927379074</v>
+        <v>-0.132698942719261</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1669,22 +1666,22 @@
         <v>0.00561654327291294</v>
       </c>
       <c r="H19">
-        <v>0.513077314868846</v>
+        <v>0.602424999541141</v>
       </c>
       <c r="I19">
-        <v>0.36561877484084</v>
+        <v>0.18590074858325</v>
       </c>
       <c r="J19">
-        <v>-0.131986157154047</v>
+        <v>0.138503958757707</v>
       </c>
       <c r="K19">
-        <v>-0.551808689848686</v>
+        <v>-0.745026435961714</v>
       </c>
       <c r="L19">
-        <v>-0.318241201069616</v>
+        <v>-0.0966277692946377</v>
       </c>
       <c r="M19">
-        <v>-0.424127271605836</v>
+        <v>-0.137624012918588</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1710,22 +1707,22 @@
         <v>0.00444140758455757</v>
       </c>
       <c r="H20">
-        <v>0.513994768495592</v>
+        <v>0.321620541835609</v>
       </c>
       <c r="I20">
-        <v>0.575341336862802</v>
+        <v>0.266085936244725</v>
       </c>
       <c r="J20">
-        <v>-0.448323765157006</v>
+        <v>-0.306808953622005</v>
       </c>
       <c r="K20">
-        <v>0.0587559089712614</v>
+        <v>-0.294031053242906</v>
       </c>
       <c r="L20">
-        <v>0.261257918530027</v>
+        <v>-0.106394989737265</v>
       </c>
       <c r="M20">
-        <v>-0.363441286617041</v>
+        <v>-0.796148612676793</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1751,22 +1748,22 @@
         <v>0.00525020508613618</v>
       </c>
       <c r="H21">
-        <v>0.408973330076437</v>
+        <v>0.368205282470418</v>
       </c>
       <c r="I21">
-        <v>0.35460699388246</v>
+        <v>0.298669794976173</v>
       </c>
       <c r="J21">
-        <v>-0.556332951081402</v>
+        <v>-0.222570926639147</v>
       </c>
       <c r="K21">
-        <v>0.205811032620868</v>
+        <v>0.215080328237112</v>
       </c>
       <c r="L21">
-        <v>0.0837243268085644</v>
+        <v>-0.0357797956040924</v>
       </c>
       <c r="M21">
-        <v>-0.590017286754276</v>
+        <v>0.823494787340338</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1792,22 +1789,22 @@
         <v>0.00709219858156028</v>
       </c>
       <c r="H22">
-        <v>0.124460339111489</v>
+        <v>0.392450805257398</v>
       </c>
       <c r="I22">
-        <v>0.417802646540117</v>
+        <v>-0.123685640838275</v>
       </c>
       <c r="J22">
-        <v>-0.0287573557207029</v>
+        <v>0.0536295057245125</v>
       </c>
       <c r="K22">
-        <v>-0.183275681380448</v>
+        <v>-0.819561550130559</v>
       </c>
       <c r="L22">
-        <v>-0.531593387202739</v>
+        <v>-0.256086883510812</v>
       </c>
       <c r="M22">
-        <v>0.702098342343245</v>
+        <v>0.300909417367261</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1833,22 +1830,22 @@
         <v>0.00804093567251462</v>
       </c>
       <c r="H23">
-        <v>0.775441499232642</v>
+        <v>0.786996317997065</v>
       </c>
       <c r="I23">
-        <v>-0.570219944345901</v>
+        <v>-0.587016842425016</v>
       </c>
       <c r="J23">
-        <v>0.208492496744783</v>
+        <v>0.145298562146987</v>
       </c>
       <c r="K23">
-        <v>0.0578681466038352</v>
+        <v>-0.0622705065876841</v>
       </c>
       <c r="L23">
-        <v>-0.0569492513880269</v>
+        <v>0.017598045202584</v>
       </c>
       <c r="M23">
-        <v>-0.153227398053018</v>
+        <v>0.103677590735922</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1874,22 +1871,22 @@
         <v>0.00640256102440976</v>
       </c>
       <c r="H24">
-        <v>0.37363765767719</v>
+        <v>0.209907040019387</v>
       </c>
       <c r="I24">
-        <v>0.441159935523794</v>
+        <v>0.231585111936858</v>
       </c>
       <c r="J24">
-        <v>-0.406842333374781</v>
+        <v>-0.416686579351812</v>
       </c>
       <c r="K24">
-        <v>-0.135650765160021</v>
+        <v>-0.0102326488534374</v>
       </c>
       <c r="L24">
-        <v>0.0607491865768123</v>
+        <v>-0.525327881943726</v>
       </c>
       <c r="M24">
-        <v>-0.691491528559869</v>
+        <v>-0.672759670623574</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1915,22 +1912,22 @@
         <v>0.00339406931046802</v>
       </c>
       <c r="H25">
-        <v>0.238544241457574</v>
+        <v>0.272743693873761</v>
       </c>
       <c r="I25">
-        <v>0.395420976819801</v>
+        <v>0.365343560089925</v>
       </c>
       <c r="J25">
-        <v>-0.0336098758079808</v>
+        <v>-0.797586358152665</v>
       </c>
       <c r="K25">
-        <v>0.176661025278197</v>
+        <v>-0.16620018247025</v>
       </c>
       <c r="L25">
-        <v>0.799142805812234</v>
+        <v>0.269096583007298</v>
       </c>
       <c r="M25">
-        <v>0.340251275196264</v>
+        <v>-0.236549128517391</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1956,22 +1953,22 @@
         <v>0.00476714338100477</v>
       </c>
       <c r="H26">
-        <v>0.436508732289081</v>
+        <v>0.414072999530336</v>
       </c>
       <c r="I26">
-        <v>0.400654602279613</v>
+        <v>0.521936879832701</v>
       </c>
       <c r="J26">
-        <v>-0.167431181893383</v>
+        <v>-0.0264506284220985</v>
       </c>
       <c r="K26">
-        <v>-0.732032308563482</v>
+        <v>-0.356196760800124</v>
       </c>
       <c r="L26">
-        <v>0.20555712572797</v>
+        <v>0.463020654976638</v>
       </c>
       <c r="M26">
-        <v>0.206827906528601</v>
+        <v>0.462775917099232</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1997,22 +1994,22 @@
         <v>0.00450740502253703</v>
       </c>
       <c r="H27">
-        <v>0.219456954292213</v>
+        <v>0.320184346981696</v>
       </c>
       <c r="I27">
-        <v>0.180728864784069</v>
+        <v>0.491556786159671</v>
       </c>
       <c r="J27">
-        <v>-0.234371778418817</v>
+        <v>-0.0191609366201632</v>
       </c>
       <c r="K27">
-        <v>0.0540498495454474</v>
+        <v>0.069358605252047</v>
       </c>
       <c r="L27">
-        <v>-0.485105756738085</v>
+        <v>-0.781511919227692</v>
       </c>
       <c r="M27">
-        <v>-0.791199475904232</v>
+        <v>-0.199788068759519</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2038,22 +2035,22 @@
         <v>0.00502804099787275</v>
       </c>
       <c r="H28">
-        <v>0.16626455328709</v>
+        <v>0.132069256311057</v>
       </c>
       <c r="I28">
-        <v>0.580009456678071</v>
+        <v>0.374064463680419</v>
       </c>
       <c r="J28">
-        <v>-0.197095613834667</v>
+        <v>-0.267350177193242</v>
       </c>
       <c r="K28">
-        <v>0.269375436053315</v>
+        <v>0.258380988657929</v>
       </c>
       <c r="L28">
-        <v>-0.228220996895894</v>
+        <v>-0.531434573190284</v>
       </c>
       <c r="M28">
-        <v>-0.687350346270604</v>
+        <v>0.649595205048405</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2079,22 +2076,22 @@
         <v>0.00288120567375887</v>
       </c>
       <c r="H29">
-        <v>0.393091080544812</v>
+        <v>0.554900469500103</v>
       </c>
       <c r="I29">
-        <v>0.714955986929449</v>
+        <v>0.464785475412355</v>
       </c>
       <c r="J29">
-        <v>-0.202495498216433</v>
+        <v>-0.19031878865018</v>
       </c>
       <c r="K29">
-        <v>-0.181804825187339</v>
+        <v>-0.158194867474579</v>
       </c>
       <c r="L29">
-        <v>0.51015143757531</v>
+        <v>0.0511871712904203</v>
       </c>
       <c r="M29">
-        <v>0.00232994213955119</v>
+        <v>-0.642022543904021</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2120,22 +2117,22 @@
         <v>0.00427289559891753</v>
       </c>
       <c r="H30">
-        <v>0.486299509772252</v>
+        <v>0.60752262943261</v>
       </c>
       <c r="I30">
-        <v>0.265452272427658</v>
+        <v>0.578573676581023</v>
       </c>
       <c r="J30">
-        <v>-0.432927790966727</v>
+        <v>-0.102124878337904</v>
       </c>
       <c r="K30">
-        <v>-0.161761000108427</v>
+        <v>-0.140541494102523</v>
       </c>
       <c r="L30">
-        <v>0.17403104034181</v>
+        <v>0.479715652451771</v>
       </c>
       <c r="M30">
-        <v>-0.670199956362576</v>
+        <v>0.189368017224333</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2161,22 +2158,22 @@
         <v>0.00503018108651911</v>
       </c>
       <c r="H31">
-        <v>0.766661474327399</v>
+        <v>0.765768890999278</v>
       </c>
       <c r="I31">
-        <v>-0.611322212910481</v>
+        <v>-0.620257505395259</v>
       </c>
       <c r="J31">
-        <v>0.189880092552749</v>
+        <v>0.161512899729133</v>
       </c>
       <c r="K31">
-        <v>0.00712426843637332</v>
+        <v>-0.00900819792389232</v>
       </c>
       <c r="L31">
-        <v>-0.00349998470571663</v>
+        <v>0.0399250669846908</v>
       </c>
       <c r="M31">
-        <v>0.0489681645851345</v>
+        <v>0.0334224056002148</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2202,22 +2199,22 @@
         <v>0.00697612020391736</v>
       </c>
       <c r="H32">
-        <v>0.285226249773292</v>
+        <v>0.443545780239048</v>
       </c>
       <c r="I32">
-        <v>-0.0686668266609146</v>
+        <v>0.0513542606418317</v>
       </c>
       <c r="J32">
-        <v>0.186269594670522</v>
+        <v>-0.0951812075790681</v>
       </c>
       <c r="K32">
-        <v>0.213943787901776</v>
+        <v>0.305096282727952</v>
       </c>
       <c r="L32">
-        <v>-0.136908406876326</v>
+        <v>-0.643325816599303</v>
       </c>
       <c r="M32">
-        <v>-0.902617657262857</v>
+        <v>0.533496551471779</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2243,22 +2240,22 @@
         <v>0.00187466523835029</v>
       </c>
       <c r="H33">
-        <v>0.471050813753926</v>
+        <v>0.399438803320895</v>
       </c>
       <c r="I33">
-        <v>0.284256033416953</v>
+        <v>0.463779264910322</v>
       </c>
       <c r="J33">
-        <v>-0.264010901789321</v>
+        <v>-0.42505921405613</v>
       </c>
       <c r="K33">
-        <v>-0.463452161624244</v>
+        <v>-0.523383417403275</v>
       </c>
       <c r="L33">
-        <v>-0.633061337900278</v>
+        <v>0.0264152791476743</v>
       </c>
       <c r="M33">
-        <v>-0.109787605884912</v>
+        <v>0.41237620178863</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2284,22 +2281,22 @@
         <v>0.00353704067596777</v>
       </c>
       <c r="H34">
-        <v>0.505710251492244</v>
+        <v>0.199626682525565</v>
       </c>
       <c r="I34">
-        <v>0.355833457762048</v>
+        <v>0.434821714161712</v>
       </c>
       <c r="J34">
-        <v>-0.115908398644493</v>
+        <v>-0.447639823910872</v>
       </c>
       <c r="K34">
-        <v>0.0132624207133268</v>
+        <v>-0.245103076920012</v>
       </c>
       <c r="L34">
-        <v>0.537930114201443</v>
+        <v>-0.0154733607234133</v>
       </c>
       <c r="M34">
-        <v>-0.560945840013517</v>
+        <v>-0.714410882726892</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2325,22 +2322,22 @@
         <v>0.00443404360142875</v>
       </c>
       <c r="H35">
-        <v>0.316156956880313</v>
+        <v>0.356451599299396</v>
       </c>
       <c r="I35">
-        <v>0.590249994107984</v>
+        <v>0.554656672657351</v>
       </c>
       <c r="J35">
-        <v>-0.163299320848781</v>
+        <v>-0.19107863489261</v>
       </c>
       <c r="K35">
-        <v>0.0198684934284596</v>
+        <v>-0.435843703859667</v>
       </c>
       <c r="L35">
-        <v>0.707546074513789</v>
+        <v>0.485231929084743</v>
       </c>
       <c r="M35">
-        <v>-0.154812306652419</v>
+        <v>-0.321523605546688</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2366,22 +2363,22 @@
         <v>0.00301837270341207</v>
       </c>
       <c r="H36">
-        <v>0.350625262870297</v>
+        <v>0.526734172397065</v>
       </c>
       <c r="I36">
-        <v>0.431215308468756</v>
+        <v>0.654849369072226</v>
       </c>
       <c r="J36">
-        <v>-0.494967081791553</v>
+        <v>-0.388215800190329</v>
       </c>
       <c r="K36">
-        <v>-0.447210997545433</v>
+        <v>-0.209749727007954</v>
       </c>
       <c r="L36">
-        <v>-0.28804915372054</v>
+        <v>0.0089802555004628</v>
       </c>
       <c r="M36">
-        <v>-0.403921872937557</v>
+        <v>0.314541436012337</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2407,22 +2404,22 @@
         <v>0.00397474865559972</v>
       </c>
       <c r="H37">
-        <v>0.613442980946478</v>
+        <v>0.201826208379048</v>
       </c>
       <c r="I37">
-        <v>0.629011794494958</v>
+        <v>0.412407932373073</v>
       </c>
       <c r="J37">
-        <v>-0.0814346336634951</v>
+        <v>-0.364880564006409</v>
       </c>
       <c r="K37">
-        <v>0.40605466573884</v>
+        <v>0.554007314581181</v>
       </c>
       <c r="L37">
-        <v>0.157324992086192</v>
+        <v>-0.442782664856377</v>
       </c>
       <c r="M37">
-        <v>0.178237838997848</v>
+        <v>0.391238367278444</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2448,22 +2445,22 @@
         <v>0.00332355816226784</v>
       </c>
       <c r="H38">
-        <v>0.209307365095367</v>
+        <v>0.250907318723273</v>
       </c>
       <c r="I38">
-        <v>0.170147648771334</v>
+        <v>0.280925855762884</v>
       </c>
       <c r="J38">
-        <v>-0.271570895341808</v>
+        <v>-0.297806318491583</v>
       </c>
       <c r="K38">
-        <v>-0.304397249262764</v>
+        <v>-0.126531164974738</v>
       </c>
       <c r="L38">
-        <v>0.872253528801477</v>
+        <v>0.705733746306485</v>
       </c>
       <c r="M38">
-        <v>-0.00235573179814211</v>
+        <v>-0.505338818275253</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2489,22 +2486,22 @@
         <v>0.00469336670838548</v>
       </c>
       <c r="H39">
-        <v>0.337153156400035</v>
+        <v>0.289005088919967</v>
       </c>
       <c r="I39">
-        <v>0.302164171750998</v>
+        <v>0.288268748732209</v>
       </c>
       <c r="J39">
-        <v>-0.372724160720679</v>
+        <v>-0.439252660997184</v>
       </c>
       <c r="K39">
-        <v>-0.358208947395907</v>
+        <v>-0.361555919783643</v>
       </c>
       <c r="L39">
-        <v>-0.539076489568163</v>
+        <v>-0.187995618848499</v>
       </c>
       <c r="M39">
-        <v>0.487015555044164</v>
+        <v>0.688744692213882</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2530,22 +2527,22 @@
         <v>0.00478616643507797</v>
       </c>
       <c r="H40">
-        <v>0.668107280726498</v>
+        <v>0.606545669138178</v>
       </c>
       <c r="I40">
-        <v>0.162732916866939</v>
+        <v>0.150491006692728</v>
       </c>
       <c r="J40">
-        <v>-0.0653965583224893</v>
+        <v>-0.17706514234381</v>
       </c>
       <c r="K40">
-        <v>0.372329031592635</v>
+        <v>0.183875426077707</v>
       </c>
       <c r="L40">
-        <v>-0.21784614589285</v>
+        <v>-0.628975354471752</v>
       </c>
       <c r="M40">
-        <v>-0.580334471077427</v>
+        <v>-0.385593794909838</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2571,22 +2568,22 @@
         <v>0.00451019303626195</v>
       </c>
       <c r="H41">
-        <v>0.447780520292588</v>
+        <v>0.639988139890377</v>
       </c>
       <c r="I41">
-        <v>0.49756658923136</v>
+        <v>0.217477788352308</v>
       </c>
       <c r="J41">
-        <v>-0.190603278205348</v>
+        <v>-0.499564289632077</v>
       </c>
       <c r="K41">
-        <v>0.234969610487441</v>
+        <v>-0.149109783942948</v>
       </c>
       <c r="L41">
-        <v>0.102879419172807</v>
+        <v>-0.503962456964595</v>
       </c>
       <c r="M41">
-        <v>0.670668019606266</v>
+        <v>-0.131689890273093</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2612,22 +2609,22 @@
         <v>0.00396396396396396</v>
       </c>
       <c r="H42">
-        <v>0.381587563520983</v>
+        <v>0.278591322978059</v>
       </c>
       <c r="I42">
-        <v>0.527362945838723</v>
+        <v>0.278050299260535</v>
       </c>
       <c r="J42">
-        <v>-0.577483497890862</v>
+        <v>-0.249482174257182</v>
       </c>
       <c r="K42">
-        <v>-0.0652533025655193</v>
+        <v>-0.61860328120793</v>
       </c>
       <c r="L42">
-        <v>-0.385279163007831</v>
+        <v>-0.547709370183333</v>
       </c>
       <c r="M42">
-        <v>-0.300156688152098</v>
+        <v>0.31650904704689</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2653,22 +2650,22 @@
         <v>0.00326975476839237</v>
       </c>
       <c r="H43">
-        <v>0.635470070720318</v>
+        <v>0.406807873400782</v>
       </c>
       <c r="I43">
-        <v>0.671624700255593</v>
+        <v>0.33389826283638</v>
       </c>
       <c r="J43">
-        <v>-0.251548395526019</v>
+        <v>-0.330609038589606</v>
       </c>
       <c r="K43">
-        <v>0.215130722426474</v>
+        <v>-0.136571454212366</v>
       </c>
       <c r="L43">
-        <v>0.0399236678744307</v>
+        <v>-0.482141786398405</v>
       </c>
       <c r="M43">
-        <v>-0.184245295585258</v>
+        <v>-0.602166508135177</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2694,22 +2691,22 @@
         <v>0.0030441400304414</v>
       </c>
       <c r="H44">
-        <v>0.313805443239774</v>
+        <v>0.329106179411065</v>
       </c>
       <c r="I44">
-        <v>0.338197796490748</v>
+        <v>0.469545586880594</v>
       </c>
       <c r="J44">
-        <v>-0.375501949135408</v>
+        <v>-0.468233954714742</v>
       </c>
       <c r="K44">
-        <v>-0.457253336414137</v>
+        <v>-0.532746223568631</v>
       </c>
       <c r="L44">
-        <v>-0.661073446247381</v>
+        <v>0.0243029317523096</v>
       </c>
       <c r="M44">
-        <v>-0.00692570878345381</v>
+        <v>0.409345644838452</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2735,22 +2732,22 @@
         <v>0.00363636363636364</v>
       </c>
       <c r="H45">
-        <v>0.258197086200988</v>
+        <v>0.298017646405379</v>
       </c>
       <c r="I45">
-        <v>0.183073090272038</v>
+        <v>0.276234218499369</v>
       </c>
       <c r="J45">
-        <v>-0.31784013849911</v>
+        <v>-0.382466698189412</v>
       </c>
       <c r="K45">
-        <v>-0.381834655418557</v>
+        <v>-0.275052163099378</v>
       </c>
       <c r="L45">
-        <v>0.781660752740592</v>
+        <v>0.710584915074908</v>
       </c>
       <c r="M45">
-        <v>0.20495101414932</v>
+        <v>-0.328655974811761</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2776,22 +2773,22 @@
         <v>0.00581395348837209</v>
       </c>
       <c r="H46">
-        <v>0.284687264027005</v>
+        <v>0.292349483603839</v>
       </c>
       <c r="I46">
-        <v>0.604545058295644</v>
+        <v>0.592310317137722</v>
       </c>
       <c r="J46">
-        <v>0.732117326610374</v>
+        <v>0.744978700213964</v>
       </c>
       <c r="K46">
-        <v>0.0629789957830615</v>
+        <v>0.0300574083392376</v>
       </c>
       <c r="L46">
-        <v>-0.00487415582102878</v>
+        <v>0.0640033097420657</v>
       </c>
       <c r="M46">
-        <v>0.116157405976561</v>
+        <v>0.0608862252260924</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2817,22 +2814,22 @@
         <v>0.00592325521503992</v>
       </c>
       <c r="H47">
-        <v>0.667522212331374</v>
+        <v>0.363764719102637</v>
       </c>
       <c r="I47">
-        <v>0.609525202044126</v>
+        <v>0.334609906372085</v>
       </c>
       <c r="J47">
-        <v>0.0533932762930985</v>
+        <v>-0.60998632388286</v>
       </c>
       <c r="K47">
-        <v>0.324423878962193</v>
+        <v>-0.0210400791715369</v>
       </c>
       <c r="L47">
-        <v>0.235066134640555</v>
+        <v>-0.535201798259819</v>
       </c>
       <c r="M47">
-        <v>0.139768885193586</v>
+        <v>-0.31103773818884</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2858,22 +2855,22 @@
         <v>0.00431203449627597</v>
       </c>
       <c r="H48">
-        <v>0.406343037680734</v>
+        <v>0.49786243556572</v>
       </c>
       <c r="I48">
-        <v>0.70869705858217</v>
+        <v>0.458186794714193</v>
       </c>
       <c r="J48">
-        <v>-0.431779207536693</v>
+        <v>-0.240542509195663</v>
       </c>
       <c r="K48">
-        <v>0.238872354983731</v>
+        <v>0.17311212469161</v>
       </c>
       <c r="L48">
-        <v>-0.0682474954978556</v>
+        <v>-0.665137640042834</v>
       </c>
       <c r="M48">
-        <v>-0.290659264788094</v>
+        <v>-0.109367590057398</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2899,22 +2896,22 @@
         <v>0.00498200941046222</v>
       </c>
       <c r="H49">
-        <v>0.681938505144819</v>
+        <v>0.183681117690397</v>
       </c>
       <c r="I49">
-        <v>0.576124664056823</v>
+        <v>0.0772703866654225</v>
       </c>
       <c r="J49">
-        <v>-0.117200575159441</v>
+        <v>-0.414467858547909</v>
       </c>
       <c r="K49">
-        <v>-0.0236242214923245</v>
+        <v>-0.411244882736</v>
       </c>
       <c r="L49">
-        <v>0.313114015225165</v>
+        <v>-0.277577642055221</v>
       </c>
       <c r="M49">
-        <v>0.301174005314229</v>
+        <v>-0.736434129867574</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2940,22 +2937,22 @@
         <v>0.00390032502708559</v>
       </c>
       <c r="H50">
-        <v>0.229262687492878</v>
+        <v>0.296354029507181</v>
       </c>
       <c r="I50">
-        <v>0.191921504519886</v>
+        <v>0.305319378876161</v>
       </c>
       <c r="J50">
-        <v>-0.337484639651983</v>
+        <v>-0.396449258880817</v>
       </c>
       <c r="K50">
-        <v>-0.417551176752397</v>
+        <v>-0.288347128540622</v>
       </c>
       <c r="L50">
-        <v>0.74217860367286</v>
+        <v>0.703171090734465</v>
       </c>
       <c r="M50">
-        <v>0.267452443002921</v>
+        <v>-0.290152893881941</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2981,22 +2978,22 @@
         <v>0.00361282553063375</v>
       </c>
       <c r="H51">
-        <v>0.393486622753354</v>
+        <v>0.474700546128414</v>
       </c>
       <c r="I51">
-        <v>0.187598930489111</v>
+        <v>0.278083174714764</v>
       </c>
       <c r="J51">
-        <v>-0.482771587484041</v>
+        <v>-0.454577176128685</v>
       </c>
       <c r="K51">
-        <v>-0.344996457540621</v>
+        <v>0.0472364408444198</v>
       </c>
       <c r="L51">
-        <v>0.672182203328992</v>
+        <v>0.423500958486313</v>
       </c>
       <c r="M51">
-        <v>0.0778141576054386</v>
+        <v>-0.555971570501891</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3022,22 +3019,22 @@
         <v>0.00377555005858612</v>
       </c>
       <c r="H52">
-        <v>0.650243777122485</v>
+        <v>0.291223592498471</v>
       </c>
       <c r="I52">
-        <v>0.615029262160781</v>
+        <v>0.312530458465243</v>
       </c>
       <c r="J52">
-        <v>-0.119972573679662</v>
+        <v>-0.145293038483591</v>
       </c>
       <c r="K52">
-        <v>-0.0302881787039649</v>
+        <v>-0.439365601041739</v>
       </c>
       <c r="L52">
-        <v>0.171520194610254</v>
+        <v>-0.409932779843509</v>
       </c>
       <c r="M52">
-        <v>-0.392672977980131</v>
+        <v>-0.659785153897085</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3063,22 +3060,22 @@
         <v>0.00360403652090341</v>
       </c>
       <c r="H53">
-        <v>0.770697859798206</v>
+        <v>0.507746749020357</v>
       </c>
       <c r="I53">
-        <v>0.378004754946884</v>
+        <v>0.178048131758742</v>
       </c>
       <c r="J53">
-        <v>-0.0628796268899538</v>
+        <v>0.0290649742051042</v>
       </c>
       <c r="K53">
-        <v>-0.228363085461633</v>
+        <v>-0.664288681593656</v>
       </c>
       <c r="L53">
-        <v>-0.357155074775765</v>
+        <v>-0.240138042181874</v>
       </c>
       <c r="M53">
-        <v>0.281911192439306</v>
+        <v>-0.459022436395604</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3104,22 +3101,22 @@
         <v>0.00513698630136986</v>
       </c>
       <c r="H54">
-        <v>0.530752026148288</v>
+        <v>0.53177283670066</v>
       </c>
       <c r="I54">
-        <v>0.309059892136377</v>
+        <v>0.378177745656544</v>
       </c>
       <c r="J54">
-        <v>-0.346390310771198</v>
+        <v>-0.561251310080029</v>
       </c>
       <c r="K54">
-        <v>-0.249156037836684</v>
+        <v>-0.462075454712122</v>
       </c>
       <c r="L54">
-        <v>-0.335531281961083</v>
+        <v>-0.177437384701569</v>
       </c>
       <c r="M54">
-        <v>-0.572833352774652</v>
+        <v>-0.119157284434368</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3145,22 +3142,22 @@
         <v>0.00320219579139982</v>
       </c>
       <c r="H55">
-        <v>0.559046954757557</v>
+        <v>0.417662577810425</v>
       </c>
       <c r="I55">
-        <v>0.694745397015574</v>
+        <v>0.475493285696952</v>
       </c>
       <c r="J55">
-        <v>0.385465015541682</v>
+        <v>0.408492640089607</v>
       </c>
       <c r="K55">
-        <v>0.0269243779641011</v>
+        <v>-0.113765985969865</v>
       </c>
       <c r="L55">
-        <v>-0.0522200261043826</v>
+        <v>-0.372567907885005</v>
       </c>
       <c r="M55">
-        <v>0.229695895131647</v>
+        <v>-0.529951246622729</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3186,22 +3183,22 @@
         <v>0.00460344600815468</v>
       </c>
       <c r="H56">
-        <v>0.687051974487606</v>
+        <v>0.816757281139147</v>
       </c>
       <c r="I56">
-        <v>0.643055119839104</v>
+        <v>0.356628418056066</v>
       </c>
       <c r="J56">
-        <v>0.0385788711480864</v>
+        <v>0.0847944676992778</v>
       </c>
       <c r="K56">
-        <v>0.279791990375525</v>
+        <v>-0.379949261151712</v>
       </c>
       <c r="L56">
-        <v>-0.140513062953333</v>
+        <v>-0.0389448567566345</v>
       </c>
       <c r="M56">
-        <v>-0.122163370793011</v>
+        <v>-0.229467798331457</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3227,22 +3224,22 @@
         <v>0.00500645994832041</v>
       </c>
       <c r="H57">
-        <v>0.398059268856709</v>
+        <v>0.732408080010238</v>
       </c>
       <c r="I57">
-        <v>0.436593516313199</v>
+        <v>0.558015769251785</v>
       </c>
       <c r="J57">
-        <v>0.0785102860842549</v>
+        <v>0.0811396519383799</v>
       </c>
       <c r="K57">
-        <v>-0.242211887510515</v>
+        <v>-0.116525958560245</v>
       </c>
       <c r="L57">
-        <v>0.183579598367794</v>
+        <v>-0.252084376206864</v>
       </c>
       <c r="M57">
-        <v>-0.743238176886266</v>
+        <v>0.261702752640061</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3268,22 +3265,22 @@
         <v>0.00174803346235485</v>
       </c>
       <c r="H58">
-        <v>0.309246175527048</v>
+        <v>0.155677888403301</v>
       </c>
       <c r="I58">
-        <v>0.320141132916276</v>
+        <v>0.163416007990383</v>
       </c>
       <c r="J58">
-        <v>-0.377332052143356</v>
+        <v>-0.111219418670332</v>
       </c>
       <c r="K58">
-        <v>-0.0425614449346856</v>
+        <v>0.094882584289334</v>
       </c>
       <c r="L58">
-        <v>-0.392179351916787</v>
+        <v>-0.689652280426522</v>
       </c>
       <c r="M58">
-        <v>-0.709845659067844</v>
+        <v>-0.672359183477466</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3309,22 +3306,22 @@
         <v>0.00462107208872458</v>
       </c>
       <c r="H59">
-        <v>0.44773814428619</v>
+        <v>0.573216948430884</v>
       </c>
       <c r="I59">
-        <v>0.61110655236492</v>
+        <v>0.277852438605325</v>
       </c>
       <c r="J59">
-        <v>-0.574318728718724</v>
+        <v>0.0505489990921898</v>
       </c>
       <c r="K59">
-        <v>-0.214761236853543</v>
+        <v>-0.295138429120768</v>
       </c>
       <c r="L59">
-        <v>0.0812478917287138</v>
+        <v>-0.0515385986623404</v>
       </c>
       <c r="M59">
-        <v>-0.2085994364458</v>
+        <v>-0.708450585141606</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3350,22 +3347,22 @@
         <v>0.00509626274065685</v>
       </c>
       <c r="H60">
-        <v>0.483823244088838</v>
+        <v>0.575761701662104</v>
       </c>
       <c r="I60">
-        <v>0.617710014244285</v>
+        <v>0.364105419220794</v>
       </c>
       <c r="J60">
-        <v>-0.0877185771059499</v>
+        <v>-0.402999606994355</v>
       </c>
       <c r="K60">
-        <v>0.376508337395825</v>
+        <v>0.0542546259405069</v>
       </c>
       <c r="L60">
-        <v>0.245484896382587</v>
+        <v>-0.598969291709382</v>
       </c>
       <c r="M60">
-        <v>-0.417891727043797</v>
+        <v>-0.108670357084263</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3391,22 +3388,22 @@
         <v>0.0100143061516452</v>
       </c>
       <c r="H61">
-        <v>0.442675443364083</v>
+        <v>0.621417039215611</v>
       </c>
       <c r="I61">
-        <v>0.511514880316753</v>
+        <v>0.499475433396385</v>
       </c>
       <c r="J61">
-        <v>0.0196775614903293</v>
+        <v>0.243693358619163</v>
       </c>
       <c r="K61">
-        <v>-0.00211432446087013</v>
+        <v>0.016503311713574</v>
       </c>
       <c r="L61">
-        <v>0.428684805157336</v>
+        <v>-0.157412082734021</v>
       </c>
       <c r="M61">
-        <v>-0.59852204645279</v>
+        <v>-0.529082015081528</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3432,22 +3429,22 @@
         <v>0.00428877769835597</v>
       </c>
       <c r="H62">
-        <v>0.663383722857065</v>
+        <v>0.575478994345925</v>
       </c>
       <c r="I62">
-        <v>0.245045042158755</v>
+        <v>0.512613489519855</v>
       </c>
       <c r="J62">
-        <v>-0.107812862265159</v>
+        <v>0.209258930702132</v>
       </c>
       <c r="K62">
-        <v>-0.461823948545087</v>
+        <v>-0.332466724583649</v>
       </c>
       <c r="L62">
-        <v>-0.334902503685158</v>
+        <v>-0.379461923631632</v>
       </c>
       <c r="M62">
-        <v>-0.403497588428415</v>
+        <v>0.328232483018792</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3473,22 +3470,22 @@
         <v>0.00297707651086633</v>
       </c>
       <c r="H63">
-        <v>0.423942180725244</v>
+        <v>0.3712080436642</v>
       </c>
       <c r="I63">
-        <v>0.542191016997166</v>
+        <v>0.197546529965566</v>
       </c>
       <c r="J63">
-        <v>-0.484975494644494</v>
+        <v>-0.492748345831471</v>
       </c>
       <c r="K63">
-        <v>-0.0597468843967286</v>
+        <v>-0.488473323259712</v>
       </c>
       <c r="L63">
-        <v>0.503425646058199</v>
+        <v>-0.203789436762126</v>
       </c>
       <c r="M63">
-        <v>-0.1846445958581</v>
+        <v>-0.547944068701997</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3514,22 +3511,22 @@
         <v>0.00140845070422535</v>
       </c>
       <c r="H64">
-        <v>0.308827531953721</v>
+        <v>0.252874181848052</v>
       </c>
       <c r="I64">
-        <v>0.44974172159872</v>
+        <v>0.147746286783379</v>
       </c>
       <c r="J64">
-        <v>-0.49738979216309</v>
+        <v>-0.317724787490816</v>
       </c>
       <c r="K64">
-        <v>0.4077704197891</v>
+        <v>0.518928775412276</v>
       </c>
       <c r="L64">
-        <v>-0.306801608151347</v>
+        <v>-0.405237169121033</v>
       </c>
       <c r="M64">
-        <v>-0.441086603733915</v>
+        <v>0.616256768824655</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3555,22 +3552,22 @@
         <v>0.00449796865931515</v>
       </c>
       <c r="H65">
-        <v>0.37891686953004</v>
+        <v>0.368114169262262</v>
       </c>
       <c r="I65">
-        <v>0.461267249179829</v>
+        <v>0.331253226465779</v>
       </c>
       <c r="J65">
-        <v>-0.526389298255235</v>
+        <v>-0.428283958237184</v>
       </c>
       <c r="K65">
-        <v>-0.00859935643606851</v>
+        <v>0.0215298597690944</v>
       </c>
       <c r="L65">
-        <v>0.47515342042438</v>
+        <v>-0.203514063904737</v>
       </c>
       <c r="M65">
-        <v>-0.375132130895086</v>
+        <v>-0.727636310523573</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3596,22 +3593,22 @@
         <v>0.00433188937020993</v>
       </c>
       <c r="H66">
-        <v>0.195549288201769</v>
+        <v>0.248210862562836</v>
       </c>
       <c r="I66">
-        <v>0.164486466802762</v>
+        <v>0.243493257658613</v>
       </c>
       <c r="J66">
-        <v>-0.293206699882174</v>
+        <v>-0.297536472311623</v>
       </c>
       <c r="K66">
-        <v>-0.380278237066911</v>
+        <v>-0.186127188975886</v>
       </c>
       <c r="L66">
-        <v>0.821334584273856</v>
+        <v>0.699838474004065</v>
       </c>
       <c r="M66">
-        <v>0.171850145055812</v>
+        <v>-0.51590428245224</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3637,22 +3634,22 @@
         <v>0.00450689289501591</v>
       </c>
       <c r="H67">
-        <v>0.280062459044684</v>
+        <v>0.294210449028213</v>
       </c>
       <c r="I67">
-        <v>0.602804733494809</v>
+        <v>0.586641655315625</v>
       </c>
       <c r="J67">
-        <v>0.72705605621526</v>
+        <v>0.744642030076553</v>
       </c>
       <c r="K67">
-        <v>0.0816522953660297</v>
+        <v>0.026239225201555</v>
       </c>
       <c r="L67">
-        <v>0.0102508615889326</v>
+        <v>0.0857761871055582</v>
       </c>
       <c r="M67">
-        <v>0.151025779021175</v>
+        <v>0.0821825757754361</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3678,22 +3675,22 @@
         <v>0.0033003300330033</v>
       </c>
       <c r="H68">
-        <v>0.465598919863968</v>
+        <v>0.504706332248261</v>
       </c>
       <c r="I68">
-        <v>0.600824772045355</v>
+        <v>0.590725633711647</v>
       </c>
       <c r="J68">
-        <v>-0.620124313474909</v>
+        <v>-0.207928311363676</v>
       </c>
       <c r="K68">
-        <v>0.0397648295541693</v>
+        <v>0.585056987466779</v>
       </c>
       <c r="L68">
-        <v>0.0832292055694517</v>
+        <v>-0.103180713623848</v>
       </c>
       <c r="M68">
-        <v>0.17077685038152</v>
+        <v>0.0119424850974273</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3719,22 +3716,22 @@
         <v>0.00765416646608578</v>
       </c>
       <c r="H69">
-        <v>0.476101254011916</v>
+        <v>0.488060435829375</v>
       </c>
       <c r="I69">
-        <v>0.335292463428915</v>
+        <v>0.266432032927903</v>
       </c>
       <c r="J69">
-        <v>-0.372430123741483</v>
+        <v>-0.161999700880775</v>
       </c>
       <c r="K69">
-        <v>-0.192383874039656</v>
+        <v>-0.0279566915788911</v>
       </c>
       <c r="L69">
-        <v>-0.239126149571055</v>
+        <v>-0.721963590593712</v>
       </c>
       <c r="M69">
-        <v>-0.654224344110466</v>
+        <v>-0.377563341673265</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3760,22 +3757,22 @@
         <v>0.0055062710308963</v>
       </c>
       <c r="H70">
-        <v>0.412552099931572</v>
+        <v>0.623483457166483</v>
       </c>
       <c r="I70">
-        <v>0.642555058229366</v>
+        <v>0.224629863121391</v>
       </c>
       <c r="J70">
-        <v>-0.353167053596525</v>
+        <v>0.102407329565593</v>
       </c>
       <c r="K70">
-        <v>-0.226575994421994</v>
+        <v>-0.732895147262314</v>
       </c>
       <c r="L70">
-        <v>-0.400983223120285</v>
+        <v>-0.111300521974811</v>
       </c>
       <c r="M70">
-        <v>0.282970966297971</v>
+        <v>0.0282743525571481</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3801,22 +3798,22 @@
         <v>0.00568622383044714</v>
       </c>
       <c r="H71">
-        <v>0.422875066305934</v>
+        <v>0.354228990559854</v>
       </c>
       <c r="I71">
-        <v>0.282499614208306</v>
+        <v>0.560764036699393</v>
       </c>
       <c r="J71">
-        <v>-0.0484753349558955</v>
+        <v>0.369925097775665</v>
       </c>
       <c r="K71">
-        <v>-0.0372413413070154</v>
+        <v>0.348417770234255</v>
       </c>
       <c r="L71">
-        <v>-0.271108676169735</v>
+        <v>-0.469031254730404</v>
       </c>
       <c r="M71">
-        <v>-0.814944143099987</v>
+        <v>-0.286069360292614</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3842,22 +3839,22 @@
         <v>0.0108445612882024</v>
       </c>
       <c r="H72">
-        <v>0.297174794817476</v>
+        <v>0.080823514170003</v>
       </c>
       <c r="I72">
-        <v>0.171988624092637</v>
+        <v>0.174220919526494</v>
       </c>
       <c r="J72">
-        <v>0.0375718289012363</v>
+        <v>-0.187753779705375</v>
       </c>
       <c r="K72">
-        <v>0.0191078985615943</v>
+        <v>-0.0283263483650212</v>
       </c>
       <c r="L72">
-        <v>-0.561670838571701</v>
+        <v>-0.750120834325631</v>
       </c>
       <c r="M72">
-        <v>-0.751569138197978</v>
+        <v>-0.603638551503979</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3883,22 +3880,22 @@
         <v>0.00342319212665811</v>
       </c>
       <c r="H73">
-        <v>0.462794508925445</v>
+        <v>0.431578790778182</v>
       </c>
       <c r="I73">
-        <v>0.340347377290495</v>
+        <v>0.469654838622919</v>
       </c>
       <c r="J73">
-        <v>-0.298447278784265</v>
+        <v>-0.603072060735722</v>
       </c>
       <c r="K73">
-        <v>-0.321235149263743</v>
+        <v>-0.421640168176633</v>
       </c>
       <c r="L73">
-        <v>-0.429072805336499</v>
+        <v>0.167234359757752</v>
       </c>
       <c r="M73">
-        <v>0.541865881620509</v>
+        <v>0.154014307662912</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3924,22 +3921,22 @@
         <v>0.00406719717064545</v>
       </c>
       <c r="H74">
-        <v>0.508885177404551</v>
+        <v>0.617266165676296</v>
       </c>
       <c r="I74">
-        <v>0.186520270664331</v>
+        <v>0.457615451734815</v>
       </c>
       <c r="J74">
-        <v>-0.33121559926337</v>
+        <v>-0.487641971127775</v>
       </c>
       <c r="K74">
-        <v>-0.00244560028154907</v>
+        <v>0.0399540055853539</v>
       </c>
       <c r="L74">
-        <v>0.129390237225929</v>
+        <v>-0.259386507624769</v>
       </c>
       <c r="M74">
-        <v>-0.761442366304719</v>
+        <v>-0.320777499428115</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3965,22 +3962,22 @@
         <v>0.00543629774184555</v>
       </c>
       <c r="H75">
-        <v>0.654868567152571</v>
+        <v>0.656292493304635</v>
       </c>
       <c r="I75">
-        <v>0.327230821455615</v>
+        <v>0.272559160118343</v>
       </c>
       <c r="J75">
-        <v>-0.536851629507899</v>
+        <v>-0.561854234028355</v>
       </c>
       <c r="K75">
-        <v>-0.166457372245137</v>
+        <v>-0.160967093877752</v>
       </c>
       <c r="L75">
-        <v>0.293834164201062</v>
+        <v>-0.102821839395758</v>
       </c>
       <c r="M75">
-        <v>-0.248617988716105</v>
+        <v>-0.377926912515904</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4006,22 +4003,22 @@
         <v>0.00271493212669683</v>
       </c>
       <c r="H76">
-        <v>0.237122575920331</v>
+        <v>0.27911573686946</v>
       </c>
       <c r="I76">
-        <v>0.178176670948402</v>
+        <v>0.208652571521702</v>
       </c>
       <c r="J76">
-        <v>-0.385511771374388</v>
+        <v>-0.333783708374394</v>
       </c>
       <c r="K76">
-        <v>0.857605851731121</v>
+        <v>0.87393239259822</v>
       </c>
       <c r="L76">
-        <v>0.048059503277916</v>
+        <v>0.0402523023869048</v>
       </c>
       <c r="M76">
-        <v>0.160028495186491</v>
+        <v>0.0420579501775842</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4047,22 +4044,22 @@
         <v>0.004331934479491</v>
       </c>
       <c r="H77">
-        <v>0.413628244547739</v>
+        <v>0.393324986682849</v>
       </c>
       <c r="I77">
-        <v>0.27125827346735</v>
+        <v>-0.0349896670150666</v>
       </c>
       <c r="J77">
-        <v>-0.419748000236113</v>
+        <v>-0.15811066762768</v>
       </c>
       <c r="K77">
-        <v>0.256741833002722</v>
+        <v>-0.749399878486266</v>
       </c>
       <c r="L77">
-        <v>-0.643001620483898</v>
+        <v>-0.332975133905204</v>
       </c>
       <c r="M77">
-        <v>0.315871473747052</v>
+        <v>0.38288324220449</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4088,22 +4085,22 @@
         <v>0.00295483326298016</v>
       </c>
       <c r="H78">
-        <v>0.398179833633655</v>
+        <v>0.622996037085943</v>
       </c>
       <c r="I78">
-        <v>0.304931308675562</v>
+        <v>0.3708372452885</v>
       </c>
       <c r="J78">
-        <v>-0.209923511997926</v>
+        <v>-0.1721558068011</v>
       </c>
       <c r="K78">
-        <v>0.345832359211367</v>
+        <v>0.585228570975371</v>
       </c>
       <c r="L78">
-        <v>0.153377823778581</v>
+        <v>-0.196981388110836</v>
       </c>
       <c r="M78">
-        <v>-0.749184262169586</v>
+        <v>0.251841033032275</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4129,22 +4126,22 @@
         <v>0.00391737891737892</v>
       </c>
       <c r="H79">
-        <v>0.372837171461223</v>
+        <v>0.388940548342446</v>
       </c>
       <c r="I79">
-        <v>0.421972079112106</v>
+        <v>0.585225231381053</v>
       </c>
       <c r="J79">
-        <v>-0.31323299273426</v>
+        <v>-0.334729607182974</v>
       </c>
       <c r="K79">
-        <v>-0.437528230222707</v>
+        <v>-0.493258745202433</v>
       </c>
       <c r="L79">
-        <v>-0.626368227547295</v>
+        <v>0.250261247247297</v>
       </c>
       <c r="M79">
-        <v>-0.0323881392918209</v>
+        <v>0.297082289766238</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4170,22 +4167,22 @@
         <v>0.00530425814056284</v>
       </c>
       <c r="H80">
-        <v>0.386742155679369</v>
+        <v>0.45729175053344</v>
       </c>
       <c r="I80">
-        <v>0.483562413126722</v>
+        <v>0.4396888440734</v>
       </c>
       <c r="J80">
-        <v>-0.36342151705783</v>
+        <v>0.221820366236962</v>
       </c>
       <c r="K80">
-        <v>-0.479691989465987</v>
+        <v>-0.187053212518503</v>
       </c>
       <c r="L80">
-        <v>0.319087332875583</v>
+        <v>-0.165284333546822</v>
       </c>
       <c r="M80">
-        <v>-0.390642506406345</v>
+        <v>-0.697169911273034</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4193,40 +4190,40 @@
         <v>85</v>
       </c>
       <c r="B81">
-        <v>0.281967213114754</v>
+        <v>0.0862511551493993</v>
       </c>
       <c r="C81">
-        <v>0.0524590163934426</v>
+        <v>0.0209467091077113</v>
       </c>
       <c r="D81">
-        <v>0.380327868852459</v>
+        <v>0.144676044768457</v>
       </c>
       <c r="E81">
-        <v>76.25</v>
+        <v>8.75809352517986</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.0133483930588356</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>0.00266967861176712</v>
       </c>
       <c r="H81">
-        <v>0.556390604098313</v>
+        <v>0.570328316626404</v>
       </c>
       <c r="I81">
-        <v>0.469750540788266</v>
+        <v>0.372178080204223</v>
       </c>
       <c r="J81">
-        <v>-0.286073819379895</v>
+        <v>-0.151376506937346</v>
       </c>
       <c r="K81">
-        <v>-0.209012483259253</v>
+        <v>-0.219467885859944</v>
       </c>
       <c r="L81">
-        <v>-0.553208792106136</v>
+        <v>-0.601021132348103</v>
       </c>
       <c r="M81">
-        <v>0.195446947133784</v>
+        <v>0.322337845379983</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4234,40 +4231,40 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>0.0862511551493993</v>
+        <v>0.149315068493151</v>
       </c>
       <c r="C82">
-        <v>0.0209467091077113</v>
+        <v>0.0383561643835616</v>
       </c>
       <c r="D82">
-        <v>0.144676044768457</v>
+        <v>0.219178082191781</v>
       </c>
       <c r="E82">
-        <v>8.75809352517986</v>
+        <v>10.0921658986175</v>
       </c>
       <c r="F82">
-        <v>0.0133483930588356</v>
+        <v>0.00547945205479452</v>
       </c>
       <c r="G82">
-        <v>0.00266967861176712</v>
+        <v>0.00182648401826484</v>
       </c>
       <c r="H82">
-        <v>0.60605032726601</v>
+        <v>0.33933488306984</v>
       </c>
       <c r="I82">
-        <v>0.450598739478515</v>
+        <v>0.361700706692564</v>
       </c>
       <c r="J82">
-        <v>-0.47211875087013</v>
+        <v>0.232800746015652</v>
       </c>
       <c r="K82">
-        <v>-0.0622785397390415</v>
+        <v>0.119438940788143</v>
       </c>
       <c r="L82">
-        <v>0.310592538012975</v>
+        <v>0.025533640983598</v>
       </c>
       <c r="M82">
-        <v>-0.32622280836354</v>
+        <v>-0.827593270372688</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4275,40 +4272,40 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>0.149315068493151</v>
+        <v>0.164649520927887</v>
       </c>
       <c r="C83">
-        <v>0.0383561643835616</v>
+        <v>0.0385779122541604</v>
       </c>
       <c r="D83">
-        <v>0.219178082191781</v>
+        <v>0.240796772566818</v>
       </c>
       <c r="E83">
-        <v>10.0921658986175</v>
+        <v>24.9433962264151</v>
       </c>
       <c r="F83">
-        <v>0.00547945205479452</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>0.00182648401826484</v>
+        <v>0.00353000504286435</v>
       </c>
       <c r="H83">
-        <v>0.176391501613597</v>
+        <v>0.4054174767723</v>
       </c>
       <c r="I83">
-        <v>0.486027632681936</v>
+        <v>0.513805894253768</v>
       </c>
       <c r="J83">
-        <v>-0.0507053620555117</v>
+        <v>-0.431264926960133</v>
       </c>
       <c r="K83">
-        <v>-0.137453621966767</v>
+        <v>-0.619051993849734</v>
       </c>
       <c r="L83">
-        <v>0.378480762132154</v>
+        <v>0.00284812887259808</v>
       </c>
       <c r="M83">
-        <v>-0.753625211355747</v>
+        <v>0.0491655611615675</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4316,40 +4313,40 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>0.164649520927887</v>
+        <v>0.103683271134188</v>
       </c>
       <c r="C84">
-        <v>0.0385779122541604</v>
+        <v>0.0287197793282492</v>
       </c>
       <c r="D84">
-        <v>0.240796772566818</v>
+        <v>0.172318675969495</v>
       </c>
       <c r="E84">
-        <v>24.9433962264151</v>
+        <v>15.2928039702233</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.00746389745253935</v>
       </c>
       <c r="G84">
-        <v>0.00353000504286435</v>
+        <v>0.00389420736654227</v>
       </c>
       <c r="H84">
-        <v>0.336494707828638</v>
+        <v>0.560560912027444</v>
       </c>
       <c r="I84">
-        <v>0.40840775883865</v>
+        <v>0.500867391519133</v>
       </c>
       <c r="J84">
-        <v>-0.365980626987364</v>
+        <v>-0.310013833527708</v>
       </c>
       <c r="K84">
-        <v>-0.526243341519134</v>
+        <v>-0.103688365311082</v>
       </c>
       <c r="L84">
-        <v>-0.479687849201961</v>
+        <v>-0.440743053919952</v>
       </c>
       <c r="M84">
-        <v>-0.281069577913404</v>
+        <v>-0.365771822809883</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4357,40 +4354,40 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>0.103683271134188</v>
+        <v>0.129350348027842</v>
       </c>
       <c r="C85">
-        <v>0.0287197793282492</v>
+        <v>0.035769528228925</v>
       </c>
       <c r="D85">
-        <v>0.172318675969495</v>
+        <v>0.204369682907966</v>
       </c>
       <c r="E85">
-        <v>15.2928039702233</v>
+        <v>12.5839416058394</v>
       </c>
       <c r="F85">
-        <v>0.00746389745253935</v>
+        <v>0.00560711523588554</v>
       </c>
       <c r="G85">
-        <v>0.00389420736654227</v>
+        <v>0.00251353441608662</v>
       </c>
       <c r="H85">
-        <v>0.730752359830749</v>
+        <v>0.529624650269242</v>
       </c>
       <c r="I85">
-        <v>0.497934299960724</v>
+        <v>0.461189693454531</v>
       </c>
       <c r="J85">
-        <v>-0.192058090588902</v>
+        <v>-0.491620235859054</v>
       </c>
       <c r="K85">
-        <v>-0.157391611486133</v>
+        <v>-0.491152483701994</v>
       </c>
       <c r="L85">
-        <v>0.382108521191534</v>
+        <v>0.126631961204832</v>
       </c>
       <c r="M85">
-        <v>-0.101966023901969</v>
+        <v>0.0885715774228256</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4398,40 +4395,40 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>0.129350348027842</v>
+        <v>0.0869316229526973</v>
       </c>
       <c r="C86">
-        <v>0.035769528228925</v>
+        <v>0.0208452640018326</v>
       </c>
       <c r="D86">
-        <v>0.204369682907966</v>
+        <v>0.145687779177643</v>
       </c>
       <c r="E86">
-        <v>12.5839416058394</v>
+        <v>10.283863368669</v>
       </c>
       <c r="F86">
-        <v>0.00560711523588554</v>
+        <v>0.0120261138472111</v>
       </c>
       <c r="G86">
-        <v>0.00251353441608662</v>
+        <v>0.00389417019814454</v>
       </c>
       <c r="H86">
-        <v>0.424335334195537</v>
+        <v>0.622145997705101</v>
       </c>
       <c r="I86">
-        <v>0.277767909988129</v>
+        <v>0.408779778777216</v>
       </c>
       <c r="J86">
-        <v>-0.332947121681939</v>
+        <v>0.0215133134040759</v>
       </c>
       <c r="K86">
-        <v>-0.426171716017808</v>
+        <v>-0.277847027486916</v>
       </c>
       <c r="L86">
-        <v>-0.625045216062853</v>
+        <v>-0.59727022443716</v>
       </c>
       <c r="M86">
-        <v>-0.244186143835147</v>
+        <v>-0.106957634913187</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4439,40 +4436,40 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0869316229526973</v>
+        <v>0.103236797274276</v>
       </c>
       <c r="C87">
-        <v>0.0208452640018326</v>
+        <v>0.0252129471890971</v>
       </c>
       <c r="D87">
-        <v>0.145687779177643</v>
+        <v>0.165758091993186</v>
       </c>
       <c r="E87">
-        <v>10.283863368669</v>
+        <v>9.15756630265211</v>
       </c>
       <c r="F87">
-        <v>0.0120261138472111</v>
+        <v>0.00579216354344123</v>
       </c>
       <c r="G87">
-        <v>0.00389417019814454</v>
+        <v>0.00272572402044293</v>
       </c>
       <c r="H87">
-        <v>0.277575932385558</v>
+        <v>0.338426143801169</v>
       </c>
       <c r="I87">
-        <v>0.0044273927963214</v>
+        <v>0.214073300411306</v>
       </c>
       <c r="J87">
-        <v>-0.234755668851085</v>
+        <v>-0.17617577914605</v>
       </c>
       <c r="K87">
-        <v>-0.0186448823247966</v>
+        <v>0.496387639551966</v>
       </c>
       <c r="L87">
-        <v>0.142455122725311</v>
+        <v>-0.434514264033917</v>
       </c>
       <c r="M87">
-        <v>-0.920424186051196</v>
+        <v>-0.611063930973065</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4480,40 +4477,40 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>0.103236797274276</v>
+        <v>0.149397590361446</v>
       </c>
       <c r="C88">
-        <v>0.0252129471890971</v>
+        <v>0.034805890227577</v>
       </c>
       <c r="D88">
-        <v>0.165758091993186</v>
+        <v>0.223025435073628</v>
       </c>
       <c r="E88">
-        <v>9.15756630265211</v>
+        <v>14.8214285714286</v>
       </c>
       <c r="F88">
-        <v>0.00579216354344123</v>
+        <v>0.00696117804551539</v>
       </c>
       <c r="G88">
-        <v>0.00272572402044293</v>
+        <v>0.00535475234270415</v>
       </c>
       <c r="H88">
-        <v>0.602661904169439</v>
+        <v>0.675471903578706</v>
       </c>
       <c r="I88">
-        <v>0.580857820344893</v>
+        <v>0.356669738991169</v>
       </c>
       <c r="J88">
-        <v>0.258329175644018</v>
+        <v>-0.195195355833509</v>
       </c>
       <c r="K88">
-        <v>0.295117896619542</v>
+        <v>-0.582104289596874</v>
       </c>
       <c r="L88">
-        <v>0.228674231544553</v>
+        <v>0.179855529736789</v>
       </c>
       <c r="M88">
-        <v>-0.305421645828344</v>
+        <v>-0.0850280088016812</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4521,40 +4518,40 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>0.149397590361446</v>
+        <v>0.103717182219912</v>
       </c>
       <c r="C89">
-        <v>0.034805890227577</v>
+        <v>0.025734338445542</v>
       </c>
       <c r="D89">
-        <v>0.223025435073628</v>
+        <v>0.170002599428126</v>
       </c>
       <c r="E89">
-        <v>14.8214285714286</v>
+        <v>8.90509259259259</v>
       </c>
       <c r="F89">
-        <v>0.00696117804551539</v>
+        <v>0.00389914218871848</v>
       </c>
       <c r="G89">
-        <v>0.00535475234270415</v>
+        <v>0.00207954250064986</v>
       </c>
       <c r="H89">
-        <v>0.287522078482675</v>
+        <v>0.310046568622271</v>
       </c>
       <c r="I89">
-        <v>0.263105984174736</v>
+        <v>0.379003734721813</v>
       </c>
       <c r="J89">
-        <v>-0.432749895316789</v>
+        <v>-0.38871956472634</v>
       </c>
       <c r="K89">
-        <v>-0.0427123480263802</v>
+        <v>-0.0469787653612178</v>
       </c>
       <c r="L89">
-        <v>-0.414479350455428</v>
+        <v>-0.744530917406735</v>
       </c>
       <c r="M89">
-        <v>-0.698008844465365</v>
+        <v>0.229327501582474</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4562,40 +4559,40 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>0.103717182219912</v>
+        <v>0.105889627454011</v>
       </c>
       <c r="C90">
-        <v>0.025734338445542</v>
+        <v>0.0236512598546916</v>
       </c>
       <c r="D90">
-        <v>0.170002599428126</v>
+        <v>0.164631318596383</v>
       </c>
       <c r="E90">
-        <v>8.90509259259259</v>
+        <v>10.2034700315457</v>
       </c>
       <c r="F90">
-        <v>0.00389914218871848</v>
+        <v>0.00571958571649405</v>
       </c>
       <c r="G90">
-        <v>0.00207954250064986</v>
+        <v>0.00401916834132014</v>
       </c>
       <c r="H90">
-        <v>0.102547975810595</v>
+        <v>0.285941803063195</v>
       </c>
       <c r="I90">
-        <v>0.0884113048113471</v>
+        <v>0.584109901936768</v>
       </c>
       <c r="J90">
-        <v>-0.161267334493067</v>
+        <v>0.747389713876908</v>
       </c>
       <c r="K90">
-        <v>-0.165477312901288</v>
+        <v>0.0392911454234261</v>
       </c>
       <c r="L90">
-        <v>-0.0339973689273628</v>
+        <v>0.084504943166051</v>
       </c>
       <c r="M90">
-        <v>-0.962871558664598</v>
+        <v>0.0988769122859279</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4603,40 +4600,40 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>0.105889627454011</v>
+        <v>0.112110574813515</v>
       </c>
       <c r="C91">
-        <v>0.0236512598546916</v>
+        <v>0.0274243089074155</v>
       </c>
       <c r="D91">
-        <v>0.164631318596383</v>
+        <v>0.177928916191312</v>
       </c>
       <c r="E91">
-        <v>10.2034700315457</v>
+        <v>9.35934291581109</v>
       </c>
       <c r="F91">
-        <v>0.00571958571649405</v>
+        <v>0.00702062308029838</v>
       </c>
       <c r="G91">
-        <v>0.00401916834132014</v>
+        <v>0.00307152259763054</v>
       </c>
       <c r="H91">
-        <v>0.272275840439062</v>
+        <v>0.342840506996861</v>
       </c>
       <c r="I91">
-        <v>0.603563051266249</v>
+        <v>0.157243921289323</v>
       </c>
       <c r="J91">
-        <v>0.73349780313061</v>
+        <v>-0.0853865253585143</v>
       </c>
       <c r="K91">
-        <v>0.081667063884673</v>
+        <v>-0.644326703953969</v>
       </c>
       <c r="L91">
-        <v>-0.00284953010282817</v>
+        <v>-0.650774216386156</v>
       </c>
       <c r="M91">
-        <v>0.129926338810098</v>
+        <v>0.10853522527591</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4644,40 +4641,40 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>0.112110574813515</v>
+        <v>0.135052289938695</v>
       </c>
       <c r="C92">
-        <v>0.0274243089074155</v>
+        <v>0.0279480706815723</v>
       </c>
       <c r="D92">
-        <v>0.177928916191312</v>
+        <v>0.197439596105301</v>
       </c>
       <c r="E92">
-        <v>9.35934291581109</v>
+        <v>12.9882903981265</v>
       </c>
       <c r="F92">
-        <v>0.00702062308029838</v>
+        <v>0.00504868373602596</v>
       </c>
       <c r="G92">
-        <v>0.00307152259763054</v>
+        <v>0.00576992426974396</v>
       </c>
       <c r="H92">
-        <v>0.369946576774975</v>
+        <v>0.556030184055719</v>
       </c>
       <c r="I92">
-        <v>0.27517934842382</v>
+        <v>0.458154529245027</v>
       </c>
       <c r="J92">
-        <v>-0.285703322445697</v>
+        <v>0.107334448554644</v>
       </c>
       <c r="K92">
-        <v>0.419906641390727</v>
+        <v>0.662517273339938</v>
       </c>
       <c r="L92">
-        <v>0.205848345393346</v>
+        <v>-0.078299793175445</v>
       </c>
       <c r="M92">
-        <v>-0.697921442063353</v>
+        <v>0.156026224781599</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4685,40 +4682,40 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>0.135052289938695</v>
+        <v>0.0973240832507433</v>
       </c>
       <c r="C93">
-        <v>0.0279480706815723</v>
+        <v>0.0283448959365709</v>
       </c>
       <c r="D93">
-        <v>0.197439596105301</v>
+        <v>0.164717542120912</v>
       </c>
       <c r="E93">
-        <v>12.9882903981265</v>
+        <v>12.6125</v>
       </c>
       <c r="F93">
-        <v>0.00504868373602596</v>
+        <v>0.00852329038652131</v>
       </c>
       <c r="G93">
-        <v>0.00576992426974396</v>
+        <v>0.00317145688800793</v>
       </c>
       <c r="H93">
-        <v>0.338007333886935</v>
+        <v>0.434709461783413</v>
       </c>
       <c r="I93">
-        <v>0.158270220514793</v>
+        <v>0.190973207332521</v>
       </c>
       <c r="J93">
-        <v>0.00880777620829711</v>
+        <v>0.10355792487785</v>
       </c>
       <c r="K93">
-        <v>-0.0114659689351554</v>
+        <v>-0.16013601405491</v>
       </c>
       <c r="L93">
-        <v>0.28936079148859</v>
+        <v>-0.0594702256092129</v>
       </c>
       <c r="M93">
-        <v>-0.881341515259882</v>
+        <v>-0.857118675202386</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4726,40 +4723,40 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>0.0973240832507433</v>
+        <v>0.112350844568418</v>
       </c>
       <c r="C94">
-        <v>0.0283448959365709</v>
+        <v>0.0255695025569503</v>
       </c>
       <c r="D94">
-        <v>0.164717542120912</v>
+        <v>0.177901751123508</v>
       </c>
       <c r="E94">
-        <v>12.6125</v>
+        <v>14.3719376391982</v>
       </c>
       <c r="F94">
-        <v>0.00852329038652131</v>
+        <v>0.0119324345265768</v>
       </c>
       <c r="G94">
-        <v>0.00317145688800793</v>
+        <v>0.00371920037192004</v>
       </c>
       <c r="H94">
-        <v>0.175297303889057</v>
+        <v>0.223196136270889</v>
       </c>
       <c r="I94">
-        <v>0.357057633258964</v>
+        <v>0.235041922060276</v>
       </c>
       <c r="J94">
-        <v>-0.0767194005680438</v>
+        <v>-0.125345627664145</v>
       </c>
       <c r="K94">
-        <v>-0.298131288370314</v>
+        <v>-0.256611758578119</v>
       </c>
       <c r="L94">
-        <v>0.137650940600499</v>
+        <v>-0.864266215894589</v>
       </c>
       <c r="M94">
-        <v>-0.853267126287934</v>
+        <v>-0.257723818604592</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4767,40 +4764,40 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>0.112350844568418</v>
+        <v>0.117816845972186</v>
       </c>
       <c r="C95">
-        <v>0.0255695025569503</v>
+        <v>0.0265022303857255</v>
       </c>
       <c r="D95">
-        <v>0.177901751123508</v>
+        <v>0.180792442928365</v>
       </c>
       <c r="E95">
-        <v>14.3719376391982</v>
+        <v>10.8575498575499</v>
       </c>
       <c r="F95">
-        <v>0.0119324345265768</v>
+        <v>0.00970873786407767</v>
       </c>
       <c r="G95">
-        <v>0.00371920037192004</v>
+        <v>0.00419837313041197</v>
       </c>
       <c r="H95">
-        <v>0.58075111005767</v>
+        <v>0.769803655403581</v>
       </c>
       <c r="I95">
-        <v>0.317680029539853</v>
+        <v>-0.615145615972797</v>
       </c>
       <c r="J95">
-        <v>0.257096117588803</v>
+        <v>0.160537437984277</v>
       </c>
       <c r="K95">
-        <v>-0.304530755654517</v>
+        <v>-0.0140675136822908</v>
       </c>
       <c r="L95">
-        <v>0.0381458889878445</v>
+        <v>0.0417268714807887</v>
       </c>
       <c r="M95">
-        <v>-0.633652146948878</v>
+        <v>0.0358734935210002</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4808,40 +4805,40 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <v>0.117816845972186</v>
+        <v>0.122590032739178</v>
       </c>
       <c r="C96">
-        <v>0.0265022303857255</v>
+        <v>0.028010185522008</v>
       </c>
       <c r="D96">
-        <v>0.180792442928365</v>
+        <v>0.188614041469625</v>
       </c>
       <c r="E96">
-        <v>10.8575498575499</v>
+        <v>14.0255102040816</v>
       </c>
       <c r="F96">
-        <v>0.00970873786407767</v>
+        <v>0.0074572571844307</v>
       </c>
       <c r="G96">
-        <v>0.00419837313041197</v>
+        <v>0.00672971989814478</v>
       </c>
       <c r="H96">
-        <v>0.769516513806</v>
+        <v>0.378675811891533</v>
       </c>
       <c r="I96">
-        <v>-0.608183058405477</v>
+        <v>0.260214325895146</v>
       </c>
       <c r="J96">
-        <v>0.193814315232448</v>
+        <v>-0.0127297029382227</v>
       </c>
       <c r="K96">
-        <v>0.00623864825099309</v>
+        <v>-0.325383496737241</v>
       </c>
       <c r="L96">
-        <v>-0.0106983910145877</v>
+        <v>-0.514578181103212</v>
       </c>
       <c r="M96">
-        <v>0.015502817714763</v>
+        <v>-0.646580207193108</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4849,40 +4846,40 @@
         <v>101</v>
       </c>
       <c r="B97">
-        <v>0.122590032739178</v>
+        <v>0.127446447834797</v>
       </c>
       <c r="C97">
-        <v>0.028010185522008</v>
+        <v>0.0345199568500539</v>
       </c>
       <c r="D97">
-        <v>0.188614041469625</v>
+        <v>0.200801356141162</v>
       </c>
       <c r="E97">
-        <v>14.0255102040816</v>
+        <v>12.9520958083832</v>
       </c>
       <c r="F97">
-        <v>0.0074572571844307</v>
+        <v>0.00909231006318385</v>
       </c>
       <c r="G97">
-        <v>0.00672971989814478</v>
+        <v>0.00277392510402219</v>
       </c>
       <c r="H97">
-        <v>0.20900616654928</v>
+        <v>0.436649182854832</v>
       </c>
       <c r="I97">
-        <v>0.288566280349947</v>
+        <v>0.3972437706495</v>
       </c>
       <c r="J97">
-        <v>-0.271349456164727</v>
+        <v>-0.461967420629208</v>
       </c>
       <c r="K97">
-        <v>-0.157513887597803</v>
+        <v>-0.0488086282825597</v>
       </c>
       <c r="L97">
-        <v>-0.492864912388841</v>
+        <v>-0.654643510694298</v>
       </c>
       <c r="M97">
-        <v>-0.729170042019174</v>
+        <v>-0.0847382545288137</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4890,40 +4887,40 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>0.127446447834797</v>
+        <v>0.125167236509588</v>
       </c>
       <c r="C98">
-        <v>0.0345199568500539</v>
+        <v>0.0267578415341162</v>
       </c>
       <c r="D98">
-        <v>0.200801356141162</v>
+        <v>0.190129329567415</v>
       </c>
       <c r="E98">
-        <v>12.9520958083832</v>
+        <v>12.2309090909091</v>
       </c>
       <c r="F98">
-        <v>0.00909231006318385</v>
+        <v>0.00966255388731976</v>
       </c>
       <c r="G98">
-        <v>0.00277392510402219</v>
+        <v>0.00490560428125465</v>
       </c>
       <c r="H98">
-        <v>0.500910329142519</v>
+        <v>0.670602844142564</v>
       </c>
       <c r="I98">
-        <v>0.155078369314004</v>
+        <v>0.196046635920151</v>
       </c>
       <c r="J98">
-        <v>-0.376987822622424</v>
+        <v>-0.29072333659289</v>
       </c>
       <c r="K98">
-        <v>-0.171397507002067</v>
+        <v>0.0165997560663042</v>
       </c>
       <c r="L98">
-        <v>-0.328153636884384</v>
+        <v>-0.60723007954228</v>
       </c>
       <c r="M98">
-        <v>-0.667725848171744</v>
+        <v>-0.241523419423891</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4931,40 +4928,40 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>0.125167236509588</v>
+        <v>0.0916900420757363</v>
       </c>
       <c r="C99">
-        <v>0.0267578415341162</v>
+        <v>0.0306802244039271</v>
       </c>
       <c r="D99">
-        <v>0.190129329567415</v>
+        <v>0.166023842917251</v>
       </c>
       <c r="E99">
-        <v>12.2309090909091</v>
+        <v>12.0084210526316</v>
       </c>
       <c r="F99">
-        <v>0.00966255388731976</v>
+        <v>0.00701262272089762</v>
       </c>
       <c r="G99">
-        <v>0.00490560428125465</v>
+        <v>0.00350631136044881</v>
       </c>
       <c r="H99">
-        <v>0.557554803609219</v>
+        <v>0.412167502725649</v>
       </c>
       <c r="I99">
-        <v>0.226667099320246</v>
+        <v>0.407010688495289</v>
       </c>
       <c r="J99">
-        <v>-0.454049368684008</v>
+        <v>-0.520451483291137</v>
       </c>
       <c r="K99">
-        <v>0.175913306281794</v>
+        <v>-0.330989436330913</v>
       </c>
       <c r="L99">
-        <v>0.0839898203145903</v>
+        <v>0.0517011549031296</v>
       </c>
       <c r="M99">
-        <v>-0.627370748929383</v>
+        <v>0.530437071014627</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4972,40 +4969,40 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>0.0916900420757363</v>
+        <v>0.132883776279254</v>
       </c>
       <c r="C100">
-        <v>0.0306802244039271</v>
+        <v>0.0265767552558509</v>
       </c>
       <c r="D100">
-        <v>0.166023842917251</v>
+        <v>0.198135660452202</v>
       </c>
       <c r="E100">
-        <v>12.0084210526316</v>
+        <v>10.8197424892704</v>
       </c>
       <c r="F100">
-        <v>0.00701262272089762</v>
+        <v>0.00337167790559302</v>
       </c>
       <c r="G100">
-        <v>0.00350631136044881</v>
+        <v>0.00357001190003967</v>
       </c>
       <c r="H100">
-        <v>0.402474949125653</v>
+        <v>0.46749270124045</v>
       </c>
       <c r="I100">
-        <v>0.335202493905564</v>
+        <v>0.371542898131638</v>
       </c>
       <c r="J100">
-        <v>-0.352334831889898</v>
+        <v>0.330407540880879</v>
       </c>
       <c r="K100">
-        <v>-0.389284486893399</v>
+        <v>0.376213874089835</v>
       </c>
       <c r="L100">
-        <v>-0.636397808958001</v>
+        <v>-0.485256555586359</v>
       </c>
       <c r="M100">
-        <v>-0.212058451047132</v>
+        <v>-0.396517972186233</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5013,40 +5010,40 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>0.132883776279254</v>
+        <v>0.100502512562814</v>
       </c>
       <c r="C101">
-        <v>0.0265767552558509</v>
+        <v>0.0246057875584821</v>
       </c>
       <c r="D101">
-        <v>0.198135660452202</v>
+        <v>0.162016981459019</v>
       </c>
       <c r="E101">
-        <v>10.8197424892704</v>
+        <v>12.6280087527352</v>
       </c>
       <c r="F101">
-        <v>0.00337167790559302</v>
+        <v>0.00242592271703344</v>
       </c>
       <c r="G101">
-        <v>0.00357001190003967</v>
+        <v>0.00467856523999307</v>
       </c>
       <c r="H101">
-        <v>0.701957213001327</v>
+        <v>0.372883271028963</v>
       </c>
       <c r="I101">
-        <v>0.31969792044617</v>
+        <v>0.248651172833567</v>
       </c>
       <c r="J101">
-        <v>-0.262404243864044</v>
+        <v>-0.475029278112723</v>
       </c>
       <c r="K101">
-        <v>-0.220002400126487</v>
+        <v>-0.229244315417536</v>
       </c>
       <c r="L101">
-        <v>-0.273306845476757</v>
+        <v>-0.653067322854876</v>
       </c>
       <c r="M101">
-        <v>-0.461622828436889</v>
+        <v>-0.307291329260765</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5054,40 +5051,40 @@
         <v>106</v>
       </c>
       <c r="B102">
-        <v>0.100502512562814</v>
+        <v>0.0938549361987911</v>
       </c>
       <c r="C102">
-        <v>0.0246057875584821</v>
+        <v>0.0219946272666219</v>
       </c>
       <c r="D102">
-        <v>0.162016981459019</v>
+        <v>0.148253861652116</v>
       </c>
       <c r="E102">
-        <v>12.6280087527352</v>
+        <v>7.05687203791469</v>
       </c>
       <c r="F102">
-        <v>0.00242592271703344</v>
+        <v>0.00570852921423774</v>
       </c>
       <c r="G102">
-        <v>0.00467856523999307</v>
+        <v>0.00436534586971122</v>
       </c>
       <c r="H102">
-        <v>0.249719793138127</v>
+        <v>0.426117921714723</v>
       </c>
       <c r="I102">
-        <v>-0.00196160214489387</v>
+        <v>0.155208271292344</v>
       </c>
       <c r="J102">
-        <v>-0.321455527378886</v>
+        <v>-0.266078313537147</v>
       </c>
       <c r="K102">
-        <v>0.158859856555148</v>
+        <v>0.308541597146153</v>
       </c>
       <c r="L102">
-        <v>-0.0965127569285187</v>
+        <v>-0.494790257475561</v>
       </c>
       <c r="M102">
-        <v>-0.89428818323568</v>
+        <v>-0.619290662224907</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5095,40 +5092,40 @@
         <v>107</v>
       </c>
       <c r="B103">
-        <v>0.0938549361987911</v>
+        <v>0.130766223612197</v>
       </c>
       <c r="C103">
-        <v>0.0219946272666219</v>
+        <v>0.0291243158717748</v>
       </c>
       <c r="D103">
-        <v>0.148253861652116</v>
+        <v>0.195856137607506</v>
       </c>
       <c r="E103">
-        <v>7.05687203791469</v>
+        <v>11.243956043956</v>
       </c>
       <c r="F103">
-        <v>0.00570852921423774</v>
+        <v>0.00254104769351056</v>
       </c>
       <c r="G103">
-        <v>0.00436534586971122</v>
+        <v>0.00390930414386239</v>
       </c>
       <c r="H103">
-        <v>0.386332434220714</v>
+        <v>0.515343763605036</v>
       </c>
       <c r="I103">
-        <v>0.327039338920045</v>
+        <v>0.192563005855444</v>
       </c>
       <c r="J103">
-        <v>-0.318076173856242</v>
+        <v>-0.628287325370852</v>
       </c>
       <c r="K103">
-        <v>-0.0601363322297851</v>
+        <v>-0.15092188308008</v>
       </c>
       <c r="L103">
-        <v>0.593475657016547</v>
+        <v>0.150848502027367</v>
       </c>
       <c r="M103">
-        <v>-0.53552808961579</v>
+        <v>-0.507013456933163</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5136,40 +5133,40 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>0.130766223612197</v>
+        <v>0.176305970149254</v>
       </c>
       <c r="C104">
-        <v>0.0291243158717748</v>
+        <v>0.0391791044776119</v>
       </c>
       <c r="D104">
-        <v>0.195856137607506</v>
+        <v>0.251865671641791</v>
       </c>
       <c r="E104">
-        <v>11.243956043956</v>
+        <v>14.6849315068493</v>
       </c>
       <c r="F104">
-        <v>0.00254104769351056</v>
+        <v>0.00373134328358209</v>
       </c>
       <c r="G104">
-        <v>0.00390930414386239</v>
+        <v>0.0060634328358209</v>
       </c>
       <c r="H104">
-        <v>0.31453576026337</v>
+        <v>0.26134464372394</v>
       </c>
       <c r="I104">
-        <v>0.67088166848366</v>
+        <v>0.302273268256146</v>
       </c>
       <c r="J104">
-        <v>-0.285520078700576</v>
+        <v>0.027382135099277</v>
       </c>
       <c r="K104">
-        <v>-0.0504452705324046</v>
+        <v>0.418162673302563</v>
       </c>
       <c r="L104">
-        <v>-0.465692230637863</v>
+        <v>-0.726873419037053</v>
       </c>
       <c r="M104">
-        <v>-0.387362037468032</v>
+        <v>0.369289965373821</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5177,40 +5174,40 @@
         <v>109</v>
       </c>
       <c r="B105">
-        <v>0.176305970149254</v>
+        <v>0.0991364012776529</v>
       </c>
       <c r="C105">
-        <v>0.0391791044776119</v>
+        <v>0.027800780787886</v>
       </c>
       <c r="D105">
-        <v>0.251865671641791</v>
+        <v>0.165739973973737</v>
       </c>
       <c r="E105">
-        <v>14.6849315068493</v>
+        <v>12.3944281524927</v>
       </c>
       <c r="F105">
-        <v>0.00373134328358209</v>
+        <v>0.00875428841831303</v>
       </c>
       <c r="G105">
-        <v>0.0060634328358209</v>
+        <v>0.00354903584526204</v>
       </c>
       <c r="H105">
-        <v>0.417899820206653</v>
+        <v>0.62645254992911</v>
       </c>
       <c r="I105">
-        <v>0.385929534241127</v>
+        <v>0.357356068639063</v>
       </c>
       <c r="J105">
-        <v>-0.200375055338372</v>
+        <v>-0.367487709457895</v>
       </c>
       <c r="K105">
-        <v>-0.281915819602551</v>
+        <v>-0.583131396553738</v>
       </c>
       <c r="L105">
-        <v>-0.123032595620151</v>
+        <v>-0.0677807249456799</v>
       </c>
       <c r="M105">
-        <v>0.735971754310319</v>
+        <v>-0.0130450745749087</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5218,40 +5215,40 @@
         <v>110</v>
       </c>
       <c r="B106">
-        <v>0.0991364012776529</v>
+        <v>0.0929632020658489</v>
       </c>
       <c r="C106">
-        <v>0.027800780787886</v>
+        <v>0.0232408005164622</v>
       </c>
       <c r="D106">
-        <v>0.165739973973737</v>
+        <v>0.150548741123305</v>
       </c>
       <c r="E106">
-        <v>12.3944281524927</v>
+        <v>10.6975138121547</v>
       </c>
       <c r="F106">
-        <v>0.00875428841831303</v>
+        <v>0.00671400903808909</v>
       </c>
       <c r="G106">
-        <v>0.00354903584526204</v>
+        <v>0.00206584893479664</v>
       </c>
       <c r="H106">
-        <v>0.45599490212167</v>
+        <v>0.370937775406561</v>
       </c>
       <c r="I106">
-        <v>0.450145015961191</v>
+        <v>0.121667616579347</v>
       </c>
       <c r="J106">
-        <v>-0.419797339866724</v>
+        <v>-0.235882712714533</v>
       </c>
       <c r="K106">
-        <v>-0.160151485240973</v>
+        <v>0.0169706678417072</v>
       </c>
       <c r="L106">
-        <v>-0.574289070054743</v>
+        <v>-0.691784365144489</v>
       </c>
       <c r="M106">
-        <v>-0.240316193952757</v>
+        <v>-0.559560445590474</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5259,40 +5256,40 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>0.0929632020658489</v>
+        <v>0.120592149035263</v>
       </c>
       <c r="C107">
-        <v>0.0232408005164622</v>
+        <v>0.0242847638057219</v>
       </c>
       <c r="D107">
-        <v>0.150548741123305</v>
+        <v>0.181470392548237</v>
       </c>
       <c r="E107">
-        <v>10.6975138121547</v>
+        <v>12.2944785276074</v>
       </c>
       <c r="F107">
-        <v>0.00671400903808909</v>
+        <v>0.00615435795076514</v>
       </c>
       <c r="G107">
-        <v>0.00206584893479664</v>
+        <v>0.0029940119760479</v>
       </c>
       <c r="H107">
-        <v>0.483632239196017</v>
+        <v>0.553973586515241</v>
       </c>
       <c r="I107">
-        <v>0.234414820847053</v>
+        <v>0.352426891553952</v>
       </c>
       <c r="J107">
-        <v>-0.297579465769881</v>
+        <v>-0.101386046112834</v>
       </c>
       <c r="K107">
-        <v>0.039961341704749</v>
+        <v>0.0709890181851472</v>
       </c>
       <c r="L107">
-        <v>-0.192466883730915</v>
+        <v>-0.742717753860049</v>
       </c>
       <c r="M107">
-        <v>-0.764169876641097</v>
+        <v>-0.0442754853712325</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5300,40 +5297,40 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>0.120592149035263</v>
+        <v>0.134732566012187</v>
       </c>
       <c r="C108">
-        <v>0.0242847638057219</v>
+        <v>0.0335138794854435</v>
       </c>
       <c r="D108">
-        <v>0.181470392548237</v>
+        <v>0.209546377792823</v>
       </c>
       <c r="E108">
-        <v>12.2944785276074</v>
+        <v>9.81395348837209</v>
       </c>
       <c r="F108">
-        <v>0.00615435795076514</v>
+        <v>0.004739336492891</v>
       </c>
       <c r="G108">
-        <v>0.0029940119760479</v>
+        <v>0.004062288422478</v>
       </c>
       <c r="H108">
-        <v>0.437660723983634</v>
+        <v>0.462565975260836</v>
       </c>
       <c r="I108">
-        <v>0.771270021554991</v>
+        <v>0.672031710580461</v>
       </c>
       <c r="J108">
-        <v>-0.341021275115711</v>
+        <v>0.0143654175774932</v>
       </c>
       <c r="K108">
-        <v>0.115625135965124</v>
+        <v>0.296542173573432</v>
       </c>
       <c r="L108">
-        <v>0.250551006460651</v>
+        <v>-0.429829752501911</v>
       </c>
       <c r="M108">
-        <v>-0.145448119773825</v>
+        <v>-0.248009791015608</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5341,40 +5338,40 @@
         <v>113</v>
       </c>
       <c r="B109">
-        <v>0.134732566012187</v>
+        <v>0.108634637609378</v>
       </c>
       <c r="C109">
-        <v>0.0335138794854435</v>
+        <v>0.0234439491497441</v>
       </c>
       <c r="D109">
-        <v>0.209546377792823</v>
+        <v>0.17599471685653</v>
       </c>
       <c r="E109">
-        <v>9.81395348837209</v>
+        <v>12.5663900414938</v>
       </c>
       <c r="F109">
-        <v>0.004739336492891</v>
+        <v>0.00924550107313852</v>
       </c>
       <c r="G109">
-        <v>0.004062288422478</v>
+        <v>0.00495294700346706</v>
       </c>
       <c r="H109">
-        <v>0.576048508858344</v>
+        <v>0.350088711318478</v>
       </c>
       <c r="I109">
-        <v>0.580279678021483</v>
+        <v>0.292453839580551</v>
       </c>
       <c r="J109">
-        <v>0.0769533045137208</v>
+        <v>-0.372688135987476</v>
       </c>
       <c r="K109">
-        <v>0.569357321180023</v>
+        <v>-0.0843884198915074</v>
       </c>
       <c r="L109">
-        <v>-0.0199821289444048</v>
+        <v>0.345763848806982</v>
       </c>
       <c r="M109">
-        <v>0.0308991097499213</v>
+        <v>-0.72549166408894</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5382,40 +5379,40 @@
         <v>114</v>
       </c>
       <c r="B110">
-        <v>0.108634637609378</v>
+        <v>0.138013945660014</v>
       </c>
       <c r="C110">
-        <v>0.0234439491497441</v>
+        <v>0.0276508776148113</v>
       </c>
       <c r="D110">
-        <v>0.17599471685653</v>
+        <v>0.20678047607598</v>
       </c>
       <c r="E110">
-        <v>12.5663900414938</v>
+        <v>9.40950226244344</v>
       </c>
       <c r="F110">
-        <v>0.00924550107313852</v>
+        <v>0.00553017552296225</v>
       </c>
       <c r="G110">
-        <v>0.00495294700346706</v>
+        <v>0.00528973310892041</v>
       </c>
       <c r="H110">
-        <v>0.282129830369166</v>
+        <v>0.185556061461701</v>
       </c>
       <c r="I110">
-        <v>0.252048209545492</v>
+        <v>0.312731475249826</v>
       </c>
       <c r="J110">
-        <v>-0.328750697076096</v>
+        <v>0.0299895858852315</v>
       </c>
       <c r="K110">
-        <v>-0.478083938532069</v>
+        <v>0.062716823902307</v>
       </c>
       <c r="L110">
-        <v>0.71904686071007</v>
+        <v>-0.480856619704147</v>
       </c>
       <c r="M110">
-        <v>-0.0566109342213764</v>
+        <v>-0.794803188511237</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5423,40 +5420,40 @@
         <v>115</v>
       </c>
       <c r="B111">
-        <v>0.138013945660014</v>
+        <v>0.107625899280576</v>
       </c>
       <c r="C111">
-        <v>0.0276508776148113</v>
+        <v>0.0274820143884892</v>
       </c>
       <c r="D111">
-        <v>0.20678047607598</v>
+        <v>0.172661870503597</v>
       </c>
       <c r="E111">
-        <v>9.40950226244344</v>
+        <v>11.7796610169492</v>
       </c>
       <c r="F111">
-        <v>0.00553017552296225</v>
+        <v>0.00964028776978417</v>
       </c>
       <c r="G111">
-        <v>0.00528973310892041</v>
+        <v>0.00503597122302158</v>
       </c>
       <c r="H111">
-        <v>0.833482892118237</v>
+        <v>0.663329559404625</v>
       </c>
       <c r="I111">
-        <v>-0.00753234071548348</v>
+        <v>0.337521112105474</v>
       </c>
       <c r="J111">
-        <v>-0.152184224811959</v>
+        <v>0.404451055349135</v>
       </c>
       <c r="K111">
-        <v>-0.305767726882856</v>
+        <v>-0.137394087616123</v>
       </c>
       <c r="L111">
-        <v>-0.429434052059258</v>
+        <v>-0.295279968638024</v>
       </c>
       <c r="M111">
-        <v>0.0646682784431869</v>
+        <v>-0.420030169320469</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5464,40 +5461,40 @@
         <v>116</v>
       </c>
       <c r="B112">
-        <v>0.107625899280576</v>
+        <v>0.107692307692308</v>
       </c>
       <c r="C112">
-        <v>0.0274820143884892</v>
+        <v>0.0277261200338123</v>
       </c>
       <c r="D112">
-        <v>0.172661870503597</v>
+        <v>0.170583262890955</v>
       </c>
       <c r="E112">
-        <v>11.7796610169492</v>
+        <v>11.375</v>
       </c>
       <c r="F112">
-        <v>0.00964028776978417</v>
+        <v>0.00253592561284869</v>
       </c>
       <c r="G112">
-        <v>0.00503597122302158</v>
+        <v>0.00304311073541843</v>
       </c>
       <c r="H112">
-        <v>0.576852391575222</v>
+        <v>0.4638930376312</v>
       </c>
       <c r="I112">
-        <v>0.488119005676543</v>
+        <v>0.357523829076183</v>
       </c>
       <c r="J112">
-        <v>0.435900270393261</v>
+        <v>-0.222357480621409</v>
       </c>
       <c r="K112">
-        <v>0.31290029622388</v>
+        <v>0.404540889141924</v>
       </c>
       <c r="L112">
-        <v>0.356913319076521</v>
+        <v>-0.114767895033027</v>
       </c>
       <c r="M112">
-        <v>0.116954675798624</v>
+        <v>0.656286607644595</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5505,40 +5502,40 @@
         <v>117</v>
       </c>
       <c r="B113">
-        <v>0.107692307692308</v>
+        <v>0.11543134872418</v>
       </c>
       <c r="C113">
-        <v>0.0277261200338123</v>
+        <v>0.0265289590927501</v>
       </c>
       <c r="D113">
-        <v>0.170583262890955</v>
+        <v>0.180437424058323</v>
       </c>
       <c r="E113">
-        <v>11.375</v>
+        <v>8.73982300884956</v>
       </c>
       <c r="F113">
-        <v>0.00253592561284869</v>
+        <v>0.00425273390036452</v>
       </c>
       <c r="G113">
-        <v>0.00304311073541843</v>
+        <v>0.00384771162413933</v>
       </c>
       <c r="H113">
-        <v>0.430934233990156</v>
+        <v>0.249108223923492</v>
       </c>
       <c r="I113">
-        <v>0.291959848293576</v>
+        <v>0.245276014615064</v>
       </c>
       <c r="J113">
-        <v>-0.412681633182406</v>
+        <v>-0.336743968218614</v>
       </c>
       <c r="K113">
-        <v>0.430476865472929</v>
+        <v>0.069917301325854</v>
       </c>
       <c r="L113">
-        <v>0.202557057864654</v>
+        <v>-0.179269692858485</v>
       </c>
       <c r="M113">
-        <v>-0.576549485469746</v>
+        <v>-0.852855332101729</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5546,40 +5543,40 @@
         <v>118</v>
       </c>
       <c r="B114">
-        <v>0.11543134872418</v>
+        <v>0.101101449275362</v>
       </c>
       <c r="C114">
-        <v>0.0265289590927501</v>
+        <v>0.0238840579710145</v>
       </c>
       <c r="D114">
-        <v>0.180437424058323</v>
+        <v>0.161855072463768</v>
       </c>
       <c r="E114">
-        <v>8.73982300884956</v>
+        <v>11.6554054054054</v>
       </c>
       <c r="F114">
-        <v>0.00425273390036452</v>
+        <v>0.00278260869565217</v>
       </c>
       <c r="G114">
-        <v>0.00384771162413933</v>
+        <v>0.00579710144927536</v>
       </c>
       <c r="H114">
-        <v>0.81414215835334</v>
+        <v>0.535784625768533</v>
       </c>
       <c r="I114">
-        <v>0.14638327328827</v>
+        <v>0.0801241215612195</v>
       </c>
       <c r="J114">
-        <v>0.327511970276844</v>
+        <v>0.0607938518915033</v>
       </c>
       <c r="K114">
-        <v>-0.311260805369091</v>
+        <v>-0.770991523952898</v>
       </c>
       <c r="L114">
-        <v>0.119323467965551</v>
+        <v>-0.0787340434320061</v>
       </c>
       <c r="M114">
-        <v>0.312024059412436</v>
+        <v>-0.319674972282699</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5587,40 +5584,40 @@
         <v>119</v>
       </c>
       <c r="B115">
-        <v>0.101101449275362</v>
+        <v>0.106732586883816</v>
       </c>
       <c r="C115">
-        <v>0.0238840579710145</v>
+        <v>0.0242838446997237</v>
       </c>
       <c r="D115">
-        <v>0.161855072463768</v>
+        <v>0.169405263923222</v>
       </c>
       <c r="E115">
-        <v>11.6554054054054</v>
+        <v>12.7825278810409</v>
       </c>
       <c r="F115">
-        <v>0.00278260869565217</v>
+        <v>0.00407154282390577</v>
       </c>
       <c r="G115">
-        <v>0.00579710144927536</v>
+        <v>0.00552566526101498</v>
       </c>
       <c r="H115">
-        <v>0.447023871231509</v>
+        <v>0.545917029041963</v>
       </c>
       <c r="I115">
-        <v>-0.0795011224685692</v>
+        <v>0.0370025300694314</v>
       </c>
       <c r="J115">
-        <v>0.0318284106970814</v>
+        <v>0.418491889498922</v>
       </c>
       <c r="K115">
-        <v>-0.0793660420638606</v>
+        <v>-0.0178149456684277</v>
       </c>
       <c r="L115">
-        <v>-0.62091781870082</v>
+        <v>-0.614410497943651</v>
       </c>
       <c r="M115">
-        <v>-0.633244246823344</v>
+        <v>-0.384255535186605</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5628,40 +5625,40 @@
         <v>120</v>
       </c>
       <c r="B116">
-        <v>0.106732586883816</v>
+        <v>0.102439024390244</v>
       </c>
       <c r="C116">
-        <v>0.0242838446997237</v>
+        <v>0.0262584327970939</v>
       </c>
       <c r="D116">
-        <v>0.169405263923222</v>
+        <v>0.163051375194603</v>
       </c>
       <c r="E116">
-        <v>12.7825278810409</v>
+        <v>10.9240362811791</v>
       </c>
       <c r="F116">
-        <v>0.00407154282390577</v>
+        <v>0.00269849507005708</v>
       </c>
       <c r="G116">
-        <v>0.00552566526101498</v>
+        <v>0.00363258951738454</v>
       </c>
       <c r="H116">
-        <v>0.244127370574834</v>
+        <v>0.35253480630641</v>
       </c>
       <c r="I116">
-        <v>0.266048638628466</v>
+        <v>0.36542023034474</v>
       </c>
       <c r="J116">
-        <v>-0.0912928369730025</v>
+        <v>-0.211307187219199</v>
       </c>
       <c r="K116">
-        <v>-0.021534591962253</v>
+        <v>-0.101369252946352</v>
       </c>
       <c r="L116">
-        <v>-0.0842406178660893</v>
+        <v>-0.79513896902894</v>
       </c>
       <c r="M116">
-        <v>-0.923972589630308</v>
+        <v>-0.234552409315065</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5669,40 +5666,40 @@
         <v>121</v>
       </c>
       <c r="B117">
-        <v>0.102439024390244</v>
+        <v>0.19233401779603</v>
       </c>
       <c r="C117">
-        <v>0.0262584327970939</v>
+        <v>0.0338809034907598</v>
       </c>
       <c r="D117">
-        <v>0.163051375194603</v>
+        <v>0.262149212867899</v>
       </c>
       <c r="E117">
-        <v>10.9240362811791</v>
+        <v>12.8157894736842</v>
       </c>
       <c r="F117">
-        <v>0.00269849507005708</v>
+        <v>0.00479123887748118</v>
       </c>
       <c r="G117">
-        <v>0.00363258951738454</v>
+        <v>0.00376454483230664</v>
       </c>
       <c r="H117">
-        <v>0.454739934948144</v>
+        <v>0.467878502687871</v>
       </c>
       <c r="I117">
-        <v>0.345335529724792</v>
+        <v>0.299254119629299</v>
       </c>
       <c r="J117">
-        <v>-0.431070477063615</v>
+        <v>-0.367034006162</v>
       </c>
       <c r="K117">
-        <v>0.237144689424349</v>
+        <v>0.369638888193774</v>
       </c>
       <c r="L117">
-        <v>-0.0491842953310776</v>
+        <v>-0.46479963538116</v>
       </c>
       <c r="M117">
-        <v>-0.655344572456214</v>
+        <v>-0.45183084026274</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5710,40 +5707,40 @@
         <v>122</v>
       </c>
       <c r="B118">
-        <v>0.19233401779603</v>
+        <v>0.0919475655430712</v>
       </c>
       <c r="C118">
-        <v>0.0338809034907598</v>
+        <v>0.0230337078651685</v>
       </c>
       <c r="D118">
-        <v>0.262149212867899</v>
+        <v>0.152247191011236</v>
       </c>
       <c r="E118">
-        <v>12.8157894736842</v>
+        <v>10.7014028056112</v>
       </c>
       <c r="F118">
-        <v>0.00479123887748118</v>
+        <v>0.00617977528089888</v>
       </c>
       <c r="G118">
-        <v>0.00376454483230664</v>
+        <v>0.00393258426966292</v>
       </c>
       <c r="H118">
-        <v>0.618116633455609</v>
+        <v>0.769667590386566</v>
       </c>
       <c r="I118">
-        <v>0.356825851743582</v>
+        <v>-0.617210149522335</v>
       </c>
       <c r="J118">
-        <v>-0.212409421382551</v>
+        <v>0.15607721273143</v>
       </c>
       <c r="K118">
-        <v>0.226407104795292</v>
+        <v>-0.00912993997214409</v>
       </c>
       <c r="L118">
-        <v>0.505307083115148</v>
+        <v>0.0382627337060402</v>
       </c>
       <c r="M118">
-        <v>-0.372684788169273</v>
+        <v>0.0274944122793836</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5751,40 +5748,40 @@
         <v>123</v>
       </c>
       <c r="B119">
-        <v>0.0919475655430712</v>
+        <v>0.161572052401747</v>
       </c>
       <c r="C119">
-        <v>0.0230337078651685</v>
+        <v>0.0265647743813683</v>
       </c>
       <c r="D119">
-        <v>0.152247191011236</v>
+        <v>0.218704512372635</v>
       </c>
       <c r="E119">
-        <v>10.7014028056112</v>
+        <v>9.64210526315789</v>
       </c>
       <c r="F119">
-        <v>0.00617977528089888</v>
+        <v>0.00473071324599709</v>
       </c>
       <c r="G119">
-        <v>0.00393258426966292</v>
+        <v>0.00327510917030568</v>
       </c>
       <c r="H119">
-        <v>0.770452864379563</v>
+        <v>0.598443904999387</v>
       </c>
       <c r="I119">
-        <v>-0.608047635071064</v>
+        <v>0.150245281251321</v>
       </c>
       <c r="J119">
-        <v>0.176465848515681</v>
+        <v>-0.231846863398378</v>
       </c>
       <c r="K119">
-        <v>0.00109565782645196</v>
+        <v>-0.535825422453875</v>
       </c>
       <c r="L119">
-        <v>0.00326882273088523</v>
+        <v>0.455102452787018</v>
       </c>
       <c r="M119">
-        <v>0.0743530489847924</v>
+        <v>-0.267041483823202</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5792,40 +5789,40 @@
         <v>124</v>
       </c>
       <c r="B120">
-        <v>0.161572052401747</v>
+        <v>0.12619171433524</v>
       </c>
       <c r="C120">
-        <v>0.0265647743813683</v>
+        <v>0.0346680533888022</v>
       </c>
       <c r="D120">
-        <v>0.218704512372635</v>
+        <v>0.199861327786445</v>
       </c>
       <c r="E120">
-        <v>9.64210526315789</v>
+        <v>12.7070484581498</v>
       </c>
       <c r="F120">
-        <v>0.00473071324599709</v>
+        <v>0.00849367308025654</v>
       </c>
       <c r="G120">
-        <v>0.00327510917030568</v>
+        <v>0.00520020800832033</v>
       </c>
       <c r="H120">
-        <v>0.29086118113266</v>
+        <v>0.376515362581936</v>
       </c>
       <c r="I120">
-        <v>0.455755001389978</v>
+        <v>0.502421139824278</v>
       </c>
       <c r="J120">
-        <v>0.0908674431236267</v>
+        <v>-0.405878996967675</v>
       </c>
       <c r="K120">
-        <v>0.158574858890468</v>
+        <v>-0.364431093158941</v>
       </c>
       <c r="L120">
-        <v>0.701467900104086</v>
+        <v>0.0500483581323975</v>
       </c>
       <c r="M120">
-        <v>-0.426880614516216</v>
+        <v>-0.552952583867017</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5833,40 +5830,40 @@
         <v>125</v>
       </c>
       <c r="B121">
-        <v>0.12619171433524</v>
+        <v>0.0999798020601899</v>
       </c>
       <c r="C121">
-        <v>0.0346680533888022</v>
+        <v>0.0260553423550798</v>
       </c>
       <c r="D121">
-        <v>0.199861327786445</v>
+        <v>0.16239143607352</v>
       </c>
       <c r="E121">
-        <v>12.7070484581498</v>
+        <v>11.2522727272727</v>
       </c>
       <c r="F121">
-        <v>0.00849367308025654</v>
+        <v>0.0064633407392446</v>
       </c>
       <c r="G121">
-        <v>0.00520020800832033</v>
+        <v>0.00343364976772369</v>
       </c>
       <c r="H121">
-        <v>0.368418480993105</v>
+        <v>0.338238832987965</v>
       </c>
       <c r="I121">
-        <v>0.403292099768431</v>
+        <v>0.24988238789606</v>
       </c>
       <c r="J121">
-        <v>-0.518591399295138</v>
+        <v>-0.537714991693314</v>
       </c>
       <c r="K121">
-        <v>-0.299961959577042</v>
+        <v>-0.242726496927822</v>
       </c>
       <c r="L121">
-        <v>-0.525832733270057</v>
+        <v>-0.608058131243179</v>
       </c>
       <c r="M121">
-        <v>-0.257311144594742</v>
+        <v>-0.324599797450279</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5874,40 +5871,40 @@
         <v>126</v>
       </c>
       <c r="B122">
-        <v>0.0999798020601899</v>
+        <v>0.0822176720743424</v>
       </c>
       <c r="C122">
-        <v>0.0260553423550798</v>
+        <v>0.0259883446212002</v>
       </c>
       <c r="D122">
-        <v>0.16239143607352</v>
+        <v>0.144904709403056</v>
       </c>
       <c r="E122">
-        <v>11.2522727272727</v>
+        <v>11.6282051282051</v>
       </c>
       <c r="F122">
-        <v>0.0064633407392446</v>
+        <v>0.00645770987557096</v>
       </c>
       <c r="G122">
-        <v>0.00343364976772369</v>
+        <v>0.00472515356749094</v>
       </c>
       <c r="H122">
-        <v>0.28923097109374</v>
+        <v>0.57365398280262</v>
       </c>
       <c r="I122">
-        <v>0.486739391362615</v>
+        <v>0.607528243060667</v>
       </c>
       <c r="J122">
-        <v>-0.569067760913481</v>
+        <v>-0.268639670726924</v>
       </c>
       <c r="K122">
-        <v>-0.220182992108394</v>
+        <v>0.080312880342361</v>
       </c>
       <c r="L122">
-        <v>0.535714693477321</v>
+        <v>0.167350790337094</v>
       </c>
       <c r="M122">
-        <v>-0.141849606709839</v>
+        <v>-0.441822162679402</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5915,40 +5912,40 @@
         <v>127</v>
       </c>
       <c r="B123">
-        <v>0.0822176720743424</v>
+        <v>0.0925985778926955</v>
       </c>
       <c r="C123">
-        <v>0.0259883446212002</v>
+        <v>0.0245636716224952</v>
       </c>
       <c r="D123">
-        <v>0.144904709403056</v>
+        <v>0.152553329023917</v>
       </c>
       <c r="E123">
-        <v>11.6282051282051</v>
+        <v>9.60869565217391</v>
       </c>
       <c r="F123">
-        <v>0.00645770987557096</v>
+        <v>0.00177763413057531</v>
       </c>
       <c r="G123">
-        <v>0.00472515356749094</v>
+        <v>0.00355526826115061</v>
       </c>
       <c r="H123">
-        <v>0.5287752515255</v>
+        <v>0.270391390182522</v>
       </c>
       <c r="I123">
-        <v>0.399852136399084</v>
+        <v>0.190539205681629</v>
       </c>
       <c r="J123">
-        <v>-0.364104198064911</v>
+        <v>-0.318362526033413</v>
       </c>
       <c r="K123">
-        <v>-0.191323151614641</v>
+        <v>0.884124657178179</v>
       </c>
       <c r="L123">
-        <v>-0.232034640443135</v>
+        <v>0.0536368430453012</v>
       </c>
       <c r="M123">
-        <v>-0.580946221808359</v>
+        <v>0.0683760840404194</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5956,40 +5953,40 @@
         <v>128</v>
       </c>
       <c r="B124">
-        <v>0.0925985778926955</v>
+        <v>0.113377710972729</v>
       </c>
       <c r="C124">
-        <v>0.0245636716224952</v>
+        <v>0.0279149667167705</v>
       </c>
       <c r="D124">
-        <v>0.152553329023917</v>
+        <v>0.179944170066566</v>
       </c>
       <c r="E124">
-        <v>9.60869565217391</v>
+        <v>11.9410256410256</v>
       </c>
       <c r="F124">
-        <v>0.00177763413057531</v>
+        <v>0.00128838307923556</v>
       </c>
       <c r="G124">
-        <v>0.00355526826115061</v>
+        <v>0.0032209576980889</v>
       </c>
       <c r="H124">
-        <v>0.208154048612854</v>
+        <v>0.279474826957753</v>
       </c>
       <c r="I124">
-        <v>0.161476650120589</v>
+        <v>0.302233099576546</v>
       </c>
       <c r="J124">
-        <v>-0.374250126682375</v>
+        <v>-0.45202295256224</v>
       </c>
       <c r="K124">
-        <v>0.857314610268047</v>
+        <v>-0.409317917942132</v>
       </c>
       <c r="L124">
-        <v>0.0153794695475429</v>
+        <v>0.0740155477115924</v>
       </c>
       <c r="M124">
-        <v>0.235178989553743</v>
+        <v>0.673204846775982</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5997,40 +5994,40 @@
         <v>129</v>
       </c>
       <c r="B125">
-        <v>0.113377710972729</v>
+        <v>0.12156862745098</v>
       </c>
       <c r="C125">
-        <v>0.0279149667167705</v>
+        <v>0.0286764705882353</v>
       </c>
       <c r="D125">
-        <v>0.179944170066566</v>
+        <v>0.186029411764706</v>
       </c>
       <c r="E125">
-        <v>11.9410256410256</v>
+        <v>9.92700729927007</v>
       </c>
       <c r="F125">
-        <v>0.00128838307923556</v>
+        <v>0.00637254901960784</v>
       </c>
       <c r="G125">
-        <v>0.0032209576980889</v>
+        <v>0.00490196078431373</v>
       </c>
       <c r="H125">
-        <v>0.282563919054713</v>
+        <v>0.356090861794372</v>
       </c>
       <c r="I125">
-        <v>0.219235298547293</v>
+        <v>0.163844608815297</v>
       </c>
       <c r="J125">
-        <v>-0.446747533482717</v>
+        <v>-0.817266693176241</v>
       </c>
       <c r="K125">
-        <v>-0.41627406435772</v>
+        <v>-0.190331242951316</v>
       </c>
       <c r="L125">
-        <v>0.0290103802493555</v>
+        <v>-0.13641410823422</v>
       </c>
       <c r="M125">
-        <v>0.705963496242775</v>
+        <v>-0.351560241729273</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6038,40 +6035,40 @@
         <v>130</v>
       </c>
       <c r="B126">
-        <v>0.12156862745098</v>
+        <v>0.0928696728923744</v>
       </c>
       <c r="C126">
-        <v>0.0286764705882353</v>
+        <v>0.0224950985450418</v>
       </c>
       <c r="D126">
-        <v>0.186029411764706</v>
+        <v>0.150655247136518</v>
       </c>
       <c r="E126">
-        <v>9.92700729927007</v>
+        <v>10.0842872008325</v>
       </c>
       <c r="F126">
-        <v>0.00637254901960784</v>
+        <v>0.00763595088226189</v>
       </c>
       <c r="G126">
-        <v>0.00490196078431373</v>
+        <v>0.00464348364461872</v>
       </c>
       <c r="H126">
-        <v>0.613030410988188</v>
+        <v>0.388271805015</v>
       </c>
       <c r="I126">
-        <v>0.228223163640749</v>
+        <v>0.216449306914289</v>
       </c>
       <c r="J126">
-        <v>-0.665306661188548</v>
+        <v>-0.0181030878645131</v>
       </c>
       <c r="K126">
-        <v>0.0661991067381119</v>
+        <v>0.173776547648196</v>
       </c>
       <c r="L126">
-        <v>0.352933601462706</v>
+        <v>0.142727640881156</v>
       </c>
       <c r="M126">
-        <v>0.0230325983173593</v>
+        <v>-0.866889562281414</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6079,40 +6076,40 @@
         <v>131</v>
       </c>
       <c r="B127">
-        <v>0.0928696728923744</v>
+        <v>0.105476390053087</v>
       </c>
       <c r="C127">
-        <v>0.0224950985450418</v>
+        <v>0.0262643196423582</v>
       </c>
       <c r="D127">
-        <v>0.150655247136518</v>
+        <v>0.1682034087734</v>
       </c>
       <c r="E127">
-        <v>10.0842872008325</v>
+        <v>9.95549374130737</v>
       </c>
       <c r="F127">
-        <v>0.00763595088226189</v>
+        <v>0.0115954177144454</v>
       </c>
       <c r="G127">
-        <v>0.00464348364461872</v>
+        <v>0.00544844928751048</v>
       </c>
       <c r="H127">
-        <v>0.630471638755988</v>
+        <v>0.445650368097632</v>
       </c>
       <c r="I127">
-        <v>0.420819788046118</v>
+        <v>0.393793029807018</v>
       </c>
       <c r="J127">
-        <v>-0.602446215052971</v>
+        <v>-0.401245128565843</v>
       </c>
       <c r="K127">
-        <v>-0.0485264760231157</v>
+        <v>-0.22838372234931</v>
       </c>
       <c r="L127">
-        <v>0.166907828663678</v>
+        <v>-0.416861775546182</v>
       </c>
       <c r="M127">
-        <v>-0.179615518642078</v>
+        <v>-0.509305685562602</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6120,40 +6117,40 @@
         <v>132</v>
       </c>
       <c r="B128">
-        <v>0.105476390053087</v>
+        <v>0.0902473250306964</v>
       </c>
       <c r="C128">
-        <v>0.0262643196423582</v>
+        <v>0.0220136818102087</v>
       </c>
       <c r="D128">
-        <v>0.1682034087734</v>
+        <v>0.145939308893177</v>
       </c>
       <c r="E128">
-        <v>9.95549374130737</v>
+        <v>13.0756880733945</v>
       </c>
       <c r="F128">
-        <v>0.0115954177144454</v>
+        <v>0.0036835642869672</v>
       </c>
       <c r="G128">
-        <v>0.00544844928751048</v>
+        <v>0.0042974916681284</v>
       </c>
       <c r="H128">
-        <v>0.481555601863946</v>
+        <v>0.334270821841266</v>
       </c>
       <c r="I128">
-        <v>0.579401099879088</v>
+        <v>0.360897252551844</v>
       </c>
       <c r="J128">
-        <v>-0.342176870401858</v>
+        <v>-0.198710382943983</v>
       </c>
       <c r="K128">
-        <v>-0.0282626995996137</v>
+        <v>-0.32274483482359</v>
       </c>
       <c r="L128">
-        <v>0.498057035950672</v>
+        <v>-0.0256850801847464</v>
       </c>
       <c r="M128">
-        <v>-0.257786667393251</v>
+        <v>-0.783394168172669</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6161,40 +6158,40 @@
         <v>133</v>
       </c>
       <c r="B129">
-        <v>0.0902473250306964</v>
+        <v>0.0983520795187026</v>
       </c>
       <c r="C129">
-        <v>0.0220136818102087</v>
+        <v>0.0245880198796756</v>
       </c>
       <c r="D129">
-        <v>0.145939308893177</v>
+        <v>0.156683233063039</v>
       </c>
       <c r="E129">
-        <v>13.0756880733945</v>
+        <v>11.5673222390318</v>
       </c>
       <c r="F129">
-        <v>0.0036835642869672</v>
+        <v>0.00549306827099137</v>
       </c>
       <c r="G129">
-        <v>0.0042974916681284</v>
+        <v>0.00483913157206382</v>
       </c>
       <c r="H129">
-        <v>0.25447475388883</v>
+        <v>0.146677160194623</v>
       </c>
       <c r="I129">
-        <v>0.183541491977963</v>
+        <v>0.279942860155328</v>
       </c>
       <c r="J129">
-        <v>-0.234053747410145</v>
+        <v>-0.419492805347361</v>
       </c>
       <c r="K129">
-        <v>0.0258039162563892</v>
+        <v>-0.269419199489154</v>
       </c>
       <c r="L129">
-        <v>-0.0377010313916093</v>
+        <v>-0.579742295583045</v>
       </c>
       <c r="M129">
-        <v>-0.919068416287293</v>
+        <v>-0.56165448244078</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6202,40 +6199,40 @@
         <v>134</v>
       </c>
       <c r="B130">
-        <v>0.0983520795187026</v>
+        <v>0.085427135678392</v>
       </c>
       <c r="C130">
-        <v>0.0245880198796756</v>
+        <v>0.0220746590093324</v>
       </c>
       <c r="D130">
-        <v>0.156683233063039</v>
+        <v>0.14545944005743</v>
       </c>
       <c r="E130">
-        <v>11.5673222390318</v>
+        <v>12.0736728060672</v>
       </c>
       <c r="F130">
-        <v>0.00549306827099137</v>
+        <v>0.00699928212491027</v>
       </c>
       <c r="G130">
-        <v>0.00483913157206382</v>
+        <v>0.00349964106245513</v>
       </c>
       <c r="H130">
-        <v>0.165045484313232</v>
+        <v>0.456910111449067</v>
       </c>
       <c r="I130">
-        <v>0.0724957084529468</v>
+        <v>0.487384507435996</v>
       </c>
       <c r="J130">
-        <v>-0.0549187415895923</v>
+        <v>-0.471351180330535</v>
       </c>
       <c r="K130">
-        <v>-0.0221824205695504</v>
+        <v>-0.268951697192638</v>
       </c>
       <c r="L130">
-        <v>0.22281472071004</v>
+        <v>0.282106356148386</v>
       </c>
       <c r="M130">
-        <v>-0.956216415168927</v>
+        <v>0.42379068555817</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6243,40 +6240,40 @@
         <v>135</v>
       </c>
       <c r="B131">
-        <v>0.085427135678392</v>
+        <v>0.0955037187288709</v>
       </c>
       <c r="C131">
-        <v>0.0220746590093324</v>
+        <v>0.0283975659229209</v>
       </c>
       <c r="D131">
-        <v>0.14545944005743</v>
+        <v>0.161595672751859</v>
       </c>
       <c r="E131">
-        <v>12.0736728060672</v>
+        <v>10.2708333333333</v>
       </c>
       <c r="F131">
-        <v>0.00699928212491027</v>
+        <v>0.0021974306964165</v>
       </c>
       <c r="G131">
-        <v>0.00349964106245513</v>
+        <v>0.00236646382691007</v>
       </c>
       <c r="H131">
-        <v>0.409618506691899</v>
+        <v>0.486475032301501</v>
       </c>
       <c r="I131">
-        <v>0.451788944303597</v>
+        <v>0.485238030168845</v>
       </c>
       <c r="J131">
-        <v>-0.45165893716479</v>
+        <v>-0.116672077606818</v>
       </c>
       <c r="K131">
-        <v>-0.345576754321666</v>
+        <v>0.290456144942098</v>
       </c>
       <c r="L131">
-        <v>-0.055178616669036</v>
+        <v>-0.580073487951702</v>
       </c>
       <c r="M131">
-        <v>0.549213674624646</v>
+        <v>-0.305652907352347</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6284,40 +6281,40 @@
         <v>136</v>
       </c>
       <c r="B132">
-        <v>0.0955037187288709</v>
+        <v>0.143790849673203</v>
       </c>
       <c r="C132">
-        <v>0.0283975659229209</v>
+        <v>0.0359477124183007</v>
       </c>
       <c r="D132">
-        <v>0.161595672751859</v>
+        <v>0.219607843137255</v>
       </c>
       <c r="E132">
-        <v>10.2708333333333</v>
+        <v>10.4081632653061</v>
       </c>
       <c r="F132">
-        <v>0.0021974306964165</v>
+        <v>0.00261437908496732</v>
       </c>
       <c r="G132">
-        <v>0.00236646382691007</v>
+        <v>0.00130718954248366</v>
       </c>
       <c r="H132">
-        <v>0.548914346771108</v>
+        <v>0.556641011372319</v>
       </c>
       <c r="I132">
-        <v>0.404761289054555</v>
+        <v>0.574579522612886</v>
       </c>
       <c r="J132">
-        <v>0.0143745371657752</v>
+        <v>-0.143396338811477</v>
       </c>
       <c r="K132">
-        <v>0.0198465829816871</v>
+        <v>0.249082727118485</v>
       </c>
       <c r="L132">
-        <v>-0.330672241878662</v>
+        <v>-0.461246597322226</v>
       </c>
       <c r="M132">
-        <v>-0.651856343888669</v>
+        <v>0.254275476949116</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6325,40 +6322,40 @@
         <v>137</v>
       </c>
       <c r="B133">
-        <v>0.143790849673203</v>
+        <v>0.117556468172485</v>
       </c>
       <c r="C133">
-        <v>0.0359477124183007</v>
+        <v>0.0289185489390828</v>
       </c>
       <c r="D133">
-        <v>0.219607843137255</v>
+        <v>0.187029431895962</v>
       </c>
       <c r="E133">
-        <v>10.4081632653061</v>
+        <v>12.5407725321888</v>
       </c>
       <c r="F133">
-        <v>0.00261437908496732</v>
+        <v>0.0116358658453114</v>
       </c>
       <c r="G133">
-        <v>0.00130718954248366</v>
+        <v>0.00444900752908966</v>
       </c>
       <c r="H133">
-        <v>0.249441391648093</v>
+        <v>0.284381056475605</v>
       </c>
       <c r="I133">
-        <v>0.450637744538704</v>
+        <v>0.280522223269837</v>
       </c>
       <c r="J133">
-        <v>-0.792603929285037</v>
+        <v>-0.454148998466704</v>
       </c>
       <c r="K133">
-        <v>-0.148236080762956</v>
+        <v>-0.31934326469493</v>
       </c>
       <c r="L133">
-        <v>-0.270089395428686</v>
+        <v>-0.13969510185807</v>
       </c>
       <c r="M133">
-        <v>0.107523994757716</v>
+        <v>0.716022724480239</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6366,40 +6363,40 @@
         <v>138</v>
       </c>
       <c r="B134">
-        <v>0.117556468172485</v>
+        <v>0.101972303818716</v>
       </c>
       <c r="C134">
-        <v>0.0289185489390828</v>
+        <v>0.0302140159462862</v>
       </c>
       <c r="D134">
-        <v>0.187029431895962</v>
+        <v>0.170373478808225</v>
       </c>
       <c r="E134">
-        <v>12.5407725321888</v>
+        <v>12.7774798927614</v>
       </c>
       <c r="F134">
-        <v>0.0116358658453114</v>
+        <v>0.00629458665547629</v>
       </c>
       <c r="G134">
-        <v>0.00444900752908966</v>
+        <v>0.00482584976919849</v>
       </c>
       <c r="H134">
-        <v>0.301756876404598</v>
+        <v>0.783224489277892</v>
       </c>
       <c r="I134">
-        <v>0.239410550825683</v>
+        <v>-0.596668413674591</v>
       </c>
       <c r="J134">
-        <v>-0.407502307788591</v>
+        <v>0.16708631834861</v>
       </c>
       <c r="K134">
-        <v>-0.365231321811835</v>
+        <v>-0.0440857743286307</v>
       </c>
       <c r="L134">
-        <v>-0.515062570554694</v>
+        <v>-0.00453881800979242</v>
       </c>
       <c r="M134">
-        <v>0.535615416902862</v>
+        <v>0.0257722597390803</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6407,40 +6404,40 @@
         <v>139</v>
       </c>
       <c r="B135">
-        <v>0.101972303818716</v>
+        <v>0.145178382197103</v>
       </c>
       <c r="C135">
-        <v>0.0302140159462862</v>
+        <v>0.033910279053338</v>
       </c>
       <c r="D135">
-        <v>0.170373478808225</v>
+        <v>0.21299894030378</v>
       </c>
       <c r="E135">
-        <v>12.7774798927614</v>
+        <v>10.4080882352941</v>
       </c>
       <c r="F135">
-        <v>0.00629458665547629</v>
+        <v>0.00777110561638997</v>
       </c>
       <c r="G135">
-        <v>0.00482584976919849</v>
+        <v>0.00423878488166726</v>
       </c>
       <c r="H135">
-        <v>0.805749372164648</v>
+        <v>0.400936952595989</v>
       </c>
       <c r="I135">
-        <v>-0.571536003354938</v>
+        <v>0.325924402840961</v>
       </c>
       <c r="J135">
-        <v>0.138717237518637</v>
+        <v>-0.490627277028549</v>
       </c>
       <c r="K135">
-        <v>0.0225566088710142</v>
+        <v>0.0963230214525419</v>
       </c>
       <c r="L135">
-        <v>0.0111525138630318</v>
+        <v>-0.427474480353373</v>
       </c>
       <c r="M135">
-        <v>0.0651067966598909</v>
+        <v>-0.547991936889789</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6448,40 +6445,40 @@
         <v>140</v>
       </c>
       <c r="B136">
-        <v>0.145178382197103</v>
+        <v>0.0906923950056754</v>
       </c>
       <c r="C136">
-        <v>0.033910279053338</v>
+        <v>0.0237230419977299</v>
       </c>
       <c r="D136">
-        <v>0.21299894030378</v>
+        <v>0.151986379114642</v>
       </c>
       <c r="E136">
-        <v>10.4080882352941</v>
+        <v>9.72406181015453</v>
       </c>
       <c r="F136">
-        <v>0.00777110561638997</v>
+        <v>0.00828603859250851</v>
       </c>
       <c r="G136">
-        <v>0.00423878488166726</v>
+        <v>0.00283768444948922</v>
       </c>
       <c r="H136">
-        <v>0.448428764054287</v>
+        <v>0.562828676806693</v>
       </c>
       <c r="I136">
-        <v>0.687027221751484</v>
+        <v>0.309070212369002</v>
       </c>
       <c r="J136">
-        <v>-0.38690792477419</v>
+        <v>-0.169763781156956</v>
       </c>
       <c r="K136">
-        <v>-0.158034600464745</v>
+        <v>0.246258267571663</v>
       </c>
       <c r="L136">
-        <v>0.129289307742091</v>
+        <v>-0.122667965302018</v>
       </c>
       <c r="M136">
-        <v>-0.368126116769283</v>
+        <v>0.695118104309452</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6489,40 +6486,40 @@
         <v>141</v>
       </c>
       <c r="B137">
-        <v>0.0906923950056754</v>
+        <v>0.0870164160257146</v>
       </c>
       <c r="C137">
-        <v>0.0237230419977299</v>
+        <v>0.0270921822982436</v>
       </c>
       <c r="D137">
-        <v>0.151986379114642</v>
+        <v>0.149466192170818</v>
       </c>
       <c r="E137">
-        <v>9.72406181015453</v>
+        <v>12.8480825958702</v>
       </c>
       <c r="F137">
-        <v>0.00828603859250851</v>
+        <v>0.00252554241763288</v>
       </c>
       <c r="G137">
-        <v>0.00283768444948922</v>
+        <v>0.00332912409597061</v>
       </c>
       <c r="H137">
-        <v>0.350516811583603</v>
+        <v>0.501998883554699</v>
       </c>
       <c r="I137">
-        <v>0.199062282086158</v>
+        <v>0.235565163346792</v>
       </c>
       <c r="J137">
-        <v>-0.356146618454694</v>
+        <v>-0.631080204554444</v>
       </c>
       <c r="K137">
-        <v>0.382332994508669</v>
+        <v>0.0286250905108852</v>
       </c>
       <c r="L137">
-        <v>-0.0196451825341354</v>
+        <v>-0.490207925872585</v>
       </c>
       <c r="M137">
-        <v>-0.75107077357892</v>
+        <v>0.230479378148453</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6530,40 +6527,40 @@
         <v>142</v>
       </c>
       <c r="B138">
-        <v>0.0870164160257146</v>
+        <v>0.134419152276295</v>
       </c>
       <c r="C138">
-        <v>0.0270921822982436</v>
+        <v>0.0306122448979592</v>
       </c>
       <c r="D138">
-        <v>0.149466192170818</v>
+        <v>0.205259026687598</v>
       </c>
       <c r="E138">
-        <v>12.8480825958702</v>
+        <v>11.4774774774775</v>
       </c>
       <c r="F138">
-        <v>0.00252554241763288</v>
+        <v>0.00451334379905808</v>
       </c>
       <c r="G138">
-        <v>0.00332912409597061</v>
+        <v>0.00529827315541601</v>
       </c>
       <c r="H138">
-        <v>0.479277199235611</v>
+        <v>0.472718817265006</v>
       </c>
       <c r="I138">
-        <v>0.317804577683414</v>
+        <v>0.269041963792556</v>
       </c>
       <c r="J138">
-        <v>-0.312521890708278</v>
+        <v>-0.0515106430001379</v>
       </c>
       <c r="K138">
-        <v>-0.085773229337667</v>
+        <v>0.235437070152288</v>
       </c>
       <c r="L138">
-        <v>0.549757247275081</v>
+        <v>0.271603575636251</v>
       </c>
       <c r="M138">
-        <v>0.511892182712308</v>
+        <v>-0.756505703137552</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6571,40 +6568,40 @@
         <v>143</v>
       </c>
       <c r="B139">
-        <v>0.134419152276295</v>
+        <v>0.138394080570019</v>
       </c>
       <c r="C139">
-        <v>0.0306122448979592</v>
+        <v>0.0298711975883804</v>
       </c>
       <c r="D139">
-        <v>0.205259026687598</v>
+        <v>0.206083858591395</v>
       </c>
       <c r="E139">
-        <v>11.4774774774775</v>
+        <v>13.718045112782</v>
       </c>
       <c r="F139">
-        <v>0.00451334379905808</v>
+        <v>0.00219238147437654</v>
       </c>
       <c r="G139">
-        <v>0.00529827315541601</v>
+        <v>0.00301452452726774</v>
       </c>
       <c r="H139">
-        <v>0.673694595313048</v>
+        <v>0.37426901438572</v>
       </c>
       <c r="I139">
-        <v>0.161599856376625</v>
+        <v>0.132062649551509</v>
       </c>
       <c r="J139">
-        <v>-0.292108900037502</v>
+        <v>-0.610059351338605</v>
       </c>
       <c r="K139">
-        <v>-0.111566184130038</v>
+        <v>-0.394106627240441</v>
       </c>
       <c r="L139">
-        <v>-0.619175359271789</v>
+        <v>-0.430803469283708</v>
       </c>
       <c r="M139">
-        <v>-0.197150526789145</v>
+        <v>0.359719455307583</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6612,40 +6609,40 @@
         <v>144</v>
       </c>
       <c r="B140">
-        <v>0.138394080570019</v>
+        <v>0.0941873867940063</v>
       </c>
       <c r="C140">
-        <v>0.0298711975883804</v>
+        <v>0.0230528569076239</v>
       </c>
       <c r="D140">
-        <v>0.206083858591395</v>
+        <v>0.15527745759921</v>
       </c>
       <c r="E140">
-        <v>13.718045112782</v>
+        <v>9.20151515151515</v>
       </c>
       <c r="F140">
-        <v>0.00219238147437654</v>
+        <v>0.00230528569076239</v>
       </c>
       <c r="G140">
-        <v>0.00301452452726774</v>
+        <v>0.0044459081178989</v>
       </c>
       <c r="H140">
-        <v>0.457122643637034</v>
+        <v>0.308696156657047</v>
       </c>
       <c r="I140">
-        <v>0.672728725766653</v>
+        <v>0.102857292202845</v>
       </c>
       <c r="J140">
-        <v>-0.31711564206977</v>
+        <v>-0.226329546102964</v>
       </c>
       <c r="K140">
-        <v>0.0274659162075118</v>
+        <v>-0.240991013462097</v>
       </c>
       <c r="L140">
-        <v>-0.414854180148324</v>
+        <v>-0.711008228927633</v>
       </c>
       <c r="M140">
-        <v>0.255057351232396</v>
+        <v>-0.528481434578733</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6653,40 +6650,40 @@
         <v>145</v>
       </c>
       <c r="B141">
-        <v>0.0941873867940063</v>
+        <v>0.117315284827975</v>
       </c>
       <c r="C141">
-        <v>0.0230528569076239</v>
+        <v>0.0315848843767626</v>
       </c>
       <c r="D141">
-        <v>0.15527745759921</v>
+        <v>0.183869148336153</v>
       </c>
       <c r="E141">
-        <v>9.20151515151515</v>
+        <v>12.4859154929577</v>
       </c>
       <c r="F141">
-        <v>0.00230528569076239</v>
+        <v>0.0050761421319797</v>
       </c>
       <c r="G141">
-        <v>0.0044459081178989</v>
+        <v>0.00526414739612709</v>
       </c>
       <c r="H141">
-        <v>0.51251709501515</v>
+        <v>0.550108237375236</v>
       </c>
       <c r="I141">
-        <v>0.545972433654946</v>
+        <v>0.545711255441786</v>
       </c>
       <c r="J141">
-        <v>0.417804519804321</v>
+        <v>0.0857171058287543</v>
       </c>
       <c r="K141">
-        <v>0.0878431010977929</v>
+        <v>-0.339544986936955</v>
       </c>
       <c r="L141">
-        <v>0.457045107191839</v>
+        <v>-0.14135320712161</v>
       </c>
       <c r="M141">
-        <v>-0.219255722430978</v>
+        <v>-0.506913408095329</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6694,40 +6691,40 @@
         <v>146</v>
       </c>
       <c r="B142">
-        <v>0.117315284827975</v>
+        <v>0.141216216216216</v>
       </c>
       <c r="C142">
-        <v>0.0315848843767626</v>
+        <v>0.0320945945945946</v>
       </c>
       <c r="D142">
-        <v>0.183869148336153</v>
+        <v>0.209797297297297</v>
       </c>
       <c r="E142">
-        <v>12.4859154929577</v>
+        <v>14.5098039215686</v>
       </c>
       <c r="F142">
-        <v>0.0050761421319797</v>
+        <v>0.00743243243243243</v>
       </c>
       <c r="G142">
-        <v>0.00526414739612709</v>
+        <v>0.00304054054054054</v>
       </c>
       <c r="H142">
-        <v>0.360592053768792</v>
+        <v>0.242930030305888</v>
       </c>
       <c r="I142">
-        <v>0.489789239065463</v>
+        <v>0.27632615033086</v>
       </c>
       <c r="J142">
-        <v>-0.24311882249408</v>
+        <v>-0.166386508804046</v>
       </c>
       <c r="K142">
-        <v>0.235055899300865</v>
+        <v>-0.0717950318895519</v>
       </c>
       <c r="L142">
-        <v>-0.0557102718654891</v>
+        <v>-0.87398233645612</v>
       </c>
       <c r="M142">
-        <v>-0.715973602876605</v>
+        <v>-0.260662113982043</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6735,40 +6732,40 @@
         <v>147</v>
       </c>
       <c r="B143">
-        <v>0.141216216216216</v>
+        <v>0.149920886075949</v>
       </c>
       <c r="C143">
-        <v>0.0320945945945946</v>
+        <v>0.0245253164556962</v>
       </c>
       <c r="D143">
-        <v>0.209797297297297</v>
+        <v>0.206487341772152</v>
       </c>
       <c r="E143">
-        <v>14.5098039215686</v>
+        <v>10.3183673469388</v>
       </c>
       <c r="F143">
-        <v>0.00743243243243243</v>
+        <v>0.00988924050632911</v>
       </c>
       <c r="G143">
-        <v>0.00304054054054054</v>
+        <v>0.00632911392405063</v>
       </c>
       <c r="H143">
-        <v>0.427616274112845</v>
+        <v>0.315728054385888</v>
       </c>
       <c r="I143">
-        <v>0.479095283257808</v>
+        <v>0.605220269388857</v>
       </c>
       <c r="J143">
-        <v>0.1243704531396</v>
+        <v>0.727257219436171</v>
       </c>
       <c r="K143">
-        <v>-0.234203854406835</v>
+        <v>0.0426071575807656</v>
       </c>
       <c r="L143">
-        <v>-0.172630739306174</v>
+        <v>0.0093937291057304</v>
       </c>
       <c r="M143">
-        <v>-0.698205703562643</v>
+        <v>0.0567234162311039</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6776,40 +6773,40 @@
         <v>148</v>
       </c>
       <c r="B144">
-        <v>0.149920886075949</v>
+        <v>0.114590128288758</v>
       </c>
       <c r="C144">
-        <v>0.0245253164556962</v>
+        <v>0.0256577516851489</v>
       </c>
       <c r="D144">
-        <v>0.206487341772152</v>
+        <v>0.178082191780822</v>
       </c>
       <c r="E144">
-        <v>10.3183673469388</v>
+        <v>11.5263157894737</v>
       </c>
       <c r="F144">
-        <v>0.00988924050632911</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="G144">
-        <v>0.00632911392405063</v>
+        <v>0.00282670145683844</v>
       </c>
       <c r="H144">
-        <v>0.312537881580919</v>
+        <v>0.397598111701605</v>
       </c>
       <c r="I144">
-        <v>0.587355332713654</v>
+        <v>0.144157713204923</v>
       </c>
       <c r="J144">
-        <v>0.731198701850514</v>
+        <v>0.0244857147118865</v>
       </c>
       <c r="K144">
-        <v>0.131249904206786</v>
+        <v>0.530968335640612</v>
       </c>
       <c r="L144">
-        <v>0.0602588214068167</v>
+        <v>-0.713004346371014</v>
       </c>
       <c r="M144">
-        <v>-0.0427151168819463</v>
+        <v>-0.173874016670045</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6817,40 +6814,40 @@
         <v>149</v>
       </c>
       <c r="B145">
-        <v>0.114590128288758</v>
+        <v>0.113441852659842</v>
       </c>
       <c r="C145">
-        <v>0.0256577516851489</v>
+        <v>0.0332270515187112</v>
       </c>
       <c r="D145">
-        <v>0.178082191780822</v>
+        <v>0.185601611008558</v>
       </c>
       <c r="E145">
-        <v>11.5263157894737</v>
+        <v>13.3910112359551</v>
       </c>
       <c r="F145">
-        <v>0.0045662100456621</v>
+        <v>0.00520221513676791</v>
       </c>
       <c r="G145">
-        <v>0.00282670145683844</v>
+        <v>0.00453096157073334</v>
       </c>
       <c r="H145">
-        <v>0.358165977339708</v>
+        <v>0.191899120484364</v>
       </c>
       <c r="I145">
-        <v>0.346240926049936</v>
+        <v>0.178523155066655</v>
       </c>
       <c r="J145">
-        <v>-0.2627126129791</v>
+        <v>-0.0921804734718967</v>
       </c>
       <c r="K145">
-        <v>-0.00101994040421374</v>
+        <v>-0.160396447219066</v>
       </c>
       <c r="L145">
-        <v>-0.817714569624061</v>
+        <v>-0.940057151824714</v>
       </c>
       <c r="M145">
-        <v>-0.118988567233058</v>
+        <v>-0.115639534743006</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6858,40 +6855,40 @@
         <v>150</v>
       </c>
       <c r="B146">
-        <v>0.113441852659842</v>
+        <v>0.105871212121212</v>
       </c>
       <c r="C146">
-        <v>0.0332270515187112</v>
+        <v>0.0244318181818182</v>
       </c>
       <c r="D146">
-        <v>0.185601611008558</v>
+        <v>0.172916666666667</v>
       </c>
       <c r="E146">
-        <v>13.3910112359551</v>
+        <v>15.6213017751479</v>
       </c>
       <c r="F146">
-        <v>0.00520221513676791</v>
+        <v>0.00473484848484848</v>
       </c>
       <c r="G146">
-        <v>0.00453096157073334</v>
+        <v>0.00284090909090909</v>
       </c>
       <c r="H146">
-        <v>0.391179642872296</v>
+        <v>0.46340674049737</v>
       </c>
       <c r="I146">
-        <v>0.347919679331328</v>
+        <v>0.362125990105455</v>
       </c>
       <c r="J146">
-        <v>0.213486518104226</v>
+        <v>-0.0430536266116805</v>
       </c>
       <c r="K146">
-        <v>-0.208469643271615</v>
+        <v>-0.411020489885158</v>
       </c>
       <c r="L146">
-        <v>-0.161584878268579</v>
+        <v>-0.691897360117599</v>
       </c>
       <c r="M146">
-        <v>-0.781527111028886</v>
+        <v>-0.067864168337872</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6899,40 +6896,40 @@
         <v>151</v>
       </c>
       <c r="B147">
-        <v>0.105871212121212</v>
+        <v>0.0940772532188841</v>
       </c>
       <c r="C147">
-        <v>0.0244318181818182</v>
+        <v>0.0250643776824034</v>
       </c>
       <c r="D147">
-        <v>0.172916666666667</v>
+        <v>0.15381974248927</v>
       </c>
       <c r="E147">
-        <v>15.6213017751479</v>
+        <v>11.4665354330709</v>
       </c>
       <c r="F147">
-        <v>0.00473484848484848</v>
+        <v>0.00394849785407725</v>
       </c>
       <c r="G147">
-        <v>0.00284090909090909</v>
+        <v>0.00515021459227468</v>
       </c>
       <c r="H147">
-        <v>0.214484222163842</v>
+        <v>0.539884872370706</v>
       </c>
       <c r="I147">
-        <v>0.179085746964529</v>
+        <v>0.531301775288952</v>
       </c>
       <c r="J147">
-        <v>-0.427496761667826</v>
+        <v>-0.544694181064003</v>
       </c>
       <c r="K147">
-        <v>-0.377353577185592</v>
+        <v>0.235262552993278</v>
       </c>
       <c r="L147">
-        <v>0.379756594562886</v>
+        <v>-0.0637546371865463</v>
       </c>
       <c r="M147">
-        <v>-0.672726199216062</v>
+        <v>-0.264835561568658</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6940,40 +6937,40 @@
         <v>152</v>
       </c>
       <c r="B148">
-        <v>0.0940772532188841</v>
+        <v>0.0791453910239183</v>
       </c>
       <c r="C148">
-        <v>0.0250643776824034</v>
+        <v>0.0209621069604945</v>
       </c>
       <c r="D148">
-        <v>0.15381974248927</v>
+        <v>0.136119322762698</v>
       </c>
       <c r="E148">
-        <v>11.4665354330709</v>
+        <v>10.0296495956873</v>
       </c>
       <c r="F148">
-        <v>0.00394849785407725</v>
+        <v>0.000940607363611932</v>
       </c>
       <c r="G148">
-        <v>0.00515021459227468</v>
+        <v>0.0055092717011556</v>
       </c>
       <c r="H148">
-        <v>0.611739063021051</v>
+        <v>0.584957974928141</v>
       </c>
       <c r="I148">
-        <v>-0.162840789599371</v>
+        <v>0.351761569261282</v>
       </c>
       <c r="J148">
-        <v>-0.0766310813891419</v>
+        <v>0.0173964168024127</v>
       </c>
       <c r="K148">
-        <v>-0.17064917510859</v>
+        <v>0.101098450485679</v>
       </c>
       <c r="L148">
-        <v>0.354886900167906</v>
+        <v>-0.0433207023789118</v>
       </c>
       <c r="M148">
-        <v>-0.662057414810742</v>
+        <v>-0.722279551625296</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6981,40 +6978,40 @@
         <v>153</v>
       </c>
       <c r="B149">
-        <v>0.0791453910239183</v>
+        <v>0.0811688311688312</v>
       </c>
       <c r="C149">
-        <v>0.0209621069604945</v>
+        <v>0.024043524043524</v>
       </c>
       <c r="D149">
-        <v>0.136119322762698</v>
+        <v>0.138206388206388</v>
       </c>
       <c r="E149">
-        <v>10.0296495956873</v>
+        <v>11.373253493014</v>
       </c>
       <c r="F149">
-        <v>0.000940607363611932</v>
+        <v>0.00412425412425412</v>
       </c>
       <c r="G149">
-        <v>0.0055092717011556</v>
+        <v>0.00482625482625483</v>
       </c>
       <c r="H149">
-        <v>0.508576354084056</v>
+        <v>0.396735499120442</v>
       </c>
       <c r="I149">
-        <v>0.244815025158741</v>
+        <v>0.25383849303242</v>
       </c>
       <c r="J149">
-        <v>-0.229733641195498</v>
+        <v>-0.515539813324997</v>
       </c>
       <c r="K149">
-        <v>-0.0490823247158332</v>
+        <v>-0.20344052945835</v>
       </c>
       <c r="L149">
-        <v>0.0586411648671894</v>
+        <v>-0.501138512279568</v>
       </c>
       <c r="M149">
-        <v>-0.789170633519559</v>
+        <v>-0.46888997275847</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7022,40 +7019,40 @@
         <v>154</v>
       </c>
       <c r="B150">
-        <v>0.0811688311688312</v>
+        <v>0.0942293644996348</v>
       </c>
       <c r="C150">
-        <v>0.024043524043524</v>
+        <v>0.0277574872169467</v>
       </c>
       <c r="D150">
-        <v>0.138206388206388</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="E150">
-        <v>11.373253493014</v>
+        <v>9.14699331848552</v>
       </c>
       <c r="F150">
-        <v>0.00412425412425412</v>
+        <v>0.00852203554906258</v>
       </c>
       <c r="G150">
-        <v>0.00482625482625483</v>
+        <v>0.00633065497930363</v>
       </c>
       <c r="H150">
-        <v>0.885487557761584</v>
+        <v>0.504395151944109</v>
       </c>
       <c r="I150">
-        <v>0.303935232279556</v>
+        <v>0.451555404951638</v>
       </c>
       <c r="J150">
-        <v>0.194985849686465</v>
+        <v>-0.510496002441801</v>
       </c>
       <c r="K150">
-        <v>0.193569323340218</v>
+        <v>-0.0609880339274309</v>
       </c>
       <c r="L150">
-        <v>0.204472827599462</v>
+        <v>-0.372098822121965</v>
       </c>
       <c r="M150">
-        <v>0.0789775783734561</v>
+        <v>-0.37269290942852</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7063,40 +7060,40 @@
         <v>155</v>
       </c>
       <c r="B151">
-        <v>0.0942293644996348</v>
+        <v>0.123126338329764</v>
       </c>
       <c r="C151">
-        <v>0.0277574872169467</v>
+        <v>0.0276588151320485</v>
       </c>
       <c r="D151">
-        <v>0.162162162162162</v>
+        <v>0.189150606709493</v>
       </c>
       <c r="E151">
-        <v>9.14699331848552</v>
+        <v>9.69550173010381</v>
       </c>
       <c r="F151">
-        <v>0.00852203554906258</v>
+        <v>0.00517487508922198</v>
       </c>
       <c r="G151">
-        <v>0.00633065497930363</v>
+        <v>0.00392576730906495</v>
       </c>
       <c r="H151">
-        <v>0.414322967635573</v>
+        <v>0.444062751823561</v>
       </c>
       <c r="I151">
-        <v>0.415815918863307</v>
+        <v>0.232713754708874</v>
       </c>
       <c r="J151">
-        <v>-0.402293589662737</v>
+        <v>-0.120689470119814</v>
       </c>
       <c r="K151">
-        <v>-0.266576500911057</v>
+        <v>-0.498689049479831</v>
       </c>
       <c r="L151">
-        <v>-0.382876048758031</v>
+        <v>-0.694852093313933</v>
       </c>
       <c r="M151">
-        <v>-0.525296457512557</v>
+        <v>-0.0507585752413542</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7104,40 +7101,40 @@
         <v>156</v>
       </c>
       <c r="B152">
-        <v>0.123126338329764</v>
+        <v>0.0964217859404687</v>
       </c>
       <c r="C152">
-        <v>0.0276588151320485</v>
+        <v>0.025649145028499</v>
       </c>
       <c r="D152">
-        <v>0.189150606709493</v>
+        <v>0.161811272957568</v>
       </c>
       <c r="E152">
-        <v>9.69550173010381</v>
+        <v>12.632</v>
       </c>
       <c r="F152">
-        <v>0.00517487508922198</v>
+        <v>0.00316656111462951</v>
       </c>
       <c r="G152">
-        <v>0.00392576730906495</v>
+        <v>0.0058581380620646</v>
       </c>
       <c r="H152">
-        <v>0.356704044439757</v>
+        <v>0.239434662990552</v>
       </c>
       <c r="I152">
-        <v>0.426899794123223</v>
+        <v>0.279388027673586</v>
       </c>
       <c r="J152">
-        <v>-0.557410350921743</v>
+        <v>-0.42910363243312</v>
       </c>
       <c r="K152">
-        <v>0.165845044550637</v>
+        <v>-0.297464328856798</v>
       </c>
       <c r="L152">
-        <v>-0.3256326133834</v>
+        <v>-0.104381017101664</v>
       </c>
       <c r="M152">
-        <v>-0.496257305681501</v>
+        <v>0.762301135451445</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7145,40 +7142,40 @@
         <v>157</v>
       </c>
       <c r="B153">
-        <v>0.0964217859404687</v>
+        <v>0.153945001285017</v>
       </c>
       <c r="C153">
-        <v>0.025649145028499</v>
+        <v>0.034952454381907</v>
       </c>
       <c r="D153">
-        <v>0.161811272957568</v>
+        <v>0.226933950141352</v>
       </c>
       <c r="E153">
-        <v>12.632</v>
+        <v>12.5516129032258</v>
       </c>
       <c r="F153">
-        <v>0.00316656111462951</v>
+        <v>0.000771010023130301</v>
       </c>
       <c r="G153">
-        <v>0.0058581380620646</v>
+        <v>0.00436905679773837</v>
       </c>
       <c r="H153">
-        <v>0.291798828697016</v>
+        <v>0.624513121094428</v>
       </c>
       <c r="I153">
-        <v>0.269768049114131</v>
+        <v>0.297826990667881</v>
       </c>
       <c r="J153">
-        <v>-0.387025857308314</v>
+        <v>0.222626464902203</v>
       </c>
       <c r="K153">
-        <v>-0.365552449075535</v>
+        <v>-0.183677425479921</v>
       </c>
       <c r="L153">
-        <v>-0.4229214311547</v>
+        <v>0.654484813951442</v>
       </c>
       <c r="M153">
-        <v>0.616277939786837</v>
+        <v>-0.0981434359077205</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7186,40 +7183,40 @@
         <v>158</v>
       </c>
       <c r="B154">
-        <v>0.153945001285017</v>
+        <v>0.110001447387466</v>
       </c>
       <c r="C154">
-        <v>0.034952454381907</v>
+        <v>0.0311188305109278</v>
       </c>
       <c r="D154">
-        <v>0.226933950141352</v>
+        <v>0.176581270806195</v>
       </c>
       <c r="E154">
-        <v>12.5516129032258</v>
+        <v>9.45143638850889</v>
       </c>
       <c r="F154">
-        <v>0.000771010023130301</v>
+        <v>0.00593428860906065</v>
       </c>
       <c r="G154">
-        <v>0.00436905679773837</v>
+        <v>0.00434216239687364</v>
       </c>
       <c r="H154">
-        <v>0.429867652634531</v>
+        <v>0.392973832611629</v>
       </c>
       <c r="I154">
-        <v>0.128526334698187</v>
+        <v>0.239115746432669</v>
       </c>
       <c r="J154">
-        <v>-0.284091133799518</v>
+        <v>0.0461474483442413</v>
       </c>
       <c r="K154">
-        <v>0.315828108256043</v>
+        <v>0.342771031270493</v>
       </c>
       <c r="L154">
-        <v>-0.0772454863582455</v>
+        <v>-0.483607591406899</v>
       </c>
       <c r="M154">
-        <v>-0.782478594644428</v>
+        <v>-0.659467480136186</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7227,40 +7224,40 @@
         <v>159</v>
       </c>
       <c r="B155">
-        <v>0.110001447387466</v>
+        <v>0.0914803448779775</v>
       </c>
       <c r="C155">
-        <v>0.0311188305109278</v>
+        <v>0.0195820546543913</v>
       </c>
       <c r="D155">
-        <v>0.176581270806195</v>
+        <v>0.146573140435482</v>
       </c>
       <c r="E155">
-        <v>9.45143638850889</v>
+        <v>10.5601851851852</v>
       </c>
       <c r="F155">
-        <v>0.00593428860906065</v>
+        <v>0.00306882946076282</v>
       </c>
       <c r="G155">
-        <v>0.00434216239687364</v>
+        <v>0.00453017682303083</v>
       </c>
       <c r="H155">
-        <v>0.546080296397843</v>
+        <v>0.272005590264813</v>
       </c>
       <c r="I155">
-        <v>0.394347309661622</v>
+        <v>0.239146273184202</v>
       </c>
       <c r="J155">
-        <v>-0.48342352677293</v>
+        <v>-0.325315306609447</v>
       </c>
       <c r="K155">
-        <v>-0.187940671626251</v>
+        <v>0.855904722202484</v>
       </c>
       <c r="L155">
-        <v>0.486225059050408</v>
+        <v>0.101764699351895</v>
       </c>
       <c r="M155">
-        <v>-0.202118032127781</v>
+        <v>0.14164399969539</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7268,40 +7265,40 @@
         <v>160</v>
       </c>
       <c r="B156">
-        <v>0.0914803448779775</v>
+        <v>0.12359292441994</v>
       </c>
       <c r="C156">
-        <v>0.0195820546543913</v>
+        <v>0.0232023891569033</v>
       </c>
       <c r="D156">
-        <v>0.146573140435482</v>
+        <v>0.182862393751436</v>
       </c>
       <c r="E156">
-        <v>10.5601851851852</v>
+        <v>11.6390374331551</v>
       </c>
       <c r="F156">
-        <v>0.00306882946076282</v>
+        <v>0.00252699287847462</v>
       </c>
       <c r="G156">
-        <v>0.00453017682303083</v>
+        <v>0.00413507925568573</v>
       </c>
       <c r="H156">
-        <v>0.227684240435033</v>
+        <v>0.23603467270197</v>
       </c>
       <c r="I156">
-        <v>0.175404792757431</v>
+        <v>0.279182590571575</v>
       </c>
       <c r="J156">
-        <v>-0.385581048139334</v>
+        <v>-0.792417091903525</v>
       </c>
       <c r="K156">
-        <v>0.868644833684006</v>
+        <v>-0.038668108135211</v>
       </c>
       <c r="L156">
-        <v>0.0940735149152209</v>
+        <v>-0.205752396857232</v>
       </c>
       <c r="M156">
-        <v>0.0729837472085271</v>
+        <v>-0.441124240395068</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7309,40 +7306,40 @@
         <v>161</v>
       </c>
       <c r="B157">
-        <v>0.12359292441994</v>
+        <v>0.130783758262512</v>
       </c>
       <c r="C157">
-        <v>0.0232023891569033</v>
+        <v>0.0280925401322002</v>
       </c>
       <c r="D157">
-        <v>0.182862393751436</v>
+        <v>0.198300283286119</v>
       </c>
       <c r="E157">
-        <v>11.6390374331551</v>
+        <v>12.6826347305389</v>
       </c>
       <c r="F157">
-        <v>0.00252699287847462</v>
+        <v>0.00188857412653447</v>
       </c>
       <c r="G157">
-        <v>0.00413507925568573</v>
+        <v>0.00236071765816808</v>
       </c>
       <c r="H157">
-        <v>0.170048993504211</v>
+        <v>0.416625278964751</v>
       </c>
       <c r="I157">
-        <v>0.115442267954852</v>
+        <v>0.239093164731456</v>
       </c>
       <c r="J157">
-        <v>-0.0317894830820121</v>
+        <v>-0.360187425191109</v>
       </c>
       <c r="K157">
-        <v>0.0199184208211602</v>
+        <v>-0.451655305302728</v>
       </c>
       <c r="L157">
-        <v>-0.0242044171386572</v>
+        <v>-0.552693929682822</v>
       </c>
       <c r="M157">
-        <v>-0.977631451031518</v>
+        <v>-0.360637989574169</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7350,40 +7347,40 @@
         <v>162</v>
       </c>
       <c r="B158">
-        <v>0.130783758262512</v>
+        <v>0.122753792298716</v>
       </c>
       <c r="C158">
-        <v>0.0280925401322002</v>
+        <v>0.0352392065344224</v>
       </c>
       <c r="D158">
-        <v>0.198300283286119</v>
+        <v>0.195332555425904</v>
       </c>
       <c r="E158">
-        <v>12.6826347305389</v>
+        <v>11.4879356568365</v>
       </c>
       <c r="F158">
-        <v>0.00188857412653447</v>
+        <v>0.00373395565927655</v>
       </c>
       <c r="G158">
-        <v>0.00236071765816808</v>
+        <v>0.00513418903150525</v>
       </c>
       <c r="H158">
-        <v>0.550333728340085</v>
+        <v>0.564179273260706</v>
       </c>
       <c r="I158">
-        <v>0.278724772410173</v>
+        <v>0.42987121242698</v>
       </c>
       <c r="J158">
-        <v>0.251330743429576</v>
+        <v>0.0453063349245342</v>
       </c>
       <c r="K158">
-        <v>-0.418923800692029</v>
+        <v>-0.308513535506093</v>
       </c>
       <c r="L158">
-        <v>0.140729229383841</v>
+        <v>-0.335364431252399</v>
       </c>
       <c r="M158">
-        <v>-0.600813015266906</v>
+        <v>-0.535919696433683</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7391,40 +7388,40 @@
         <v>163</v>
       </c>
       <c r="B159">
-        <v>0.122753792298716</v>
+        <v>0.125363434239781</v>
       </c>
       <c r="C159">
-        <v>0.0352392065344224</v>
+        <v>0.0333504361210877</v>
       </c>
       <c r="D159">
-        <v>0.195332555425904</v>
+        <v>0.199247477338806</v>
       </c>
       <c r="E159">
-        <v>11.4879356568365</v>
+        <v>14.9923076923077</v>
       </c>
       <c r="F159">
-        <v>0.00373395565927655</v>
+        <v>0.00615700359158543</v>
       </c>
       <c r="G159">
-        <v>0.00513418903150525</v>
+        <v>0.00290747391824867</v>
       </c>
       <c r="H159">
-        <v>0.666742908012206</v>
+        <v>0.497448827523004</v>
       </c>
       <c r="I159">
-        <v>0.540453748288843</v>
+        <v>0.400791574873567</v>
       </c>
       <c r="J159">
-        <v>-0.348511761416502</v>
+        <v>-0.513885390178294</v>
       </c>
       <c r="K159">
-        <v>-0.183801417939397</v>
+        <v>-0.543673223330468</v>
       </c>
       <c r="L159">
-        <v>0.0293419175136975</v>
+        <v>-0.179245375081663</v>
       </c>
       <c r="M159">
-        <v>-0.327504631067134</v>
+        <v>0.0110952698457707</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7432,40 +7429,40 @@
         <v>164</v>
       </c>
       <c r="B160">
-        <v>0.125363434239781</v>
+        <v>0.091229554427524</v>
       </c>
       <c r="C160">
-        <v>0.0333504361210877</v>
+        <v>0.0236886632825719</v>
       </c>
       <c r="D160">
-        <v>0.199247477338806</v>
+        <v>0.148054145516074</v>
       </c>
       <c r="E160">
-        <v>14.9923076923077</v>
+        <v>8.07744874715262</v>
       </c>
       <c r="F160">
-        <v>0.00615700359158543</v>
+        <v>0.00296108291032149</v>
       </c>
       <c r="G160">
-        <v>0.00290747391824867</v>
+        <v>0.0047941342357586</v>
       </c>
       <c r="H160">
-        <v>0.386433594678273</v>
+        <v>0.215277997226587</v>
       </c>
       <c r="I160">
-        <v>0.287233292628994</v>
+        <v>0.313094346591192</v>
       </c>
       <c r="J160">
-        <v>-0.394356867724364</v>
+        <v>-0.278335090778218</v>
       </c>
       <c r="K160">
-        <v>-0.351319148227055</v>
+        <v>-0.243636840799586</v>
       </c>
       <c r="L160">
-        <v>-0.441735642763709</v>
+        <v>-0.407467232946344</v>
       </c>
       <c r="M160">
-        <v>-0.542303652384264</v>
+        <v>-0.743483984470729</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7473,40 +7470,40 @@
         <v>165</v>
       </c>
       <c r="B161">
-        <v>0.091229554427524</v>
+        <v>0.1425</v>
       </c>
       <c r="C161">
-        <v>0.0236886632825719</v>
+        <v>0.0342857142857143</v>
       </c>
       <c r="D161">
-        <v>0.148054145516074</v>
+        <v>0.211428571428571</v>
       </c>
       <c r="E161">
-        <v>8.07744874715262</v>
+        <v>10.4477611940299</v>
       </c>
       <c r="F161">
-        <v>0.00296108291032149</v>
+        <v>0.000357142857142857</v>
       </c>
       <c r="G161">
-        <v>0.0047941342357586</v>
+        <v>0.00464285714285714</v>
       </c>
       <c r="H161">
-        <v>0.424231185204345</v>
+        <v>0.0740443740009917</v>
       </c>
       <c r="I161">
-        <v>0.615443821544792</v>
+        <v>0.127912576634785</v>
       </c>
       <c r="J161">
-        <v>-0.19950645181518</v>
+        <v>-0.0586793340676233</v>
       </c>
       <c r="K161">
-        <v>0.0971533129651382</v>
+        <v>0.0894094003983873</v>
       </c>
       <c r="L161">
-        <v>0.459179713218459</v>
+        <v>-0.532311777728003</v>
       </c>
       <c r="M161">
-        <v>-0.42563975901587</v>
+        <v>-0.826657528595298</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7514,40 +7511,40 @@
         <v>166</v>
       </c>
       <c r="B162">
-        <v>0.1425</v>
+        <v>0.0942441492726123</v>
       </c>
       <c r="C162">
-        <v>0.0342857142857143</v>
+        <v>0.0246679316888046</v>
       </c>
       <c r="D162">
-        <v>0.211428571428571</v>
+        <v>0.157495256166983</v>
       </c>
       <c r="E162">
-        <v>10.4477611940299</v>
+        <v>12.3515625</v>
       </c>
       <c r="F162">
-        <v>0.000357142857142857</v>
+        <v>0.00231920725279359</v>
       </c>
       <c r="G162">
-        <v>0.00464285714285714</v>
+        <v>0.00400590343664347</v>
       </c>
       <c r="H162">
-        <v>0.28459323680714</v>
+        <v>0.601283972969771</v>
       </c>
       <c r="I162">
-        <v>0.24460120580961</v>
+        <v>0.587464287155301</v>
       </c>
       <c r="J162">
-        <v>-0.341114792156488</v>
+        <v>-0.333478018995511</v>
       </c>
       <c r="K162">
-        <v>-0.11974748734791</v>
+        <v>-0.28002804911589</v>
       </c>
       <c r="L162">
-        <v>-0.0875109310135784</v>
+        <v>0.234531428771672</v>
       </c>
       <c r="M162">
-        <v>-0.849011198088197</v>
+        <v>0.220714763077368</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7555,40 +7552,40 @@
         <v>167</v>
       </c>
       <c r="B163">
-        <v>0.0942441492726123</v>
+        <v>0.0956043956043956</v>
       </c>
       <c r="C163">
-        <v>0.0246679316888046</v>
+        <v>0.0231990231990232</v>
       </c>
       <c r="D163">
-        <v>0.157495256166983</v>
+        <v>0.154456654456654</v>
       </c>
       <c r="E163">
-        <v>12.3515625</v>
+        <v>9.20224719101124</v>
       </c>
       <c r="F163">
-        <v>0.00231920725279359</v>
+        <v>0.00525030525030525</v>
       </c>
       <c r="G163">
-        <v>0.00400590343664347</v>
+        <v>0.00500610500610501</v>
       </c>
       <c r="H163">
-        <v>0.334702364179438</v>
+        <v>0.273362258641319</v>
       </c>
       <c r="I163">
-        <v>0.379148469793117</v>
+        <v>0.279132594860463</v>
       </c>
       <c r="J163">
-        <v>-0.0816613021284193</v>
+        <v>-0.287034923556723</v>
       </c>
       <c r="K163">
-        <v>-0.158840951579955</v>
+        <v>-0.496871248344147</v>
       </c>
       <c r="L163">
-        <v>-0.820831088049366</v>
+        <v>-0.66873791113236</v>
       </c>
       <c r="M163">
-        <v>-0.196362099178513</v>
+        <v>-0.266228457305045</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7596,40 +7593,40 @@
         <v>168</v>
       </c>
       <c r="B164">
-        <v>0.0956043956043956</v>
+        <v>0.114192495921697</v>
       </c>
       <c r="C164">
-        <v>0.0231990231990232</v>
+        <v>0.0293637846655791</v>
       </c>
       <c r="D164">
-        <v>0.154456654456654</v>
+        <v>0.180668841761827</v>
       </c>
       <c r="E164">
-        <v>9.20224719101124</v>
+        <v>10.3459915611814</v>
       </c>
       <c r="F164">
-        <v>0.00525030525030525</v>
+        <v>0.00224306688417618</v>
       </c>
       <c r="G164">
-        <v>0.00500610500610501</v>
+        <v>0.00407830342577488</v>
       </c>
       <c r="H164">
-        <v>0.414873486746068</v>
+        <v>0.327049950598938</v>
       </c>
       <c r="I164">
-        <v>0.503816963118825</v>
+        <v>0.377892027387043</v>
       </c>
       <c r="J164">
-        <v>-0.0748997107562111</v>
+        <v>-0.349484438971074</v>
       </c>
       <c r="K164">
-        <v>0.25305477465596</v>
+        <v>-0.0997491424090024</v>
       </c>
       <c r="L164">
-        <v>0.65516430936017</v>
+        <v>-0.0267120004777374</v>
       </c>
       <c r="M164">
-        <v>-0.274155977067715</v>
+        <v>-0.785769145478977</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7637,40 +7634,40 @@
         <v>169</v>
       </c>
       <c r="B165">
-        <v>0.114192495921697</v>
+        <v>0.116352201257862</v>
       </c>
       <c r="C165">
-        <v>0.0293637846655791</v>
+        <v>0.0303459119496855</v>
       </c>
       <c r="D165">
-        <v>0.180668841761827</v>
+        <v>0.185534591194969</v>
       </c>
       <c r="E165">
-        <v>10.3459915611814</v>
+        <v>11.7560073937153</v>
       </c>
       <c r="F165">
-        <v>0.00224306688417618</v>
+        <v>0.0133647798742138</v>
       </c>
       <c r="G165">
-        <v>0.00407830342577488</v>
+        <v>0.00283018867924528</v>
       </c>
       <c r="H165">
-        <v>0.194189964287537</v>
+        <v>0.472298609101303</v>
       </c>
       <c r="I165">
-        <v>0.430882092110182</v>
+        <v>0.611036990951746</v>
       </c>
       <c r="J165">
-        <v>-0.294647686547747</v>
+        <v>-0.4290784972135</v>
       </c>
       <c r="K165">
-        <v>0.121067810574152</v>
+        <v>-0.160441655802017</v>
       </c>
       <c r="L165">
-        <v>0.360158055992873</v>
+        <v>-0.330406011547271</v>
       </c>
       <c r="M165">
-        <v>-0.738540710609127</v>
+        <v>-0.290774492305544</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7678,40 +7675,40 @@
         <v>170</v>
       </c>
       <c r="B166">
-        <v>0.116352201257862</v>
+        <v>0.110410094637224</v>
       </c>
       <c r="C166">
-        <v>0.0303459119496855</v>
+        <v>0.0301437083771469</v>
       </c>
       <c r="D166">
-        <v>0.185534591194969</v>
+        <v>0.179226545157145</v>
       </c>
       <c r="E166">
-        <v>11.7560073937153</v>
+        <v>15.7045871559633</v>
       </c>
       <c r="F166">
-        <v>0.0133647798742138</v>
+        <v>0.00560813179109709</v>
       </c>
       <c r="G166">
-        <v>0.00283018867924528</v>
+        <v>0.0054912957121159</v>
       </c>
       <c r="H166">
-        <v>0.389089885347697</v>
+        <v>0.39476738039173</v>
       </c>
       <c r="I166">
-        <v>0.184154033218361</v>
+        <v>0.49852777223614</v>
       </c>
       <c r="J166">
-        <v>-0.223746414376424</v>
+        <v>-0.443177041736737</v>
       </c>
       <c r="K166">
-        <v>-0.282789503200837</v>
+        <v>-0.454278196057407</v>
       </c>
       <c r="L166">
-        <v>0.677653891639646</v>
+        <v>0.437301227352841</v>
       </c>
       <c r="M166">
-        <v>-0.474814906303801</v>
+        <v>-0.0402721058292735</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7719,40 +7716,40 @@
         <v>171</v>
       </c>
       <c r="B167">
-        <v>0.110410094637224</v>
+        <v>0.121383835371309</v>
       </c>
       <c r="C167">
-        <v>0.0301437083771469</v>
+        <v>0.0292275574112735</v>
       </c>
       <c r="D167">
-        <v>0.179226545157145</v>
+        <v>0.186101998210558</v>
       </c>
       <c r="E167">
-        <v>15.7045871559633</v>
+        <v>13.412</v>
       </c>
       <c r="F167">
-        <v>0.00560813179109709</v>
+        <v>0.000298240381747689</v>
       </c>
       <c r="G167">
-        <v>0.0054912957121159</v>
+        <v>0.00626304801670146</v>
       </c>
       <c r="H167">
-        <v>0.401974586926424</v>
+        <v>0.379085796450146</v>
       </c>
       <c r="I167">
-        <v>0.36444845869603</v>
+        <v>0.0888096799868316</v>
       </c>
       <c r="J167">
-        <v>-0.153709111029513</v>
+        <v>0.29133800526724</v>
       </c>
       <c r="K167">
-        <v>-0.232615900483311</v>
+        <v>0.00530036793808137</v>
       </c>
       <c r="L167">
-        <v>-0.789172124657188</v>
+        <v>-0.872055317649765</v>
       </c>
       <c r="M167">
-        <v>0.0711650343380392</v>
+        <v>0.0549581242018835</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7760,40 +7757,40 @@
         <v>172</v>
       </c>
       <c r="B168">
-        <v>0.121383835371309</v>
+        <v>0.0772420147420147</v>
       </c>
       <c r="C168">
-        <v>0.0292275574112735</v>
+        <v>0.0257985257985258</v>
       </c>
       <c r="D168">
-        <v>0.186101998210558</v>
+        <v>0.139434889434889</v>
       </c>
       <c r="E168">
-        <v>13.412</v>
+        <v>9.97243491577335</v>
       </c>
       <c r="F168">
-        <v>0.000298240381747689</v>
+        <v>0.00291769041769042</v>
       </c>
       <c r="G168">
-        <v>0.00626304801670146</v>
+        <v>0.00445331695331695</v>
       </c>
       <c r="H168">
-        <v>0.515114710412743</v>
+        <v>0.550668450670499</v>
       </c>
       <c r="I168">
-        <v>0.607896482911773</v>
+        <v>0.522081959936966</v>
       </c>
       <c r="J168">
-        <v>0.0573447434492066</v>
+        <v>0.0949527354531145</v>
       </c>
       <c r="K168">
-        <v>-0.028886154631061</v>
+        <v>-0.370892185102004</v>
       </c>
       <c r="L168">
-        <v>-0.255348240588369</v>
+        <v>-0.485556416971012</v>
       </c>
       <c r="M168">
-        <v>-0.543868686060975</v>
+        <v>-0.204579118052243</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7801,40 +7798,40 @@
         <v>173</v>
       </c>
       <c r="B169">
-        <v>0.0772420147420147</v>
+        <v>0.108573717948718</v>
       </c>
       <c r="C169">
-        <v>0.0257985257985258</v>
+        <v>0.0252403846153846</v>
       </c>
       <c r="D169">
-        <v>0.139434889434889</v>
+        <v>0.173878205128205</v>
       </c>
       <c r="E169">
-        <v>9.97243491577335</v>
+        <v>15.344262295082</v>
       </c>
       <c r="F169">
-        <v>0.00291769041769042</v>
+        <v>0.00614316239316239</v>
       </c>
       <c r="G169">
-        <v>0.00445331695331695</v>
+        <v>0.00547542735042735</v>
       </c>
       <c r="H169">
-        <v>0.40452097720929</v>
+        <v>0.422384623280824</v>
       </c>
       <c r="I169">
-        <v>0.244234643496679</v>
+        <v>0.414905973052285</v>
       </c>
       <c r="J169">
-        <v>0.0905480861770773</v>
+        <v>-0.533657363559209</v>
       </c>
       <c r="K169">
-        <v>0.0712020946945363</v>
+        <v>-0.547632265474248</v>
       </c>
       <c r="L169">
-        <v>0.833272732301855</v>
+        <v>0.253860946676447</v>
       </c>
       <c r="M169">
-        <v>0.262868935625096</v>
+        <v>-0.0175386266442788</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7842,40 +7839,40 @@
         <v>174</v>
       </c>
       <c r="B170">
-        <v>0.108573717948718</v>
+        <v>0.146076352067869</v>
       </c>
       <c r="C170">
-        <v>0.0252403846153846</v>
+        <v>0.0331389183457052</v>
       </c>
       <c r="D170">
-        <v>0.173878205128205</v>
+        <v>0.216065747613998</v>
       </c>
       <c r="E170">
-        <v>15.344262295082</v>
+        <v>12.8737201365188</v>
       </c>
       <c r="F170">
-        <v>0.00614316239316239</v>
+        <v>0.00583244962884411</v>
       </c>
       <c r="G170">
-        <v>0.00547542735042735</v>
+        <v>0.00397667020148462</v>
       </c>
       <c r="H170">
-        <v>0.384414623259169</v>
+        <v>0.322313718935461</v>
       </c>
       <c r="I170">
-        <v>0.261528748799868</v>
+        <v>0.234075302235558</v>
       </c>
       <c r="J170">
-        <v>-0.520541924137567</v>
+        <v>-0.422736329476577</v>
       </c>
       <c r="K170">
-        <v>-0.558159973911747</v>
+        <v>-0.619781456856372</v>
       </c>
       <c r="L170">
-        <v>-0.390120320675819</v>
+        <v>-0.101203775713419</v>
       </c>
       <c r="M170">
-        <v>0.221647907974517</v>
+        <v>-0.517924083943136</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7883,40 +7880,40 @@
         <v>175</v>
       </c>
       <c r="B171">
-        <v>0.146076352067869</v>
+        <v>0.21304347826087</v>
       </c>
       <c r="C171">
-        <v>0.0331389183457052</v>
+        <v>0.051304347826087</v>
       </c>
       <c r="D171">
-        <v>0.216065747613998</v>
+        <v>0.295652173913043</v>
       </c>
       <c r="E171">
-        <v>12.8737201365188</v>
+        <v>20.5357142857143</v>
       </c>
       <c r="F171">
-        <v>0.00583244962884411</v>
+        <v>0.00695652173913044</v>
       </c>
       <c r="G171">
-        <v>0.00397667020148462</v>
+        <v>0.00434782608695652</v>
       </c>
       <c r="H171">
-        <v>0.591219250974057</v>
+        <v>0.457052462110694</v>
       </c>
       <c r="I171">
-        <v>0.445187470302948</v>
+        <v>0.113453554201684</v>
       </c>
       <c r="J171">
-        <v>0.151626818565012</v>
+        <v>-0.349747231381489</v>
       </c>
       <c r="K171">
-        <v>-0.0412700997442213</v>
+        <v>-0.536639152527125</v>
       </c>
       <c r="L171">
-        <v>0.502194780075884</v>
+        <v>-0.0762049676273316</v>
       </c>
       <c r="M171">
-        <v>0.418777271573358</v>
+        <v>-0.601763603869848</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7924,40 +7921,40 @@
         <v>176</v>
       </c>
       <c r="B172">
-        <v>0.21304347826087</v>
+        <v>0.140137614678899</v>
       </c>
       <c r="C172">
-        <v>0.051304347826087</v>
+        <v>0.0321100917431193</v>
       </c>
       <c r="D172">
-        <v>0.295652173913043</v>
+        <v>0.211697247706422</v>
       </c>
       <c r="E172">
-        <v>20.5357142857143</v>
+        <v>15.2447552447552</v>
       </c>
       <c r="F172">
-        <v>0.00695652173913044</v>
+        <v>0.00389908256880734</v>
       </c>
       <c r="G172">
-        <v>0.00434782608695652</v>
+        <v>0.0055045871559633</v>
       </c>
       <c r="H172">
-        <v>0.509470467314264</v>
+        <v>0.544916592606829</v>
       </c>
       <c r="I172">
-        <v>0.367459612466124</v>
+        <v>0.264421777024054</v>
       </c>
       <c r="J172">
-        <v>-0.468406423876</v>
+        <v>-0.642075200536987</v>
       </c>
       <c r="K172">
-        <v>-0.0664955190985811</v>
+        <v>-0.318169175941417</v>
       </c>
       <c r="L172">
-        <v>0.49410581022377</v>
+        <v>0.222599602105259</v>
       </c>
       <c r="M172">
-        <v>-0.370737767775891</v>
+        <v>-0.264772091459678</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7965,40 +7962,40 @@
         <v>177</v>
       </c>
       <c r="B173">
-        <v>0.140137614678899</v>
+        <v>0.106706187476843</v>
       </c>
       <c r="C173">
-        <v>0.0321100917431193</v>
+        <v>0.0260590342102013</v>
       </c>
       <c r="D173">
-        <v>0.211697247706422</v>
+        <v>0.171792021736446</v>
       </c>
       <c r="E173">
-        <v>15.2447552447552</v>
+        <v>12.2867981790592</v>
       </c>
       <c r="F173">
-        <v>0.00389908256880734</v>
+        <v>0.0060516240582932</v>
       </c>
       <c r="G173">
-        <v>0.0055045871559633</v>
+        <v>0.00432258861306657</v>
       </c>
       <c r="H173">
-        <v>0.293134559204214</v>
+        <v>0.555152176207767</v>
       </c>
       <c r="I173">
-        <v>0.373792149427699</v>
+        <v>0.293235406440891</v>
       </c>
       <c r="J173">
-        <v>-0.145164361205436</v>
+        <v>0.0863145491724018</v>
       </c>
       <c r="K173">
-        <v>-0.315574018058376</v>
+        <v>-0.600902826376002</v>
       </c>
       <c r="L173">
-        <v>-0.0886788029688259</v>
+        <v>-0.435800912465534</v>
       </c>
       <c r="M173">
-        <v>-0.803634230538183</v>
+        <v>0.2176286153288</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -8006,40 +8003,40 @@
         <v>178</v>
       </c>
       <c r="B174">
-        <v>0.106706187476843</v>
+        <v>0.102218871176217</v>
       </c>
       <c r="C174">
-        <v>0.0260590342102013</v>
+        <v>0.0253123653597587</v>
       </c>
       <c r="D174">
-        <v>0.171792021736446</v>
+        <v>0.166092201637225</v>
       </c>
       <c r="E174">
-        <v>12.2867981790592</v>
+        <v>13.1129943502825</v>
       </c>
       <c r="F174">
-        <v>0.0060516240582932</v>
+        <v>0.004739336492891</v>
       </c>
       <c r="G174">
-        <v>0.00432258861306657</v>
+        <v>0.00463162429987075</v>
       </c>
       <c r="H174">
-        <v>0.506611982671383</v>
+        <v>0.368113318466366</v>
       </c>
       <c r="I174">
-        <v>0.117086330540273</v>
+        <v>0.203787400244217</v>
       </c>
       <c r="J174">
-        <v>0.113005288397514</v>
+        <v>-0.161849407320038</v>
       </c>
       <c r="K174">
-        <v>0.0125806501006935</v>
+        <v>-0.495075595322421</v>
       </c>
       <c r="L174">
-        <v>0.841321705322282</v>
+        <v>0.408064445078014</v>
       </c>
       <c r="M174">
-        <v>-0.0942571504196356</v>
+        <v>-0.620605843671213</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8047,40 +8044,40 @@
         <v>179</v>
       </c>
       <c r="B175">
-        <v>0.102218871176217</v>
+        <v>0.124630250443699</v>
       </c>
       <c r="C175">
-        <v>0.0253123653597587</v>
+        <v>0.0301715637941234</v>
       </c>
       <c r="D175">
-        <v>0.166092201637225</v>
+        <v>0.192664168802997</v>
       </c>
       <c r="E175">
-        <v>13.1129943502825</v>
+        <v>13.8174386920981</v>
       </c>
       <c r="F175">
-        <v>0.004739336492891</v>
+        <v>0.00315519621376454</v>
       </c>
       <c r="G175">
-        <v>0.00463162429987075</v>
+        <v>0.00315519621376454</v>
       </c>
       <c r="H175">
-        <v>0.347741739032512</v>
+        <v>0.19740007450002</v>
       </c>
       <c r="I175">
-        <v>0.511374279190776</v>
+        <v>0.363253999196851</v>
       </c>
       <c r="J175">
-        <v>-0.152905909830627</v>
+        <v>-0.416267593827949</v>
       </c>
       <c r="K175">
-        <v>-0.0816207470470584</v>
+        <v>-0.528820311492579</v>
       </c>
       <c r="L175">
-        <v>-0.271410221706103</v>
+        <v>-0.593102433946849</v>
       </c>
       <c r="M175">
-        <v>-0.716844723395904</v>
+        <v>0.156139725831655</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8088,40 +8085,40 @@
         <v>180</v>
       </c>
       <c r="B176">
-        <v>0.124630250443699</v>
+        <v>0.137422984195017</v>
       </c>
       <c r="C176">
-        <v>0.0301715637941234</v>
+        <v>0.0302705598714171</v>
       </c>
       <c r="D176">
-        <v>0.192664168802997</v>
+        <v>0.206268416822931</v>
       </c>
       <c r="E176">
-        <v>13.8174386920981</v>
+        <v>11.665625</v>
       </c>
       <c r="F176">
-        <v>0.00315519621376454</v>
+        <v>0.00187516742566301</v>
       </c>
       <c r="G176">
-        <v>0.00315519621376454</v>
+        <v>0.00455397803375301</v>
       </c>
       <c r="H176">
-        <v>0.297401115776734</v>
+        <v>0.265154912290123</v>
       </c>
       <c r="I176">
-        <v>0.327149467132867</v>
+        <v>0.194345390089983</v>
       </c>
       <c r="J176">
-        <v>-0.431650562050019</v>
+        <v>-0.357535008769238</v>
       </c>
       <c r="K176">
-        <v>0.089749266106608</v>
+        <v>0.872681857680039</v>
       </c>
       <c r="L176">
-        <v>0.355377602777329</v>
+        <v>0.0465331491783624</v>
       </c>
       <c r="M176">
-        <v>-0.695597170385922</v>
+        <v>0.0187750005920425</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8129,40 +8126,40 @@
         <v>181</v>
       </c>
       <c r="B177">
-        <v>0.137422984195017</v>
+        <v>0.0891806633131554</v>
       </c>
       <c r="C177">
-        <v>0.0302705598714171</v>
+        <v>0.0255776281012874</v>
       </c>
       <c r="D177">
-        <v>0.206268416822931</v>
+        <v>0.148861795549493</v>
       </c>
       <c r="E177">
-        <v>11.665625</v>
+        <v>10.085124677558</v>
       </c>
       <c r="F177">
-        <v>0.00187516742566301</v>
+        <v>0.00323983289282974</v>
       </c>
       <c r="G177">
-        <v>0.00455397803375301</v>
+        <v>0.00247250404979112</v>
       </c>
       <c r="H177">
-        <v>0.206645319712676</v>
+        <v>0.0813702262213842</v>
       </c>
       <c r="I177">
-        <v>0.158786388610421</v>
+        <v>0.0808886041633184</v>
       </c>
       <c r="J177">
-        <v>-0.401163988553445</v>
+        <v>-0.0334091057034236</v>
       </c>
       <c r="K177">
-        <v>0.8391662192779</v>
+        <v>0.12399181461288</v>
       </c>
       <c r="L177">
-        <v>-0.029864928046667</v>
+        <v>-0.551662834647076</v>
       </c>
       <c r="M177">
-        <v>0.257021772261417</v>
+        <v>-0.816096745757172</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8170,40 +8167,40 @@
         <v>182</v>
       </c>
       <c r="B178">
-        <v>0.0891806633131554</v>
+        <v>0.0952619704186513</v>
       </c>
       <c r="C178">
-        <v>0.0255776281012874</v>
+        <v>0.0294560040110303</v>
       </c>
       <c r="D178">
-        <v>0.148861795549493</v>
+        <v>0.165078967159689</v>
       </c>
       <c r="E178">
-        <v>10.085124677558</v>
+        <v>9.77696078431373</v>
       </c>
       <c r="F178">
-        <v>0.00323983289282974</v>
+        <v>0.00501378791677112</v>
       </c>
       <c r="G178">
-        <v>0.00247250404979112</v>
+        <v>0.00275758335422412</v>
       </c>
       <c r="H178">
-        <v>0.267752290439467</v>
+        <v>0.46385395118735</v>
       </c>
       <c r="I178">
-        <v>0.313394523303209</v>
+        <v>0.334749005708673</v>
       </c>
       <c r="J178">
-        <v>-0.371990487086392</v>
+        <v>-0.28735017555759</v>
       </c>
       <c r="K178">
-        <v>-0.160459347693266</v>
+        <v>-0.283567757634609</v>
       </c>
       <c r="L178">
-        <v>-0.179228104710097</v>
+        <v>-0.710163687907553</v>
       </c>
       <c r="M178">
-        <v>-0.796144299398721</v>
+        <v>-0.0739550874489634</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8211,40 +8208,40 @@
         <v>183</v>
       </c>
       <c r="B179">
-        <v>0.0952619704186513</v>
+        <v>0.271012006861063</v>
       </c>
       <c r="C179">
-        <v>0.0294560040110303</v>
+        <v>0.0428816466552316</v>
       </c>
       <c r="D179">
-        <v>0.165078967159689</v>
+        <v>0.334476843910806</v>
       </c>
       <c r="E179">
-        <v>9.77696078431373</v>
+        <v>16.1944444444444</v>
       </c>
       <c r="F179">
-        <v>0.00501378791677112</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>0.00275758335422412</v>
+        <v>0.00514579759862779</v>
       </c>
       <c r="H179">
-        <v>0.336352864119187</v>
+        <v>0.554995303713244</v>
       </c>
       <c r="I179">
-        <v>-0.00561792326432172</v>
+        <v>0.12289004032732</v>
       </c>
       <c r="J179">
-        <v>-0.165757024125287</v>
+        <v>-0.172734648503478</v>
       </c>
       <c r="K179">
-        <v>0.062588582200807</v>
+        <v>0.315638352572466</v>
       </c>
       <c r="L179">
-        <v>0.527643789027388</v>
+        <v>0.150953825637398</v>
       </c>
       <c r="M179">
-        <v>-0.759627869399918</v>
+        <v>-0.724310958747517</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8252,40 +8249,40 @@
         <v>184</v>
       </c>
       <c r="B180">
-        <v>0.271012006861063</v>
+        <v>0.122647738527567</v>
       </c>
       <c r="C180">
-        <v>0.0428816466552316</v>
+        <v>0.0302079894354572</v>
       </c>
       <c r="D180">
-        <v>0.334476843910806</v>
+        <v>0.191812479366127</v>
       </c>
       <c r="E180">
-        <v>16.1944444444444</v>
+        <v>17.5086705202312</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>0.00412677451304061</v>
       </c>
       <c r="G180">
-        <v>0.00514579759862779</v>
+        <v>0.00627269725982172</v>
       </c>
       <c r="H180">
-        <v>0.28441979793933</v>
+        <v>0.161649837476863</v>
       </c>
       <c r="I180">
-        <v>0.550098634053279</v>
+        <v>0.200897304499213</v>
       </c>
       <c r="J180">
-        <v>-0.417475467223912</v>
+        <v>-0.104925393721291</v>
       </c>
       <c r="K180">
-        <v>-0.202588223927425</v>
+        <v>-0.169228768643459</v>
       </c>
       <c r="L180">
-        <v>-0.379271337640898</v>
+        <v>-0.915697894955308</v>
       </c>
       <c r="M180">
-        <v>-0.507269523615462</v>
+        <v>-0.235285473157443</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8293,40 +8290,40 @@
         <v>185</v>
       </c>
       <c r="B181">
-        <v>0.122647738527567</v>
+        <v>0.1288</v>
       </c>
       <c r="C181">
-        <v>0.0302079894354572</v>
+        <v>0.03296</v>
       </c>
       <c r="D181">
-        <v>0.191812479366127</v>
+        <v>0.19968</v>
       </c>
       <c r="E181">
-        <v>17.5086705202312</v>
+        <v>14.9164677804296</v>
       </c>
       <c r="F181">
-        <v>0.00412677451304061</v>
+        <v>0.00672</v>
       </c>
       <c r="G181">
-        <v>0.00627269725982172</v>
+        <v>0.00288</v>
       </c>
       <c r="H181">
-        <v>0.487601413824539</v>
+        <v>0.565132968564926</v>
       </c>
       <c r="I181">
-        <v>0.291706959281836</v>
+        <v>0.358585800475601</v>
       </c>
       <c r="J181">
-        <v>0.428177005509366</v>
+        <v>-0.331108777014772</v>
       </c>
       <c r="K181">
-        <v>-0.247425138747204</v>
+        <v>-0.455705038739698</v>
       </c>
       <c r="L181">
-        <v>0.0796453010437715</v>
+        <v>-0.12630705196209</v>
       </c>
       <c r="M181">
-        <v>-0.652881145258049</v>
+        <v>-0.467747127852161</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8334,40 +8331,40 @@
         <v>186</v>
       </c>
       <c r="B182">
-        <v>0.1288</v>
+        <v>0.116411641164116</v>
       </c>
       <c r="C182">
-        <v>0.03296</v>
+        <v>0.027002700270027</v>
       </c>
       <c r="D182">
-        <v>0.19968</v>
+        <v>0.183918391839184</v>
       </c>
       <c r="E182">
-        <v>14.9164677804296</v>
+        <v>9.25833333333333</v>
       </c>
       <c r="F182">
-        <v>0.00672</v>
+        <v>0.006000600060006</v>
       </c>
       <c r="G182">
-        <v>0.00288</v>
+        <v>0.0036003600360036</v>
       </c>
       <c r="H182">
-        <v>0.377949266360329</v>
+        <v>0.434410396826106</v>
       </c>
       <c r="I182">
-        <v>0.470820180530595</v>
+        <v>0.761305311964609</v>
       </c>
       <c r="J182">
-        <v>-0.465561360853698</v>
+        <v>-0.221600803240891</v>
       </c>
       <c r="K182">
-        <v>-0.0243145723571354</v>
+        <v>0.254792107112608</v>
       </c>
       <c r="L182">
-        <v>0.216996543939025</v>
+        <v>-0.179907615696522</v>
       </c>
       <c r="M182">
-        <v>-0.60914417869047</v>
+        <v>-0.292077292979712</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8375,40 +8372,40 @@
         <v>187</v>
       </c>
       <c r="B183">
-        <v>0.116411641164116</v>
+        <v>0.121907422186752</v>
       </c>
       <c r="C183">
-        <v>0.027002700270027</v>
+        <v>0.0291300877893057</v>
       </c>
       <c r="D183">
-        <v>0.183918391839184</v>
+        <v>0.186552274541101</v>
       </c>
       <c r="E183">
-        <v>9.25833333333333</v>
+        <v>10.663829787234</v>
       </c>
       <c r="F183">
-        <v>0.006000600060006</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="G183">
-        <v>0.0036003600360036</v>
+        <v>0.00319233838786911</v>
       </c>
       <c r="H183">
-        <v>0.536532763658098</v>
+        <v>0.408427494061948</v>
       </c>
       <c r="I183">
-        <v>0.385299952066893</v>
+        <v>0.399497506039174</v>
       </c>
       <c r="J183">
-        <v>-0.297003124265256</v>
+        <v>-0.79706813361588</v>
       </c>
       <c r="K183">
-        <v>0.291318136515706</v>
+        <v>0.102311350362313</v>
       </c>
       <c r="L183">
-        <v>0.448585887210388</v>
+        <v>-0.019396777414236</v>
       </c>
       <c r="M183">
-        <v>0.435166783851911</v>
+        <v>-0.165611798341294</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8416,81 +8413,40 @@
         <v>188</v>
       </c>
       <c r="B184">
-        <v>0.121907422186752</v>
+        <v>0.0994339911274285</v>
       </c>
       <c r="C184">
-        <v>0.0291300877893057</v>
+        <v>0.0249349854673398</v>
       </c>
       <c r="D184">
-        <v>0.186552274541101</v>
+        <v>0.160777114884504</v>
       </c>
       <c r="E184">
-        <v>10.663829787234</v>
+        <v>11.6940966010733</v>
       </c>
       <c r="F184">
-        <v>0.00558659217877095</v>
+        <v>0.00933149762888175</v>
       </c>
       <c r="G184">
-        <v>0.00319233838786911</v>
+        <v>0.00443628575799296</v>
       </c>
       <c r="H184">
-        <v>0.338995376508264</v>
+        <v>0.380319440154725</v>
       </c>
       <c r="I184">
-        <v>0.553144566441669</v>
+        <v>0.450372236579124</v>
       </c>
       <c r="J184">
-        <v>-0.255573467909066</v>
+        <v>-0.544848857684237</v>
       </c>
       <c r="K184">
-        <v>0.175632712487561</v>
+        <v>-0.457184431427167</v>
       </c>
       <c r="L184">
-        <v>0.451365024275729</v>
+        <v>0.142319379253785</v>
       </c>
       <c r="M184">
-        <v>-0.528411005740649</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13">
-      <c r="A185" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B185">
-        <v>0.0994339911274285</v>
-      </c>
-      <c r="C185">
-        <v>0.0249349854673398</v>
-      </c>
-      <c r="D185">
-        <v>0.160777114884504</v>
-      </c>
-      <c r="E185">
-        <v>11.6940966010733</v>
-      </c>
-      <c r="F185">
-        <v>0.00933149762888175</v>
-      </c>
-      <c r="G185">
-        <v>0.00443628575799296</v>
-      </c>
-      <c r="H185">
-        <v>0.376943632253058</v>
-      </c>
-      <c r="I185">
-        <v>0.322364285465616</v>
-      </c>
-      <c r="J185">
-        <v>-0.462471757525293</v>
-      </c>
-      <c r="K185">
-        <v>-0.380809821005732</v>
-      </c>
-      <c r="L185">
-        <v>-0.614657160718607</v>
-      </c>
-      <c r="M185">
-        <v>0.131510813450851</v>
+        <v>0.355512706086199</v>
       </c>
     </row>
   </sheetData>
